--- a/lca estimations/selects1999_lcaresults.xlsx
+++ b/lca estimations/selects1999_lcaresults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\OneDrive\Bureau\master-thesis\lca estimations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\master-thesis\lca estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14375345-84B4-4DB4-A15F-674330F3569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B65A14-3A20-4591-BED0-5E7021EB3A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
     <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
     <sheet name="Feuil5" sheetId="5" r:id="rId5"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId6"/>
+    <sheet name="Feuil7" sheetId="7" r:id="rId7"/>
+    <sheet name="Feuil8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="460">
   <si>
     <t>selects1999.sav</t>
   </si>
@@ -1220,13 +1223,281 @@
   </si>
   <si>
     <t>Bourgeois group</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>center-right</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Policy preferences</t>
+  </si>
+  <si>
+    <t>Characteristics</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>Rather middle-aged and old; female; low income; middle education;
+Protestant; urban;German-speaking.</t>
+  </si>
+  <si>
+    <t>Young; female;
+high income; high education;
+French-speaking; urban.</t>
+  </si>
+  <si>
+    <t>Young; female;middle-high income and education; skilled workers and managers; Catholics or no religion; urban.</t>
+  </si>
+  <si>
+    <t>Rather old; male; middle-low income and education; Protestant; German speaking; rural.</t>
+  </si>
+  <si>
+    <t>Rather old; high income; high education; vocational training; managers; skilled employees; retired; German-speaking; urban.</t>
+  </si>
+  <si>
+    <t>Old; retired; low income;
+low education; Protestant; craft specialists; skilled and unskilled employees; managers; German-speaking; rural.</t>
+  </si>
+  <si>
+    <t>Young; male; high income; high education; managers;
+skilled workers; self employed; German-speaking; urban.</t>
+  </si>
+  <si>
+    <t>Old; female; low income; middle-education; skilled and unskilled workers; Protestant</t>
+  </si>
+  <si>
+    <t>Rather old; female; low income; low education; unskilled workers; socio-cultural specialists.</t>
+  </si>
+  <si>
+    <t>center-left</t>
+  </si>
+  <si>
+    <t>For increase in social spending;
+for higher taxes HI;
+for state intervention;
+for no Swiss army;
+strongly pro-EU integration;
+for equal chances Swiss-CH;
+question traditions;
+pro-environment;
+against nuclear energy.</t>
+  </si>
+  <si>
+    <t>For increase in social spending;
+for increase in taxes on HI;
+rather free-market;
+divided over Swiss army;
+pro-EU integration;
+for equal chances Swiss-foreigners;
+pro-environment;
+against nuclear energy.</t>
+  </si>
+  <si>
+    <t>Against social spending;
+for increase in taxes on HI;
+for free markets;
+for strong army;
+against EU-integration;
+for better chances for the Swiss;
+defend traditions;
+divided over environment vs growth;
+pro-nuclear energy.</t>
+  </si>
+  <si>
+    <t>Pro-EU integration;
+for equal chances Swiss-foreigners;
+rather defend traditions;
+pro-nuclear energy.</t>
+  </si>
+  <si>
+    <t>For higher taxes on HI;
+for strong army;
+pro-EU integration;
+for equal chances Swiss-foreigners;
+defend traditions;
+against nuclear energy.</t>
+  </si>
+  <si>
+    <t>For increase in social spending;
+for higher taxes on HI;
+for no army;
+pro-EU integration;
+for equal chances Swiss-foreigners;
+question traditions;
+pro-environment;
+against nuclear energy.</t>
+  </si>
+  <si>
+    <t>For reducing taxes on HI;
+for reducing social spending;
+strongly for free-markets;
+for strong army;
+against EU-integration;
+rather for better chances for the Swiss;
+defend traditions;
+divided on environment vs growth;
+pro-nuclear energy.</t>
+  </si>
+  <si>
+    <t>For reducing social spending;
+for reducing taxes on HI;
+strongly for free markets;
+for a strong army, but with an appreciable minority of no army supporters (37%);
+for EU-integration;
+for equal chances Swiss-foreigners;
+question traditions;
+rather for economic growth;
+pro-nuclear energy.</t>
+  </si>
+  <si>
+    <t>Against EU-integration;
+for better chances for the Swiss;
+defend traditions;
+pro-environment;
+against nuclear energy.</t>
+  </si>
+  <si>
+    <t>Neoliberal reforms/policies</t>
+  </si>
+  <si>
+    <t>In favor</t>
+  </si>
+  <si>
+    <t>Against</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Unclear</t>
+  </si>
+  <si>
+    <t>2, 8</t>
+  </si>
+  <si>
+    <t>Somme</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Résultat cumulé</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Center-left</t>
+  </si>
+  <si>
+    <t>Center-right</t>
+  </si>
+  <si>
+    <t>5, 9</t>
+  </si>
+  <si>
+    <t>Blocs</t>
+  </si>
+  <si>
+    <t>Undecided</t>
+  </si>
+  <si>
+    <t>Pro-EU</t>
+  </si>
+  <si>
+    <t>Anti-EU</t>
+  </si>
+  <si>
+    <t>4, 6</t>
+  </si>
+  <si>
+    <t>3,7</t>
+  </si>
+  <si>
+    <t>For increase in taxes on high income (HI), but supports free markets;
+no clear opinion on Swiss army;
+rather pro-EU integration;
+but with an appreciable minority of; anti-EU supporters (40%);
+for equal chances Swiss-foreigners;
+defend traditions;
+pro-environment;
+against nuclear energy.</t>
+  </si>
+  <si>
+    <t>Against social spending;
+for increase in taxes on HI;
+free-market but with an appreciable minority (40%) in favor of state intervention;
+for a strong Swiss army;
+against EU integration;
+for better chances for the Swiss;
+defend traditions;
+pro-environment;
+against nuclear energy.</t>
+  </si>
+  <si>
+    <t>For increase in social spending; for increase in taxes on HI; Undecided or in favor of state intervention; undecided on EU integration; rather for no army; for better chances for the Swiss; defend traditions; pro-environment; against nuclear energy.</t>
+  </si>
+  <si>
+    <t>Rather old; female; low income; low education; unskilled workers; craft specialists; self employed; Protestant;
+German and Italian-speaking; rural</t>
+  </si>
+  <si>
+    <t>Rather young; female; high income; high education; skilled workers; managers; socio-cultural specialists; German and French-speaking.</t>
+  </si>
+  <si>
+    <t>Old; retired; male; high income; rather high education; Protestant; self-employed; German speaking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1266,8 +1537,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,8 +1557,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1289,12 +1602,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1344,6 +1791,76 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11926,16 +12443,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>288924</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>622299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>222249</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>184149</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>555624</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11962,16 +12479,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11998,16 +12515,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12034,16 +12551,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12531,14 +13048,14 @@
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -12562,7 +13079,7 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -12586,7 +13103,7 @@
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -12610,7 +13127,7 @@
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
@@ -12662,7 +13179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -12710,7 +13227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -12766,7 +13283,7 @@
         <v>0.64410000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -12822,7 +13339,7 @@
         <v>0.62990000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -12878,7 +13395,7 @@
         <v>0.60429999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -12934,7 +13451,7 @@
         <v>0.59250000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -12990,7 +13507,7 @@
         <v>0.57879999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
@@ -13046,7 +13563,7 @@
         <v>0.59330000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
@@ -13102,7 +13619,7 @@
         <v>0.60089999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
@@ -13158,7 +13675,7 @@
         <v>0.60840000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
@@ -13214,7 +13731,7 @@
         <v>0.60580000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
@@ -13270,7 +13787,7 @@
         <v>0.60350000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>53</v>
       </c>
@@ -13326,7 +13843,7 @@
         <v>0.61070000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
@@ -13370,7 +13887,7 @@
         <v>0.61070000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
@@ -13426,7 +13943,7 @@
         <v>0.62929999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>60</v>
       </c>
@@ -13472,7 +13989,7 @@
         <v>0.61070000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>61</v>
       </c>
@@ -13513,18 +14030,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9709DC-552F-4C6B-9224-EEC8D1F9F04F}">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
@@ -13543,7 +14060,7 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -13560,7 +14077,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -13581,7 +14098,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
@@ -13602,7 +14119,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
@@ -13623,7 +14140,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -13644,7 +14161,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -13661,7 +14178,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -13680,7 +14197,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>69</v>
       </c>
@@ -13703,7 +14220,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
@@ -13726,7 +14243,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
@@ -13749,7 +14266,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
@@ -13772,7 +14289,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>75</v>
       </c>
@@ -13793,7 +14310,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>76</v>
       </c>
@@ -13814,7 +14331,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>77</v>
       </c>
@@ -13835,7 +14352,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
@@ -13856,7 +14373,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>79</v>
       </c>
@@ -13877,7 +14394,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>80</v>
       </c>
@@ -13898,7 +14415,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>81</v>
       </c>
@@ -13919,7 +14436,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -13936,7 +14453,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
@@ -13955,7 +14472,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>83</v>
       </c>
@@ -13976,7 +14493,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>84</v>
       </c>
@@ -13997,7 +14514,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>85</v>
       </c>
@@ -14018,7 +14535,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
@@ -14039,7 +14556,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>87</v>
       </c>
@@ -14060,7 +14577,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>88</v>
       </c>
@@ -14081,7 +14598,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>89</v>
       </c>
@@ -14102,7 +14619,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
@@ -14123,7 +14640,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -14140,7 +14657,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>91</v>
       </c>
@@ -14161,7 +14678,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>93</v>
       </c>
@@ -14182,7 +14699,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>94</v>
       </c>
@@ -14203,7 +14720,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
@@ -14224,7 +14741,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>96</v>
       </c>
@@ -14245,7 +14762,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>97</v>
       </c>
@@ -14266,7 +14783,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>98</v>
       </c>
@@ -14287,7 +14804,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>99</v>
       </c>
@@ -14308,7 +14825,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>100</v>
       </c>
@@ -14329,7 +14846,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>101</v>
       </c>
@@ -14350,7 +14867,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -14367,7 +14884,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>102</v>
       </c>
@@ -14388,7 +14905,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>104</v>
       </c>
@@ -14433,7 +14950,7 @@
       </c>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>105</v>
       </c>
@@ -14478,7 +14995,7 @@
       </c>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>106</v>
       </c>
@@ -14523,7 +15040,7 @@
       </c>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>107</v>
       </c>
@@ -14568,7 +15085,7 @@
       </c>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -14613,7 +15130,7 @@
       </c>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>109</v>
       </c>
@@ -14658,7 +15175,7 @@
       </c>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>110</v>
       </c>
@@ -14703,7 +15220,7 @@
       </c>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>111</v>
       </c>
@@ -14748,7 +15265,7 @@
       </c>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>112</v>
       </c>
@@ -14793,7 +15310,7 @@
       </c>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>113</v>
       </c>
@@ -14838,7 +15355,7 @@
       </c>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>114</v>
       </c>
@@ -14883,7 +15400,7 @@
       </c>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>115</v>
       </c>
@@ -14928,7 +15445,7 @@
       </c>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>116</v>
       </c>
@@ -14973,7 +15490,7 @@
       </c>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>117</v>
       </c>
@@ -15018,7 +15535,7 @@
       </c>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -15035,7 +15552,7 @@
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>102</v>
       </c>
@@ -15056,7 +15573,7 @@
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>104</v>
       </c>
@@ -15101,7 +15618,7 @@
       </c>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>105</v>
       </c>
@@ -15146,7 +15663,7 @@
       </c>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>106</v>
       </c>
@@ -15191,7 +15708,7 @@
       </c>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>107</v>
       </c>
@@ -15236,7 +15753,7 @@
       </c>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>108</v>
       </c>
@@ -15281,7 +15798,7 @@
       </c>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>109</v>
       </c>
@@ -15326,7 +15843,7 @@
       </c>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>110</v>
       </c>
@@ -15371,7 +15888,7 @@
       </c>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>111</v>
       </c>
@@ -15416,7 +15933,7 @@
       </c>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>112</v>
       </c>
@@ -15461,7 +15978,7 @@
       </c>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>113</v>
       </c>
@@ -15506,7 +16023,7 @@
       </c>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>114</v>
       </c>
@@ -15551,7 +16068,7 @@
       </c>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>115</v>
       </c>
@@ -15596,7 +16113,7 @@
       </c>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>116</v>
       </c>
@@ -15641,7 +16158,7 @@
       </c>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>117</v>
       </c>
@@ -15686,7 +16203,7 @@
       </c>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -15703,7 +16220,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>119</v>
       </c>
@@ -15722,7 +16239,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>120</v>
       </c>
@@ -15743,7 +16260,7 @@
       <c r="N77" s="17"/>
       <c r="O77" s="17"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -15760,7 +16277,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>122</v>
       </c>
@@ -15779,7 +16296,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>123</v>
       </c>
@@ -15800,7 +16317,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>124</v>
       </c>
@@ -15819,7 +16336,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>125</v>
       </c>
@@ -15840,7 +16357,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>126</v>
       </c>
@@ -15861,7 +16378,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>127</v>
       </c>
@@ -15882,7 +16399,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>128</v>
       </c>
@@ -15903,7 +16420,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>129</v>
       </c>
@@ -15922,7 +16439,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>130</v>
       </c>
@@ -15943,7 +16460,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>131</v>
       </c>
@@ -15964,7 +16481,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>125</v>
       </c>
@@ -15985,7 +16502,7 @@
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>132</v>
       </c>
@@ -16006,7 +16523,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>133</v>
       </c>
@@ -16025,7 +16542,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>134</v>
       </c>
@@ -16046,7 +16563,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>135</v>
       </c>
@@ -16067,7 +16584,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>136</v>
       </c>
@@ -16088,7 +16605,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>137</v>
       </c>
@@ -16109,7 +16626,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>138</v>
       </c>
@@ -16128,7 +16645,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>139</v>
       </c>
@@ -16149,7 +16666,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>140</v>
       </c>
@@ -16170,7 +16687,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>142</v>
       </c>
@@ -16189,7 +16706,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>143</v>
       </c>
@@ -16210,7 +16727,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>145</v>
       </c>
@@ -16231,7 +16748,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>147</v>
       </c>
@@ -16252,7 +16769,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>149</v>
       </c>
@@ -16273,7 +16790,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>150</v>
       </c>
@@ -16295,28 +16812,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA7F9F8-281B-4B85-B195-B5DD0C70CF99}">
   <dimension ref="A1:N372"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A331" sqref="A331:XFD331"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>105</v>
@@ -16358,7 +16877,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>154</v>
       </c>
@@ -16400,7 +16919,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>155</v>
       </c>
@@ -16418,7 +16937,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>156</v>
       </c>
@@ -16436,11 +16955,11 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="31">
         <v>0.23469999999999999</v>
       </c>
       <c r="C7" s="2">
@@ -16480,11 +16999,11 @@
         <v>0.31830000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="31">
         <v>0.4103</v>
       </c>
       <c r="C8" s="2">
@@ -16524,11 +17043,11 @@
         <v>0.2878</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="31">
         <v>0.35499999999999998</v>
       </c>
       <c r="C9" s="2">
@@ -16568,7 +17087,7 @@
         <v>0.39389999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>160</v>
       </c>
@@ -16586,11 +17105,11 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="31">
         <v>0.65459999999999996</v>
       </c>
       <c r="C11" s="2">
@@ -16630,11 +17149,11 @@
         <v>0.66679999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="31">
         <v>0.221</v>
       </c>
       <c r="C12" s="2">
@@ -16674,11 +17193,11 @@
         <v>0.1774</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="31">
         <v>0.1244</v>
       </c>
       <c r="C13" s="2">
@@ -16718,7 +17237,7 @@
         <v>0.15579999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>163</v>
       </c>
@@ -16736,11 +17255,11 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="32">
         <v>0.23480000000000001</v>
       </c>
       <c r="C15" s="2">
@@ -16780,11 +17299,11 @@
         <v>0.27479999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="32">
         <v>0.2427</v>
       </c>
       <c r="C16" s="2">
@@ -16824,11 +17343,11 @@
         <v>0.21990000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="32">
         <v>0.52249999999999996</v>
       </c>
       <c r="C17" s="2">
@@ -16868,7 +17387,7 @@
         <v>0.50539999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>166</v>
       </c>
@@ -16886,7 +17405,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
@@ -16930,7 +17449,7 @@
         <v>0.45269999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>158</v>
       </c>
@@ -16974,7 +17493,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>168</v>
       </c>
@@ -17018,7 +17537,7 @@
         <v>0.3533</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>169</v>
       </c>
@@ -17036,7 +17555,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>170</v>
       </c>
@@ -17080,7 +17599,7 @@
         <v>0.56669999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>158</v>
       </c>
@@ -17124,7 +17643,7 @@
         <v>9.4799999999999995E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>171</v>
       </c>
@@ -17168,7 +17687,7 @@
         <v>0.33850000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>172</v>
       </c>
@@ -17186,7 +17705,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>173</v>
       </c>
@@ -17230,7 +17749,7 @@
         <v>0.46539999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>158</v>
       </c>
@@ -17274,7 +17793,7 @@
         <v>0.1089</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>174</v>
       </c>
@@ -17318,7 +17837,7 @@
         <v>0.42570000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>175</v>
       </c>
@@ -17336,7 +17855,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>176</v>
       </c>
@@ -17380,7 +17899,7 @@
         <v>0.59379999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>158</v>
       </c>
@@ -17424,7 +17943,7 @@
         <v>0.1091</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>177</v>
       </c>
@@ -17468,7 +17987,7 @@
         <v>0.29709999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>178</v>
       </c>
@@ -17486,7 +18005,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>179</v>
       </c>
@@ -17530,7 +18049,7 @@
         <v>0.53080000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>158</v>
       </c>
@@ -17574,7 +18093,7 @@
         <v>0.2959</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>180</v>
       </c>
@@ -17618,7 +18137,7 @@
         <v>0.17330000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>181</v>
       </c>
@@ -17636,7 +18155,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>182</v>
       </c>
@@ -17680,7 +18199,7 @@
         <v>0.2339</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>158</v>
       </c>
@@ -17724,7 +18243,7 @@
         <v>9.6500000000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>183</v>
       </c>
@@ -17768,7 +18287,7 @@
         <v>0.66959999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>184</v>
       </c>
@@ -17786,7 +18305,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>185</v>
       </c>
@@ -17804,7 +18323,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>186</v>
       </c>
@@ -17848,7 +18367,7 @@
         <v>0.19489999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>187</v>
       </c>
@@ -17892,7 +18411,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>188</v>
       </c>
@@ -17936,7 +18455,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>189</v>
       </c>
@@ -17980,7 +18499,7 @@
         <v>0.2087</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>190</v>
       </c>
@@ -18024,7 +18543,7 @@
         <v>0.1958</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>191</v>
       </c>
@@ -18068,7 +18587,7 @@
         <v>48.6402</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>192</v>
       </c>
@@ -18086,7 +18605,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>193</v>
       </c>
@@ -18130,7 +18649,7 @@
         <v>0.45090000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>194</v>
       </c>
@@ -18174,7 +18693,7 @@
         <v>0.54910000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>195</v>
       </c>
@@ -18192,7 +18711,7 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>44986</v>
       </c>
@@ -18236,7 +18755,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>45020</v>
       </c>
@@ -18280,7 +18799,7 @@
         <v>0.12620000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>45082</v>
       </c>
@@ -18324,7 +18843,7 @@
         <v>0.2112</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>45145</v>
       </c>
@@ -18368,7 +18887,7 @@
         <v>0.1381</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>45239</v>
       </c>
@@ -18412,7 +18931,7 @@
         <v>0.16819999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>196</v>
       </c>
@@ -18456,7 +18975,7 @@
         <v>0.13539999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>191</v>
       </c>
@@ -18466,7 +18985,7 @@
       <c r="C60" s="2">
         <v>6.2037000000000004</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="22">
         <v>4.8670999999999998</v>
       </c>
       <c r="E60" s="2">
@@ -18478,7 +18997,7 @@
       <c r="G60" s="2">
         <v>5.9273999999999996</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="22">
         <v>4.5019999999999998</v>
       </c>
       <c r="I60" s="2">
@@ -18487,20 +19006,20 @@
       <c r="J60" s="2">
         <v>6.2533000000000003</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="21">
         <v>7.2385000000000002</v>
       </c>
       <c r="L60" s="2">
         <v>5.4199000000000002</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60" s="22">
         <v>4.7766999999999999</v>
       </c>
       <c r="N60" s="2">
         <v>5.6256000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>197</v>
       </c>
@@ -18518,7 +19037,7 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>198</v>
       </c>
@@ -18562,7 +19081,7 @@
         <v>7.9799999999999996E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>199</v>
       </c>
@@ -18606,7 +19125,7 @@
         <v>0.15559999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>200</v>
       </c>
@@ -18650,7 +19169,7 @@
         <v>0.36159999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>201</v>
       </c>
@@ -18694,7 +19213,7 @@
         <v>0.23569999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>202</v>
       </c>
@@ -18738,7 +19257,7 @@
         <v>0.1139</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>196</v>
       </c>
@@ -18782,7 +19301,7 @@
         <v>5.3400000000000003E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>203</v>
       </c>
@@ -18800,7 +19319,7 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>204</v>
       </c>
@@ -18844,7 +19363,7 @@
         <v>0.5998</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>205</v>
       </c>
@@ -18888,7 +19407,7 @@
         <v>0.28670000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>206</v>
       </c>
@@ -18932,7 +19451,7 @@
         <v>9.9400000000000002E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>196</v>
       </c>
@@ -18976,7 +19495,7 @@
         <v>1.41E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>207</v>
       </c>
@@ -18994,7 +19513,7 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>208</v>
       </c>
@@ -19038,7 +19557,7 @@
         <v>0.1406</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>209</v>
       </c>
@@ -19082,7 +19601,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>210</v>
       </c>
@@ -19126,7 +19645,7 @@
         <v>0.39069999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>211</v>
       </c>
@@ -19170,7 +19689,7 @@
         <v>0.11020000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>212</v>
       </c>
@@ -19214,7 +19733,7 @@
         <v>6.4799999999999996E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>213</v>
       </c>
@@ -19258,7 +19777,7 @@
         <v>9.64E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>214</v>
       </c>
@@ -19302,7 +19821,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>215</v>
       </c>
@@ -19346,7 +19865,7 @@
         <v>0.11260000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>196</v>
       </c>
@@ -19390,7 +19909,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>216</v>
       </c>
@@ -19408,7 +19927,7 @@
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>217</v>
       </c>
@@ -19452,7 +19971,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>218</v>
       </c>
@@ -19496,7 +20015,7 @@
         <v>0.3775</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>219</v>
       </c>
@@ -19540,7 +20059,7 @@
         <v>0.1452</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>196</v>
       </c>
@@ -19584,7 +20103,7 @@
         <v>7.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>220</v>
       </c>
@@ -19602,7 +20121,7 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>217</v>
       </c>
@@ -19646,7 +20165,7 @@
         <v>0.41249999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>218</v>
       </c>
@@ -19690,7 +20209,7 @@
         <v>0.3367</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>219</v>
       </c>
@@ -19734,7 +20253,7 @@
         <v>0.13750000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>196</v>
       </c>
@@ -19778,7 +20297,7 @@
         <v>0.1133</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>221</v>
       </c>
@@ -19796,7 +20315,7 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>222</v>
       </c>
@@ -19840,7 +20359,7 @@
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>223</v>
       </c>
@@ -19884,7 +20403,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>224</v>
       </c>
@@ -19928,7 +20447,7 @@
         <v>0.10680000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>225</v>
       </c>
@@ -19972,7 +20491,7 @@
         <v>0.18629999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>226</v>
       </c>
@@ -20016,7 +20535,7 @@
         <v>0.11020000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>227</v>
       </c>
@@ -20060,7 +20579,7 @@
         <v>3.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>228</v>
       </c>
@@ -20104,7 +20623,7 @@
         <v>7.0900000000000005E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>229</v>
       </c>
@@ -20148,7 +20667,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>230</v>
       </c>
@@ -20192,7 +20711,7 @@
         <v>0.20780000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>231</v>
       </c>
@@ -20236,7 +20755,7 @@
         <v>9.64E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>196</v>
       </c>
@@ -20280,7 +20799,7 @@
         <v>7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>232</v>
       </c>
@@ -20298,7 +20817,7 @@
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>233</v>
       </c>
@@ -20342,7 +20861,7 @@
         <v>0.15720000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>234</v>
       </c>
@@ -20386,7 +20905,7 @@
         <v>0.4748</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>235</v>
       </c>
@@ -20430,7 +20949,7 @@
         <v>0.25019999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>236</v>
       </c>
@@ -20474,7 +20993,7 @@
         <v>0.1169</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>196</v>
       </c>
@@ -20518,7 +21037,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>191</v>
       </c>
@@ -20562,7 +21081,7 @@
         <v>2.3271999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>237</v>
       </c>
@@ -20580,7 +21099,7 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>204</v>
       </c>
@@ -20624,7 +21143,7 @@
         <v>0.58560000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>206</v>
       </c>
@@ -20668,7 +21187,7 @@
         <v>0.26640000000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>238</v>
       </c>
@@ -20712,7 +21231,7 @@
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>196</v>
       </c>
@@ -20756,7 +21275,7 @@
         <v>0.1139</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>239</v>
       </c>
@@ -20774,7 +21293,7 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>240</v>
       </c>
@@ -20818,7 +21337,7 @@
         <v>0.16020000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>241</v>
       </c>
@@ -20862,7 +21381,7 @@
         <v>9.98E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>242</v>
       </c>
@@ -20906,7 +21425,7 @@
         <v>0.2268</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>243</v>
       </c>
@@ -20950,7 +21469,7 @@
         <v>0.1661</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>244</v>
       </c>
@@ -20994,7 +21513,7 @@
         <v>2.76E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>245</v>
       </c>
@@ -21038,7 +21557,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>246</v>
       </c>
@@ -21082,7 +21601,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>247</v>
       </c>
@@ -21126,7 +21645,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>248</v>
       </c>
@@ -21170,7 +21689,7 @@
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>249</v>
       </c>
@@ -21214,7 +21733,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>250</v>
       </c>
@@ -21258,7 +21777,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>251</v>
       </c>
@@ -21302,7 +21821,7 @@
         <v>3.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>252</v>
       </c>
@@ -21346,7 +21865,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>253</v>
       </c>
@@ -21390,7 +21909,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>254</v>
       </c>
@@ -21434,7 +21953,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>255</v>
       </c>
@@ -21478,7 +21997,7 @@
         <v>2.12E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>256</v>
       </c>
@@ -21522,7 +22041,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>257</v>
       </c>
@@ -21566,7 +22085,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>258</v>
       </c>
@@ -21610,7 +22129,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>259</v>
       </c>
@@ -21654,7 +22173,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>196</v>
       </c>
@@ -21698,7 +22217,7 @@
         <v>0.21060000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>260</v>
       </c>
@@ -21716,7 +22235,7 @@
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>261</v>
       </c>
@@ -21760,7 +22279,7 @@
         <v>0.15679999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>262</v>
       </c>
@@ -21804,7 +22323,7 @@
         <v>0.24310000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>263</v>
       </c>
@@ -21848,7 +22367,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>264</v>
       </c>
@@ -21892,7 +22411,7 @@
         <v>4.24E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>265</v>
       </c>
@@ -21936,7 +22455,7 @@
         <v>6.2899999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>266</v>
       </c>
@@ -21980,7 +22499,7 @@
         <v>5.5899999999999998E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>267</v>
       </c>
@@ -22024,7 +22543,7 @@
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>268</v>
       </c>
@@ -22068,7 +22587,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>269</v>
       </c>
@@ -22112,7 +22631,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>270</v>
       </c>
@@ -22156,7 +22675,7 @@
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>271</v>
       </c>
@@ -22200,7 +22719,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>272</v>
       </c>
@@ -22244,7 +22763,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>273</v>
       </c>
@@ -22288,7 +22807,7 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>274</v>
       </c>
@@ -22332,7 +22851,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>275</v>
       </c>
@@ -22376,7 +22895,7 @@
         <v>2.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>276</v>
       </c>
@@ -22420,7 +22939,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>277</v>
       </c>
@@ -22464,7 +22983,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>278</v>
       </c>
@@ -22508,7 +23027,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>279</v>
       </c>
@@ -22552,7 +23071,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>280</v>
       </c>
@@ -22596,7 +23115,7 @@
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>281</v>
       </c>
@@ -22640,7 +23159,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>282</v>
       </c>
@@ -22684,7 +23203,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>283</v>
       </c>
@@ -22728,7 +23247,7 @@
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>284</v>
       </c>
@@ -22772,7 +23291,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>285</v>
       </c>
@@ -22816,7 +23335,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>286</v>
       </c>
@@ -22860,7 +23379,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>287</v>
       </c>
@@ -22904,7 +23423,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>288</v>
       </c>
@@ -22948,7 +23467,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>289</v>
       </c>
@@ -22992,7 +23511,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>290</v>
       </c>
@@ -23036,7 +23555,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>291</v>
       </c>
@@ -23080,7 +23599,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>292</v>
       </c>
@@ -23124,7 +23643,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>293</v>
       </c>
@@ -23168,7 +23687,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>294</v>
       </c>
@@ -23212,7 +23731,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>295</v>
       </c>
@@ -23256,7 +23775,7 @@
         <v>1.78E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>296</v>
       </c>
@@ -23300,7 +23819,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>297</v>
       </c>
@@ -23344,7 +23863,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>196</v>
       </c>
@@ -23388,7 +23907,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>298</v>
       </c>
@@ -23406,7 +23925,7 @@
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>299</v>
       </c>
@@ -23450,7 +23969,7 @@
         <v>0.18779999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
         <v>45051</v>
       </c>
@@ -23494,7 +24013,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="14">
         <v>45113</v>
       </c>
@@ -23538,7 +24057,7 @@
         <v>0.27529999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
         <v>45146</v>
       </c>
@@ -23582,7 +24101,7 @@
         <v>0.20069999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
         <v>45208</v>
       </c>
@@ -23626,7 +24145,7 @@
         <v>0.1114</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>196</v>
       </c>
@@ -23670,7 +24189,7 @@
         <v>2.6700000000000002E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>191</v>
       </c>
@@ -23714,7 +24233,7 @@
         <v>6.0984999999999996</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>300</v>
       </c>
@@ -23732,7 +24251,7 @@
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>299</v>
       </c>
@@ -23776,7 +24295,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="14">
         <v>45051</v>
       </c>
@@ -23820,7 +24339,7 @@
         <v>0.24160000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="14">
         <v>45083</v>
       </c>
@@ -23864,7 +24383,7 @@
         <v>0.15010000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="14">
         <v>45114</v>
       </c>
@@ -23908,7 +24427,7 @@
         <v>0.16450000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="14">
         <v>45207</v>
       </c>
@@ -23952,7 +24471,7 @@
         <v>0.21329999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>196</v>
       </c>
@@ -23996,7 +24515,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>191</v>
       </c>
@@ -24040,7 +24559,7 @@
         <v>5.8170999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>301</v>
       </c>
@@ -24058,7 +24577,7 @@
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>302</v>
       </c>
@@ -24102,7 +24621,7 @@
         <v>0.1535</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
         <v>45020</v>
       </c>
@@ -24146,7 +24665,7 @@
         <v>9.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
         <v>45051</v>
       </c>
@@ -24190,7 +24709,7 @@
         <v>0.27589999999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
         <v>45113</v>
       </c>
@@ -24234,7 +24753,7 @@
         <v>0.28510000000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>45207</v>
       </c>
@@ -24278,7 +24797,7 @@
         <v>0.12770000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>196</v>
       </c>
@@ -24322,7 +24841,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>191</v>
       </c>
@@ -24366,7 +24885,7 @@
         <v>5.2920999999999996</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>303</v>
       </c>
@@ -24384,7 +24903,7 @@
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>299</v>
       </c>
@@ -24428,7 +24947,7 @@
         <v>0.1731</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="14">
         <v>45051</v>
       </c>
@@ -24472,7 +24991,7 @@
         <v>0.22620000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
         <v>45083</v>
       </c>
@@ -24516,7 +25035,7 @@
         <v>0.14860000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
         <v>45114</v>
       </c>
@@ -24560,7 +25079,7 @@
         <v>0.17069999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
         <v>45207</v>
       </c>
@@ -24604,7 +25123,7 @@
         <v>0.24590000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>196</v>
       </c>
@@ -24648,7 +25167,7 @@
         <v>3.56E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>191</v>
       </c>
@@ -24692,7 +25211,7 @@
         <v>5.9722999999999997</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>304</v>
       </c>
@@ -24710,7 +25229,7 @@
       <c r="M210" s="2"/>
       <c r="N210" s="2"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>299</v>
       </c>
@@ -24754,7 +25273,7 @@
         <v>0.16569999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="14">
         <v>45051</v>
       </c>
@@ -24798,7 +25317,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="14">
         <v>45113</v>
       </c>
@@ -24842,7 +25361,7 @@
         <v>0.25719999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="14">
         <v>45146</v>
       </c>
@@ -24886,7 +25405,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="14">
         <v>45208</v>
       </c>
@@ -24930,7 +25449,7 @@
         <v>0.1507</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>196</v>
       </c>
@@ -24974,7 +25493,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>191</v>
       </c>
@@ -25018,7 +25537,7 @@
         <v>6.3772000000000002</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>305</v>
       </c>
@@ -25036,7 +25555,7 @@
       <c r="M218" s="2"/>
       <c r="N218" s="2"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>306</v>
       </c>
@@ -25080,7 +25599,7 @@
         <v>7.5800000000000006E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>307</v>
       </c>
@@ -25124,7 +25643,7 @@
         <v>0.66049999999999998</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>308</v>
       </c>
@@ -25168,7 +25687,7 @@
         <v>0.2112</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>309</v>
       </c>
@@ -25212,7 +25731,7 @@
         <v>3.9899999999999998E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>196</v>
       </c>
@@ -25256,7 +25775,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>191</v>
       </c>
@@ -25300,7 +25819,7 @@
         <v>2.218</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>310</v>
       </c>
@@ -25318,7 +25837,7 @@
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>302</v>
       </c>
@@ -25362,7 +25881,7 @@
         <v>0.19209999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="14">
         <v>45020</v>
       </c>
@@ -25406,7 +25925,7 @@
         <v>8.4099999999999994E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="14">
         <v>45082</v>
       </c>
@@ -25450,7 +25969,7 @@
         <v>0.3054</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="14">
         <v>45114</v>
       </c>
@@ -25494,7 +26013,7 @@
         <v>0.1053</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
         <v>45207</v>
       </c>
@@ -25538,7 +26057,7 @@
         <v>0.19889999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>196</v>
       </c>
@@ -25582,7 +26101,7 @@
         <v>0.1142</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>191</v>
       </c>
@@ -25626,7 +26145,7 @@
         <v>5.3788</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>311</v>
       </c>
@@ -25644,7 +26163,7 @@
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>312</v>
       </c>
@@ -25688,7 +26207,7 @@
         <v>0.14860000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="14">
         <v>45019</v>
       </c>
@@ -25732,7 +26251,7 @@
         <v>0.18940000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="14">
         <v>45051</v>
       </c>
@@ -25776,7 +26295,7 @@
         <v>0.2167</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="14">
         <v>45113</v>
       </c>
@@ -25820,7 +26339,7 @@
         <v>0.20069999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="14">
         <v>45207</v>
       </c>
@@ -25864,7 +26383,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>196</v>
       </c>
@@ -25908,7 +26427,7 @@
         <v>0.10829999999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>191</v>
       </c>
@@ -25952,7 +26471,7 @@
         <v>4.9229000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>313</v>
       </c>
@@ -25970,7 +26489,7 @@
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>312</v>
       </c>
@@ -26014,7 +26533,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>45019</v>
       </c>
@@ -26058,7 +26577,7 @@
         <v>0.15379999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
         <v>45082</v>
       </c>
@@ -26102,7 +26621,7 @@
         <v>0.26150000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
         <v>45145</v>
       </c>
@@ -26146,7 +26665,7 @@
         <v>0.2087</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="14">
         <v>45208</v>
       </c>
@@ -26190,7 +26709,7 @@
         <v>0.13289999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>196</v>
       </c>
@@ -26234,7 +26753,7 @@
         <v>9.2100000000000001E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>191</v>
       </c>
@@ -26278,7 +26797,7 @@
         <v>5.4208999999999996</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>314</v>
       </c>
@@ -26296,7 +26815,7 @@
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>315</v>
       </c>
@@ -26340,7 +26859,7 @@
         <v>0.2167</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="14">
         <v>44958</v>
       </c>
@@ -26384,7 +26903,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="14">
         <v>45049</v>
       </c>
@@ -26428,7 +26947,7 @@
         <v>0.26150000000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
         <v>45113</v>
       </c>
@@ -26472,7 +26991,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="14">
         <v>45207</v>
       </c>
@@ -26516,7 +27035,7 @@
         <v>0.1694</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>196</v>
       </c>
@@ -26560,7 +27079,7 @@
         <v>0.1099</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>191</v>
       </c>
@@ -26604,7 +27123,7 @@
         <v>4.0818000000000003</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>316</v>
       </c>
@@ -26622,7 +27141,7 @@
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>317</v>
       </c>
@@ -26666,7 +27185,7 @@
         <v>0.17710000000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="14">
         <v>44987</v>
       </c>
@@ -26710,7 +27229,7 @@
         <v>0.1731</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="14">
         <v>45050</v>
       </c>
@@ -26754,7 +27273,7 @@
         <v>0.2354</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="14">
         <v>45113</v>
       </c>
@@ -26798,7 +27317,7 @@
         <v>0.16789999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="14">
         <v>45207</v>
       </c>
@@ -26842,7 +27361,7 @@
         <v>0.15709999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>196</v>
       </c>
@@ -26886,7 +27405,7 @@
         <v>8.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>191</v>
       </c>
@@ -26930,7 +27449,7 @@
         <v>4.4115000000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>318</v>
       </c>
@@ -26948,7 +27467,7 @@
       <c r="M265" s="2"/>
       <c r="N265" s="2"/>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>319</v>
       </c>
@@ -26992,7 +27511,7 @@
         <v>3.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>320</v>
       </c>
@@ -27036,7 +27555,7 @@
         <v>0.45179999999999998</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>321</v>
       </c>
@@ -27080,7 +27599,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>322</v>
       </c>
@@ -27124,7 +27643,7 @@
         <v>9.5500000000000002E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>323</v>
       </c>
@@ -27168,7 +27687,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>196</v>
       </c>
@@ -27212,7 +27731,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>191</v>
       </c>
@@ -27256,7 +27775,7 @@
         <v>2.5867</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>324</v>
       </c>
@@ -27274,7 +27793,7 @@
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
     </row>
-    <row r="274" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>325</v>
       </c>
@@ -27318,7 +27837,7 @@
         <v>9.2399999999999996E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>2</v>
       </c>
@@ -27362,7 +27881,7 @@
         <v>0.22309999999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>3</v>
       </c>
@@ -27406,7 +27925,7 @@
         <v>0.3649</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>4</v>
       </c>
@@ -27450,7 +27969,7 @@
         <v>0.15409999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>326</v>
       </c>
@@ -27494,7 +28013,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>196</v>
       </c>
@@ -27538,7 +28057,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>327</v>
       </c>
@@ -27556,7 +28075,7 @@
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>302</v>
       </c>
@@ -27600,7 +28119,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="14">
         <v>45020</v>
       </c>
@@ -27644,7 +28163,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="14">
         <v>45051</v>
       </c>
@@ -27688,7 +28207,7 @@
         <v>0.29620000000000002</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="14">
         <v>45113</v>
       </c>
@@ -27732,7 +28251,7 @@
         <v>0.19120000000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="14">
         <v>45207</v>
       </c>
@@ -27776,7 +28295,7 @@
         <v>0.14149999999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>196</v>
       </c>
@@ -27820,7 +28339,7 @@
         <v>8.8099999999999998E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>191</v>
       </c>
@@ -27864,7 +28383,7 @@
         <v>5.1173999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>328</v>
       </c>
@@ -27882,7 +28401,7 @@
       <c r="M288" s="2"/>
       <c r="N288" s="2"/>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>329</v>
       </c>
@@ -27926,7 +28445,7 @@
         <v>0.29370000000000002</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>330</v>
       </c>
@@ -27970,7 +28489,7 @@
         <v>0.52729999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>331</v>
       </c>
@@ -28014,7 +28533,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>332</v>
       </c>
@@ -28058,7 +28577,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>196</v>
       </c>
@@ -28102,7 +28621,7 @@
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>333</v>
       </c>
@@ -28120,7 +28639,7 @@
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>334</v>
       </c>
@@ -28164,7 +28683,7 @@
         <v>0.19980000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>335</v>
       </c>
@@ -28208,7 +28727,7 @@
         <v>0.16209999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>336</v>
       </c>
@@ -28252,7 +28771,7 @@
         <v>0.14030000000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>337</v>
       </c>
@@ -28296,7 +28815,7 @@
         <v>0.4773</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>196</v>
       </c>
@@ -28340,7 +28859,7 @@
         <v>2.06E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>338</v>
       </c>
@@ -28358,7 +28877,7 @@
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>339</v>
       </c>
@@ -28402,7 +28921,7 @@
         <v>0.50980000000000003</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>340</v>
       </c>
@@ -28446,7 +28965,7 @@
         <v>0.33389999999999997</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>341</v>
       </c>
@@ -28490,7 +29009,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>296</v>
       </c>
@@ -28534,7 +29053,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>196</v>
       </c>
@@ -28578,7 +29097,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>342</v>
       </c>
@@ -28596,7 +29115,7 @@
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>315</v>
       </c>
@@ -28640,7 +29159,7 @@
         <v>0.21210000000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="14">
         <v>44927</v>
       </c>
@@ -28684,7 +29203,7 @@
         <v>0.33860000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="14">
         <v>44987</v>
       </c>
@@ -28728,7 +29247,7 @@
         <v>0.24890000000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" s="14">
         <v>45050</v>
       </c>
@@ -28772,7 +29291,7 @@
         <v>0.19120000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>196</v>
       </c>
@@ -28816,7 +29335,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>191</v>
       </c>
@@ -28860,7 +29379,7 @@
         <v>1.7382</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>343</v>
       </c>
@@ -28878,7 +29397,7 @@
       <c r="M313" s="2"/>
       <c r="N313" s="2"/>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>204</v>
       </c>
@@ -28922,7 +29441,7 @@
         <v>0.15809999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>206</v>
       </c>
@@ -28966,7 +29485,7 @@
         <v>0.83979999999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>196</v>
       </c>
@@ -29010,7 +29529,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>344</v>
       </c>
@@ -29028,7 +29547,7 @@
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>345</v>
       </c>
@@ -29072,7 +29591,7 @@
         <v>0.43680000000000002</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>346</v>
       </c>
@@ -29116,7 +29635,7 @@
         <v>0.1608</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>347</v>
       </c>
@@ -29160,7 +29679,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>348</v>
       </c>
@@ -29204,7 +29723,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>349</v>
       </c>
@@ -29248,7 +29767,7 @@
         <v>0.1071</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>350</v>
       </c>
@@ -29292,7 +29811,7 @@
         <v>0.19550000000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>351</v>
       </c>
@@ -29336,7 +29855,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>352</v>
       </c>
@@ -29380,7 +29899,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>353</v>
       </c>
@@ -29424,7 +29943,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>196</v>
       </c>
@@ -29468,7 +29987,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>354</v>
       </c>
@@ -29486,7 +30005,7 @@
       <c r="M328" s="2"/>
       <c r="N328" s="2"/>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>217</v>
       </c>
@@ -29530,7 +30049,7 @@
         <v>0.2722</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>218</v>
       </c>
@@ -29574,7 +30093,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>219</v>
       </c>
@@ -29618,7 +30137,7 @@
         <v>0.1056</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>196</v>
       </c>
@@ -29662,7 +30181,7 @@
         <v>0.4052</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>355</v>
       </c>
@@ -29680,7 +30199,7 @@
       <c r="M333" s="2"/>
       <c r="N333" s="2"/>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>356</v>
       </c>
@@ -29724,7 +30243,7 @@
         <v>0.52270000000000005</v>
       </c>
     </row>
-    <row r="335" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>357</v>
       </c>
@@ -29768,7 +30287,7 @@
         <v>0.27810000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>358</v>
       </c>
@@ -29812,7 +30331,7 @@
         <v>0.19919999999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>359</v>
       </c>
@@ -29830,7 +30349,7 @@
       <c r="M337" s="2"/>
       <c r="N337" s="2"/>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>360</v>
       </c>
@@ -29874,7 +30393,7 @@
         <v>0.52729999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>361</v>
       </c>
@@ -29918,7 +30437,7 @@
         <v>0.28639999999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>362</v>
       </c>
@@ -29962,7 +30481,7 @@
         <v>0.18629999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>363</v>
       </c>
@@ -29980,7 +30499,7 @@
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="14">
         <v>44927</v>
       </c>
@@ -30024,7 +30543,7 @@
         <v>0.41160000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="14">
         <v>44987</v>
       </c>
@@ -30068,7 +30587,7 @@
         <v>0.20069999999999999</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="14">
         <v>45081</v>
       </c>
@@ -30112,7 +30631,7 @@
         <v>0.1885</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="14">
         <v>45176</v>
       </c>
@@ -30156,7 +30675,7 @@
         <v>0.19919999999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>191</v>
       </c>
@@ -30200,7 +30719,7 @@
         <v>3.3315000000000001</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>364</v>
       </c>
@@ -30218,7 +30737,7 @@
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>365</v>
       </c>
@@ -30262,7 +30781,7 @@
         <v>0.1482</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>366</v>
       </c>
@@ -30306,7 +30825,7 @@
         <v>9.1800000000000007E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>367</v>
       </c>
@@ -30350,7 +30869,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>368</v>
       </c>
@@ -30394,7 +30913,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>369</v>
       </c>
@@ -30438,7 +30957,7 @@
         <v>7.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>370</v>
       </c>
@@ -30482,7 +31001,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>371</v>
       </c>
@@ -30526,7 +31045,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>372</v>
       </c>
@@ -30570,7 +31089,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>373</v>
       </c>
@@ -30614,7 +31133,7 @@
         <v>7.9200000000000007E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>374</v>
       </c>
@@ -30658,7 +31177,7 @@
         <v>8.7800000000000003E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>375</v>
       </c>
@@ -30702,7 +31221,7 @@
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>376</v>
       </c>
@@ -30746,7 +31265,7 @@
         <v>7.1499999999999994E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>377</v>
       </c>
@@ -30790,7 +31309,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>378</v>
       </c>
@@ -30834,7 +31353,7 @@
         <v>0.1111</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>379</v>
       </c>
@@ -30878,7 +31397,7 @@
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>380</v>
       </c>
@@ -30922,7 +31441,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>381</v>
       </c>
@@ -30966,7 +31485,7 @@
         <v>3.56E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>382</v>
       </c>
@@ -31010,7 +31529,7 @@
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>383</v>
       </c>
@@ -31054,7 +31573,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>384</v>
       </c>
@@ -31098,7 +31617,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>385</v>
       </c>
@@ -31142,7 +31661,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>386</v>
       </c>
@@ -31186,7 +31705,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>387</v>
       </c>
@@ -31204,7 +31723,7 @@
       <c r="M370" s="2"/>
       <c r="N370" s="2"/>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>388</v>
       </c>
@@ -31248,7 +31767,7 @@
         <v>0.76329999999999998</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>389</v>
       </c>
@@ -31301,21 +31820,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4027C861-7124-4EA7-9842-785B1F3F1E61}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>391</v>
       </c>
@@ -31329,7 +31849,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -31347,7 +31867,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>105</v>
@@ -31379,7 +31899,7 @@
       <c r="K4" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="20" t="s">
         <v>110</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -31431,7 +31951,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>156</v>
       </c>
@@ -31445,7 +31965,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -31463,7 +31983,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>157</v>
       </c>
@@ -31497,7 +32017,7 @@
       <c r="K6" s="2">
         <v>2.3927</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="19">
         <v>-1.6168</v>
       </c>
       <c r="M6" s="2">
@@ -31549,7 +32069,7 @@
         <v>0.2306</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>158</v>
       </c>
@@ -31583,7 +32103,7 @@
       <c r="K7" s="2">
         <v>-0.94589999999999996</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="19">
         <v>1.1612</v>
       </c>
       <c r="M7" s="2">
@@ -31629,7 +32149,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>159</v>
       </c>
@@ -31663,7 +32183,7 @@
       <c r="K8" s="2">
         <v>-0.89019999999999999</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="19">
         <v>0.4556</v>
       </c>
       <c r="M8" s="2">
@@ -31709,7 +32229,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>160</v>
       </c>
@@ -31723,7 +32243,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -31741,7 +32261,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>161</v>
       </c>
@@ -31775,7 +32295,7 @@
       <c r="K10" s="2">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="19">
         <v>-0.1381</v>
       </c>
       <c r="M10" s="2">
@@ -31827,7 +32347,7 @@
         <v>0.17249999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>158</v>
       </c>
@@ -31861,7 +32381,7 @@
       <c r="K11" s="2">
         <v>-0.77890000000000004</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="19">
         <v>0.6835</v>
       </c>
       <c r="M11" s="2">
@@ -31907,7 +32427,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>162</v>
       </c>
@@ -31941,7 +32461,7 @@
       <c r="K12" s="2">
         <v>0.45979999999999999</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="19">
         <v>-0.5454</v>
       </c>
       <c r="M12" s="2">
@@ -31987,7 +32507,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>163</v>
       </c>
@@ -32001,7 +32521,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -32019,7 +32539,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
-    <row r="14" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>164</v>
       </c>
@@ -32053,7 +32573,7 @@
       <c r="K14" s="2">
         <v>1.1294</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="19">
         <v>-1.2786</v>
       </c>
       <c r="M14" s="2">
@@ -32105,7 +32625,7 @@
         <v>0.15790000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>158</v>
       </c>
@@ -32139,7 +32659,7 @@
       <c r="K15" s="2">
         <v>-1.6135999999999999</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="19">
         <v>1.1059000000000001</v>
       </c>
       <c r="M15" s="2">
@@ -32185,7 +32705,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>165</v>
       </c>
@@ -32219,7 +32739,7 @@
       <c r="K16" s="2">
         <v>1.8604000000000001</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="19">
         <v>0.17280000000000001</v>
       </c>
       <c r="M16" s="2">
@@ -32265,7 +32785,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>166</v>
       </c>
@@ -32279,7 +32799,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -32297,7 +32817,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>167</v>
       </c>
@@ -32331,7 +32851,7 @@
       <c r="K18" s="2">
         <v>2.4441000000000002</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="19">
         <v>0.42759999999999998</v>
       </c>
       <c r="M18" s="2">
@@ -32383,7 +32903,7 @@
         <v>0.2581</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
@@ -32417,7 +32937,7 @@
       <c r="K19" s="2">
         <v>-0.16880000000000001</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="19">
         <v>0.57020000000000004</v>
       </c>
       <c r="M19" s="2">
@@ -32463,7 +32983,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
@@ -32497,7 +33017,7 @@
       <c r="K20" s="2">
         <v>-1.2718</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="19">
         <v>-0.99780000000000002</v>
       </c>
       <c r="M20" s="2">
@@ -32543,7 +33063,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>169</v>
       </c>
@@ -32557,7 +33077,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -32575,7 +33095,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>170</v>
       </c>
@@ -32609,7 +33129,7 @@
       <c r="K22" s="2">
         <v>1.83E-2</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="19">
         <v>1.9475</v>
       </c>
       <c r="M22" s="2">
@@ -32661,7 +33181,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>158</v>
       </c>
@@ -32695,7 +33215,7 @@
       <c r="K23" s="2">
         <v>-1.6833</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="19">
         <v>1.4498</v>
       </c>
       <c r="M23" s="2">
@@ -32741,7 +33261,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>171</v>
       </c>
@@ -32775,7 +33295,7 @@
       <c r="K24" s="2">
         <v>2.3472</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="19">
         <v>-3.3973</v>
       </c>
       <c r="M24" s="2">
@@ -32821,7 +33341,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>172</v>
       </c>
@@ -32835,7 +33355,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -32853,7 +33373,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>173</v>
       </c>
@@ -32887,7 +33407,7 @@
       <c r="K26" s="2">
         <v>0.46179999999999999</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="19">
         <v>-9.0399999999999994E-2</v>
       </c>
       <c r="M26" s="2">
@@ -32939,7 +33459,7 @@
         <v>0.26329999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>158</v>
       </c>
@@ -32973,7 +33493,7 @@
       <c r="K27" s="2">
         <v>-0.60550000000000004</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="19">
         <v>0.68110000000000004</v>
       </c>
       <c r="M27" s="2">
@@ -33019,7 +33539,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>174</v>
       </c>
@@ -33053,7 +33573,7 @@
       <c r="K28" s="2">
         <v>0.74739999999999995</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="19">
         <v>-0.5907</v>
       </c>
       <c r="M28" s="2">
@@ -33099,7 +33619,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>175</v>
       </c>
@@ -33113,7 +33633,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -33131,7 +33651,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>176</v>
       </c>
@@ -33165,7 +33685,7 @@
       <c r="K30" s="2">
         <v>1.7847999999999999</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="19">
         <v>-0.58009999999999995</v>
       </c>
       <c r="M30" s="2">
@@ -33217,7 +33737,7 @@
         <v>0.29849999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>158</v>
       </c>
@@ -33251,7 +33771,7 @@
       <c r="K31" s="2">
         <v>0.1067</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="19">
         <v>0.52710000000000001</v>
       </c>
       <c r="M31" s="2">
@@ -33297,7 +33817,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>177</v>
       </c>
@@ -33331,7 +33851,7 @@
       <c r="K32" s="2">
         <v>-0.99480000000000002</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="19">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="M32" s="2">
@@ -33377,7 +33897,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>178</v>
       </c>
@@ -33391,7 +33911,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="19"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -33409,7 +33929,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>179</v>
       </c>
@@ -33443,7 +33963,7 @@
       <c r="K34" s="2">
         <v>-1.8557999999999999</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="19">
         <v>-0.81579999999999997</v>
       </c>
       <c r="M34" s="2">
@@ -33495,7 +34015,7 @@
         <v>0.2011</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>158</v>
       </c>
@@ -33529,7 +34049,7 @@
       <c r="K35" s="2">
         <v>-0.87849999999999995</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="19">
         <v>0.67410000000000003</v>
       </c>
       <c r="M35" s="2">
@@ -33575,7 +34095,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>180</v>
       </c>
@@ -33609,7 +34129,7 @@
       <c r="K36" s="2">
         <v>1.5727</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="19">
         <v>0.14169999999999999</v>
       </c>
       <c r="M36" s="2">
@@ -33655,7 +34175,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>181</v>
       </c>
@@ -33669,7 +34189,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="L37" s="19"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -33687,7 +34207,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>182</v>
       </c>
@@ -33721,7 +34241,7 @@
       <c r="K38" s="2">
         <v>1.9339</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="19">
         <v>0.96740000000000004</v>
       </c>
       <c r="M38" s="2">
@@ -33773,7 +34293,7 @@
         <v>0.31669999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>158</v>
       </c>
@@ -33807,7 +34327,7 @@
       <c r="K39" s="2">
         <v>0.40479999999999999</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="19">
         <v>0.84819999999999995</v>
       </c>
       <c r="M39" s="2">
@@ -33853,7 +34373,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>183</v>
       </c>
@@ -33887,7 +34407,7 @@
       <c r="K40" s="2">
         <v>-1.7448999999999999</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="19">
         <v>-1.8156000000000001</v>
       </c>
       <c r="M40" s="2">
@@ -33940,18 +34460,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA0092D-1E03-4D5C-A537-9FD0A80C2E74}">
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N125" sqref="N125"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>156</v>
       </c>
@@ -33967,7 +34487,7 @@
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
     </row>
-    <row r="2" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>395</v>
       </c>
@@ -33990,7 +34510,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -34016,7 +34536,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -34039,7 +34559,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -34062,7 +34582,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -34085,7 +34605,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -34108,7 +34628,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -34131,7 +34651,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -34154,7 +34674,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -34177,7 +34697,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -34200,7 +34720,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -34223,7 +34743,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -34246,7 +34766,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -34269,7 +34789,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -34284,7 +34804,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="16" t="s">
         <v>160</v>
@@ -34301,7 +34821,7 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
     </row>
-    <row r="17" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>395</v>
       </c>
@@ -34324,7 +34844,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -34347,7 +34867,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -34370,7 +34890,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -34393,7 +34913,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -34416,7 +34936,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>5</v>
       </c>
@@ -34439,7 +34959,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>6</v>
       </c>
@@ -34462,7 +34982,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>7</v>
       </c>
@@ -34485,7 +35005,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>8</v>
       </c>
@@ -34508,7 +35028,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>9</v>
       </c>
@@ -34531,7 +35051,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>10</v>
       </c>
@@ -34554,7 +35074,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>11</v>
       </c>
@@ -34577,7 +35097,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>12</v>
       </c>
@@ -34600,7 +35120,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -34615,7 +35135,7 @@
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
     </row>
-    <row r="31" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="16" t="s">
         <v>163</v>
@@ -34632,7 +35152,7 @@
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
     </row>
-    <row r="32" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>395</v>
       </c>
@@ -34655,7 +35175,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -34678,7 +35198,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -34701,7 +35221,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>3</v>
       </c>
@@ -34724,7 +35244,7 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -34747,7 +35267,7 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -34770,7 +35290,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>6</v>
       </c>
@@ -34793,7 +35313,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>7</v>
       </c>
@@ -34816,7 +35336,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>8</v>
       </c>
@@ -34839,7 +35359,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>9</v>
       </c>
@@ -34862,7 +35382,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>10</v>
       </c>
@@ -34885,7 +35405,7 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>11</v>
       </c>
@@ -34908,7 +35428,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>12</v>
       </c>
@@ -34931,7 +35451,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -34946,7 +35466,7 @@
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
     </row>
-    <row r="46" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="16" t="s">
         <v>166</v>
@@ -34963,7 +35483,7 @@
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>395</v>
       </c>
@@ -34986,7 +35506,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -35009,7 +35529,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2</v>
       </c>
@@ -35032,7 +35552,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -35055,7 +35575,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>4</v>
       </c>
@@ -35078,7 +35598,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>5</v>
       </c>
@@ -35101,7 +35621,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>6</v>
       </c>
@@ -35124,7 +35644,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>7</v>
       </c>
@@ -35147,7 +35667,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>8</v>
       </c>
@@ -35170,7 +35690,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>9</v>
       </c>
@@ -35193,7 +35713,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>10</v>
       </c>
@@ -35216,7 +35736,7 @@
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>11</v>
       </c>
@@ -35239,7 +35759,7 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>12</v>
       </c>
@@ -35262,7 +35782,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -35277,7 +35797,7 @@
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
     </row>
-    <row r="61" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="16" t="s">
         <v>169</v>
@@ -35294,7 +35814,7 @@
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>395</v>
       </c>
@@ -35317,7 +35837,7 @@
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>1</v>
       </c>
@@ -35340,7 +35860,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>2</v>
       </c>
@@ -35363,7 +35883,7 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>3</v>
       </c>
@@ -35386,7 +35906,7 @@
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>4</v>
       </c>
@@ -35409,7 +35929,7 @@
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>5</v>
       </c>
@@ -35432,7 +35952,7 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>6</v>
       </c>
@@ -35455,7 +35975,7 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>7</v>
       </c>
@@ -35478,7 +35998,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>8</v>
       </c>
@@ -35501,7 +36021,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>9</v>
       </c>
@@ -35524,7 +36044,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>10</v>
       </c>
@@ -35547,7 +36067,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>11</v>
       </c>
@@ -35570,7 +36090,7 @@
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>12</v>
       </c>
@@ -35593,7 +36113,7 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -35608,7 +36128,7 @@
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
     </row>
-    <row r="76" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="16" t="s">
         <v>172</v>
@@ -35625,7 +36145,7 @@
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
     </row>
-    <row r="77" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>395</v>
       </c>
@@ -35648,7 +36168,7 @@
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>1</v>
       </c>
@@ -35671,7 +36191,7 @@
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>2</v>
       </c>
@@ -35694,7 +36214,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>3</v>
       </c>
@@ -35717,7 +36237,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>4</v>
       </c>
@@ -35740,7 +36260,7 @@
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>5</v>
       </c>
@@ -35763,7 +36283,7 @@
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>6</v>
       </c>
@@ -35786,7 +36306,7 @@
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>7</v>
       </c>
@@ -35809,7 +36329,7 @@
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>8</v>
       </c>
@@ -35832,7 +36352,7 @@
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>9</v>
       </c>
@@ -35855,7 +36375,7 @@
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>10</v>
       </c>
@@ -35878,7 +36398,7 @@
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>11</v>
       </c>
@@ -35901,7 +36421,7 @@
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>12</v>
       </c>
@@ -35924,7 +36444,7 @@
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -35939,7 +36459,7 @@
       <c r="L90" s="17"/>
       <c r="M90" s="17"/>
     </row>
-    <row r="91" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="16" t="s">
         <v>175</v>
@@ -35956,7 +36476,7 @@
       <c r="L91" s="16"/>
       <c r="M91" s="16"/>
     </row>
-    <row r="92" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>395</v>
       </c>
@@ -35979,7 +36499,7 @@
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>1</v>
       </c>
@@ -36002,7 +36522,7 @@
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>2</v>
       </c>
@@ -36025,7 +36545,7 @@
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>3</v>
       </c>
@@ -36048,7 +36568,7 @@
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>4</v>
       </c>
@@ -36071,7 +36591,7 @@
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>5</v>
       </c>
@@ -36094,7 +36614,7 @@
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>6</v>
       </c>
@@ -36117,7 +36637,7 @@
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>7</v>
       </c>
@@ -36140,7 +36660,7 @@
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>8</v>
       </c>
@@ -36163,7 +36683,7 @@
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>9</v>
       </c>
@@ -36186,7 +36706,7 @@
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>10</v>
       </c>
@@ -36209,7 +36729,7 @@
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>11</v>
       </c>
@@ -36232,7 +36752,7 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>12</v>
       </c>
@@ -36255,7 +36775,7 @@
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -36270,7 +36790,7 @@
       <c r="L105" s="17"/>
       <c r="M105" s="17"/>
     </row>
-    <row r="106" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="16" t="s">
         <v>178</v>
@@ -36287,7 +36807,7 @@
       <c r="L106" s="16"/>
       <c r="M106" s="16"/>
     </row>
-    <row r="107" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>395</v>
       </c>
@@ -36310,7 +36830,7 @@
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>1</v>
       </c>
@@ -36333,7 +36853,7 @@
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>2</v>
       </c>
@@ -36356,7 +36876,7 @@
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>3</v>
       </c>
@@ -36379,7 +36899,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>4</v>
       </c>
@@ -36402,7 +36922,7 @@
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>5</v>
       </c>
@@ -36425,7 +36945,7 @@
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>6</v>
       </c>
@@ -36448,7 +36968,7 @@
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>7</v>
       </c>
@@ -36471,7 +36991,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>8</v>
       </c>
@@ -36494,7 +37014,7 @@
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>9</v>
       </c>
@@ -36517,7 +37037,7 @@
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>10</v>
       </c>
@@ -36540,7 +37060,7 @@
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>11</v>
       </c>
@@ -36563,7 +37083,7 @@
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>12</v>
       </c>
@@ -36586,7 +37106,7 @@
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -36601,7 +37121,7 @@
       <c r="L120" s="17"/>
       <c r="M120" s="17"/>
     </row>
-    <row r="121" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="16" t="s">
         <v>181</v>
@@ -36618,7 +37138,7 @@
       <c r="L121" s="16"/>
       <c r="M121" s="16"/>
     </row>
-    <row r="122" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>395</v>
       </c>
@@ -36641,7 +37161,7 @@
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>1</v>
       </c>
@@ -36664,7 +37184,7 @@
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>2</v>
       </c>
@@ -36687,7 +37207,7 @@
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>3</v>
       </c>
@@ -36710,7 +37230,7 @@
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>4</v>
       </c>
@@ -36733,7 +37253,7 @@
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>5</v>
       </c>
@@ -36756,7 +37276,7 @@
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>6</v>
       </c>
@@ -36779,7 +37299,7 @@
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>7</v>
       </c>
@@ -36802,7 +37322,7 @@
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>8</v>
       </c>
@@ -36825,7 +37345,7 @@
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>9</v>
       </c>
@@ -36848,7 +37368,7 @@
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>10</v>
       </c>
@@ -36871,7 +37391,7 @@
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>11</v>
       </c>
@@ -36894,7 +37414,7 @@
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>12</v>
       </c>
@@ -36919,6 +37439,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B91:M91"/>
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="B106:M106"/>
+    <mergeCell ref="A120:M120"/>
+    <mergeCell ref="B121:M121"/>
     <mergeCell ref="A90:M90"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A15:M15"/>
@@ -36931,11 +37456,6 @@
     <mergeCell ref="B61:M61"/>
     <mergeCell ref="A75:M75"/>
     <mergeCell ref="B76:M76"/>
-    <mergeCell ref="B91:M91"/>
-    <mergeCell ref="A105:M105"/>
-    <mergeCell ref="B106:M106"/>
-    <mergeCell ref="A120:M120"/>
-    <mergeCell ref="B121:M121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -36943,4 +37463,994 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CAF437-4BA9-4908-95DD-5631FF6BB144}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="23">
+        <v>-2.7099999999999999E-2</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0.48280000000000001</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="E2" s="23">
+        <v>-0.2535</v>
+      </c>
+      <c r="F2" s="24">
+        <v>-0.68389999999999995</v>
+      </c>
+      <c r="G2" s="23">
+        <v>0.25829999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="23">
+        <v>-5.9700000000000003E-2</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1.4995000000000001</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1.369</v>
+      </c>
+      <c r="E3" s="23">
+        <v>-1.1518999999999999</v>
+      </c>
+      <c r="F3" s="25">
+        <v>-2.1423999999999999</v>
+      </c>
+      <c r="G3" s="23">
+        <v>1.1802999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="29">
+        <v>3.1214</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1.9111</v>
+      </c>
+      <c r="D4" s="24">
+        <v>-0.76119999999999999</v>
+      </c>
+      <c r="E4" s="24">
+        <v>-1.6362000000000001</v>
+      </c>
+      <c r="F4" s="24">
+        <v>-2.3589000000000002</v>
+      </c>
+      <c r="G4" s="23">
+        <v>-0.27629999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="23">
+        <v>9.1630000000000003</v>
+      </c>
+      <c r="C5" s="23">
+        <v>5.3301999999999996</v>
+      </c>
+      <c r="D5" s="23">
+        <v>-2.3489</v>
+      </c>
+      <c r="E5" s="23">
+        <v>-2.9775</v>
+      </c>
+      <c r="F5" s="23">
+        <v>-2.3494999999999999</v>
+      </c>
+      <c r="G5" s="23">
+        <v>-0.75739999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="C6" s="24">
+        <v>-0.76329999999999998</v>
+      </c>
+      <c r="D6" s="23">
+        <v>-0.10059999999999999</v>
+      </c>
+      <c r="E6" s="23">
+        <v>-0.1656</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0.441</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.3241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="23">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="C7" s="23">
+        <v>-1.81</v>
+      </c>
+      <c r="D7" s="23">
+        <v>-0.63329999999999997</v>
+      </c>
+      <c r="E7" s="23">
+        <v>-0.85909999999999997</v>
+      </c>
+      <c r="F7" s="23">
+        <v>2.2250999999999999</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1.5559000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0.83</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.25040000000000001</v>
+      </c>
+      <c r="E8" s="23">
+        <v>-0.21329999999999999</v>
+      </c>
+      <c r="F8" s="24">
+        <v>-0.68259999999999998</v>
+      </c>
+      <c r="G8" s="23">
+        <v>-0.51180000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="23">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2.4967999999999999</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1.3976999999999999</v>
+      </c>
+      <c r="E9" s="23">
+        <v>-0.88460000000000005</v>
+      </c>
+      <c r="F9" s="23">
+        <v>-1.9357</v>
+      </c>
+      <c r="G9" s="23">
+        <v>-1.5972999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="23">
+        <v>-0.13589999999999999</v>
+      </c>
+      <c r="C10" s="23">
+        <v>-2.0354999999999999</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.29060000000000002</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1.3050999999999999</v>
+      </c>
+      <c r="F10" s="29">
+        <v>1.5587</v>
+      </c>
+      <c r="G10" s="23">
+        <v>-0.9829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="23">
+        <v>-0.17280000000000001</v>
+      </c>
+      <c r="C11" s="23">
+        <v>-1.21</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="E11" s="23">
+        <v>3.0169999999999999</v>
+      </c>
+      <c r="F11" s="23">
+        <v>3.5388000000000002</v>
+      </c>
+      <c r="G11" s="23">
+        <v>-1.0006999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0.2601</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="D12" s="24">
+        <v>-0.40089999999999998</v>
+      </c>
+      <c r="E12" s="28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F12" s="23">
+        <v>-0.49080000000000001</v>
+      </c>
+      <c r="G12" s="23">
+        <v>-4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="23">
+        <v>0.63780000000000003</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1.7593000000000001</v>
+      </c>
+      <c r="D13" s="23">
+        <v>-2.0335000000000001</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0.39019999999999999</v>
+      </c>
+      <c r="F13" s="23">
+        <v>-1.5132000000000001</v>
+      </c>
+      <c r="G13" s="23">
+        <v>-0.16089999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="23">
+        <v>-1.6914</v>
+      </c>
+      <c r="C14" s="23">
+        <v>-1.016</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.39839999999999998</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0.85470000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="23">
+        <v>-1.0123</v>
+      </c>
+      <c r="C15" s="23">
+        <v>-1.1900999999999999</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1.2877000000000001</v>
+      </c>
+      <c r="F15" s="23">
+        <v>2.1930999999999998</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1.9749000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="29">
+        <v>2.2132999999999998</v>
+      </c>
+      <c r="C16" s="29">
+        <v>1.8516999999999999</v>
+      </c>
+      <c r="D16" s="23">
+        <v>-8.3799999999999999E-2</v>
+      </c>
+      <c r="E16" s="24">
+        <v>-1.8001</v>
+      </c>
+      <c r="F16" s="24">
+        <v>-1.9079999999999999</v>
+      </c>
+      <c r="G16" s="23">
+        <v>-0.27310000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="23">
+        <v>5.4676</v>
+      </c>
+      <c r="C17" s="23">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="D17" s="23">
+        <v>-0.24179999999999999</v>
+      </c>
+      <c r="E17" s="23">
+        <v>-2.0602999999999998</v>
+      </c>
+      <c r="F17" s="23">
+        <v>-1.75</v>
+      </c>
+      <c r="G17" s="23">
+        <v>-0.54420000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="24">
+        <v>-2.8885000000000001</v>
+      </c>
+      <c r="C18" s="23">
+        <v>-2.0592000000000001</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0.2001</v>
+      </c>
+      <c r="E18" s="29">
+        <v>1.7354000000000001</v>
+      </c>
+      <c r="F18" s="29">
+        <v>2.4815</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0.53069999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="23">
+        <v>-3.3971</v>
+      </c>
+      <c r="C19" s="23">
+        <v>-0.96709999999999996</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0.35849999999999999</v>
+      </c>
+      <c r="E19" s="23">
+        <v>3.5232000000000001</v>
+      </c>
+      <c r="F19" s="23">
+        <v>5.0548000000000002</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0.82620000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="23">
+        <v>-1.8303</v>
+      </c>
+      <c r="C20" s="23">
+        <v>-0.55349999999999999</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0.44359999999999999</v>
+      </c>
+      <c r="E20" s="29">
+        <v>1.387</v>
+      </c>
+      <c r="F20" s="29">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="G20" s="23">
+        <v>-0.72560000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="23">
+        <v>-1.0934999999999999</v>
+      </c>
+      <c r="C21" s="23">
+        <v>-0.61850000000000005</v>
+      </c>
+      <c r="D21" s="23">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="E21" s="23">
+        <v>3.2793000000000001</v>
+      </c>
+      <c r="F21" s="23">
+        <v>2.8614999999999999</v>
+      </c>
+      <c r="G21" s="23">
+        <v>-0.99339999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="23">
+        <v>-0.52980000000000005</v>
+      </c>
+      <c r="C22" s="28">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="D22" s="28">
+        <v>0.1817</v>
+      </c>
+      <c r="E22" s="23">
+        <v>-1.1900000000000001E-2</v>
+      </c>
+      <c r="F22" s="28">
+        <v>0.15140000000000001</v>
+      </c>
+      <c r="G22" s="23">
+        <v>0.14680000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="23">
+        <v>-0.66180000000000005</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="E23" s="23">
+        <v>-3.6900000000000002E-2</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0.44209999999999999</v>
+      </c>
+      <c r="G23" s="23">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="29">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="C24" s="28">
+        <v>0.69910000000000005</v>
+      </c>
+      <c r="D24" s="24">
+        <v>-0.64159999999999995</v>
+      </c>
+      <c r="E24" s="23">
+        <v>-0.96430000000000005</v>
+      </c>
+      <c r="F24" s="23">
+        <v>-0.71040000000000003</v>
+      </c>
+      <c r="G24" s="23">
+        <v>0.70050000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="23">
+        <v>2.1248999999999998</v>
+      </c>
+      <c r="C25" s="23">
+        <v>1.7442</v>
+      </c>
+      <c r="D25" s="23">
+        <v>-1.9228000000000001</v>
+      </c>
+      <c r="E25" s="23">
+        <v>-1.8149</v>
+      </c>
+      <c r="F25" s="23">
+        <v>-1.2369000000000001</v>
+      </c>
+      <c r="G25" s="23">
+        <v>2.2273000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF444BFF-E328-4BE5-8E9A-815970B56C64}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4488E5F7-017A-4AF3-89B8-C4EE09303AAF}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45">
+        <v>1</v>
+      </c>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="43">
+        <v>10</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="E13" s="44"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44">
+        <v>11</v>
+      </c>
+      <c r="E16" s="44"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lca estimations/selects1999_lcaresults.xlsx
+++ b/lca estimations/selects1999_lcaresults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\master-thesis\lca estimations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\OneDrive\Bureau\master-thesis\lca estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B65A14-3A20-4591-BED0-5E7021EB3A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B638A15A-E67A-4B2A-980D-567F3A4FD95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="2" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="456">
   <si>
     <t>selects1999.sav</t>
   </si>
@@ -1277,32 +1277,6 @@
   </si>
   <si>
     <t>2,6%</t>
-  </si>
-  <si>
-    <t>Rather middle-aged and old; female; low income; middle education;
-Protestant; urban;German-speaking.</t>
-  </si>
-  <si>
-    <t>Young; female;
-high income; high education;
-French-speaking; urban.</t>
-  </si>
-  <si>
-    <t>Young; female;middle-high income and education; skilled workers and managers; Catholics or no religion; urban.</t>
-  </si>
-  <si>
-    <t>Rather old; male; middle-low income and education; Protestant; German speaking; rural.</t>
-  </si>
-  <si>
-    <t>Rather old; high income; high education; vocational training; managers; skilled employees; retired; German-speaking; urban.</t>
-  </si>
-  <si>
-    <t>Old; retired; low income;
-low education; Protestant; craft specialists; skilled and unskilled employees; managers; German-speaking; rural.</t>
-  </si>
-  <si>
-    <t>Young; male; high income; high education; managers;
-skilled workers; self employed; German-speaking; urban.</t>
   </si>
   <si>
     <t>Old; female; low income; middle-education; skilled and unskilled workers; Protestant</t>
@@ -1346,20 +1320,6 @@
 pro-nuclear energy.</t>
   </si>
   <si>
-    <t>Pro-EU integration;
-for equal chances Swiss-foreigners;
-rather defend traditions;
-pro-nuclear energy.</t>
-  </si>
-  <si>
-    <t>For higher taxes on HI;
-for strong army;
-pro-EU integration;
-for equal chances Swiss-foreigners;
-defend traditions;
-against nuclear energy.</t>
-  </si>
-  <si>
     <t>For increase in social spending;
 for higher taxes on HI;
 for no army;
@@ -1414,22 +1374,7 @@
     <t>Right</t>
   </si>
   <si>
-    <t>Unclear</t>
-  </si>
-  <si>
     <t>2, 8</t>
-  </si>
-  <si>
-    <t>Somme</t>
-  </si>
-  <si>
-    <t>Moyenne</t>
-  </si>
-  <si>
-    <t>Résultat cumulé</t>
-  </si>
-  <si>
-    <t>Nombre</t>
   </si>
   <si>
     <t>Center-left</t>
@@ -1483,14 +1428,49 @@
     <t>For increase in social spending; for increase in taxes on HI; Undecided or in favor of state intervention; undecided on EU integration; rather for no army; for better chances for the Swiss; defend traditions; pro-environment; against nuclear energy.</t>
   </si>
   <si>
-    <t>Rather old; female; low income; low education; unskilled workers; craft specialists; self employed; Protestant;
-German and Italian-speaking; rural</t>
-  </si>
-  <si>
-    <t>Rather young; female; high income; high education; skilled workers; managers; socio-cultural specialists; German and French-speaking.</t>
-  </si>
-  <si>
-    <t>Old; retired; male; high income; rather high education; Protestant; self-employed; German speaking</t>
+    <t>Young; female;
+high income; high education; managers, socio-cultural specialists;
+French-speaking; big city; Catholics and Atheists.</t>
+  </si>
+  <si>
+    <t>Rather middle-aged and old; female; low income; middle education; skilled and unskilled workers;
+Protestants; middle/small city ;German and Italian-speaking.</t>
+  </si>
+  <si>
+    <t>Rather old; female; low income; low and middle education; unskilled workers; craft specialists; self-employed; Protestants;
+German and Italian-speaking; countryside; middle/small city</t>
+  </si>
+  <si>
+    <t>Unclear/divided</t>
+  </si>
+  <si>
+    <t>Young; female;middle-high income and education; skilled workers and managers; German and French-speaking; Catholics or no religion; big city.</t>
+  </si>
+  <si>
+    <t>Rather old; retired; male; middle-low income and education; Protestant; German speaking; farmers, craft specialists, skilled and unskilled workers; countryside, middle/small city.</t>
+  </si>
+  <si>
+    <t>Old; high income; high education; vocational training; managers; skilled employees; retired; German-speaking; big city.</t>
+  </si>
+  <si>
+    <t>Old; retired; low income;
+low education; Protestant; craft specialists; skilled and unskilled employees; managers; German-speaking; countryside, middle/small city.</t>
+  </si>
+  <si>
+    <t>Rather young; female; high income; high education; skilled workers; managers; socio-cultural specialists; German and French-speaking; big city.</t>
+  </si>
+  <si>
+    <t>Old; retired; male; high income; rather high education; Protestant; self-employed; German speaking; countryside, middle/small city</t>
+  </si>
+  <si>
+    <t>Young; male; high income; high education; managers;
+skilled workers; self employed; German-speaking; big city.</t>
+  </si>
+  <si>
+    <t>For higher taxes on HI; for strong army; pro-EU integration; for equal chances Swiss-foreigners; defend traditions; against nuclear energy.</t>
+  </si>
+  <si>
+    <t>Pro-EU integration; for equal chances Swiss-foreigners; rather defend traditions; pro-nuclear energy.</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1736,6 +1716,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1786,12 +1775,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1811,9 +1794,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1824,9 +1804,6 @@
     <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1835,33 +1812,43 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -13048,86 +13035,86 @@
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+    </row>
+    <row r="4" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-    </row>
-    <row r="5" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+    </row>
+    <row r="5" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
@@ -13179,7 +13166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -13227,7 +13214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -13283,7 +13270,7 @@
         <v>0.64410000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -13339,7 +13326,7 @@
         <v>0.62990000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -13395,7 +13382,7 @@
         <v>0.60429999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -13451,7 +13438,7 @@
         <v>0.59250000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -13507,7 +13494,7 @@
         <v>0.57879999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
@@ -13563,7 +13550,7 @@
         <v>0.59330000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
@@ -13619,7 +13606,7 @@
         <v>0.60089999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
@@ -13675,7 +13662,7 @@
         <v>0.60840000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
@@ -13731,7 +13718,7 @@
         <v>0.60580000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
@@ -13787,7 +13774,7 @@
         <v>0.60350000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>53</v>
       </c>
@@ -13843,7 +13830,7 @@
         <v>0.61070000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
@@ -13887,7 +13874,7 @@
         <v>0.61070000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
@@ -13943,7 +13930,7 @@
         <v>0.62929999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>60</v>
       </c>
@@ -13989,7 +13976,7 @@
         <v>0.61070000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>61</v>
       </c>
@@ -14034,33 +14021,33 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -14077,7 +14064,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -14098,7 +14085,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
@@ -14119,7 +14106,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
@@ -14140,7 +14127,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -14161,7 +14148,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -14178,7 +14165,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -14197,7 +14184,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>69</v>
       </c>
@@ -14220,7 +14207,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
@@ -14243,7 +14230,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
@@ -14266,7 +14253,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
@@ -14289,7 +14276,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>75</v>
       </c>
@@ -14310,7 +14297,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>76</v>
       </c>
@@ -14331,7 +14318,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>77</v>
       </c>
@@ -14352,7 +14339,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
@@ -14373,7 +14360,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>79</v>
       </c>
@@ -14394,7 +14381,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>80</v>
       </c>
@@ -14415,7 +14402,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>81</v>
       </c>
@@ -14436,7 +14423,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -14453,7 +14440,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
@@ -14472,7 +14459,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>83</v>
       </c>
@@ -14493,7 +14480,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>84</v>
       </c>
@@ -14514,7 +14501,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>85</v>
       </c>
@@ -14535,7 +14522,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
@@ -14556,7 +14543,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>87</v>
       </c>
@@ -14577,7 +14564,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>88</v>
       </c>
@@ -14598,7 +14585,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>89</v>
       </c>
@@ -14619,7 +14606,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
@@ -14640,7 +14627,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -14657,7 +14644,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>91</v>
       </c>
@@ -14678,7 +14665,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>93</v>
       </c>
@@ -14699,7 +14686,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>94</v>
       </c>
@@ -14720,7 +14707,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
@@ -14741,7 +14728,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>96</v>
       </c>
@@ -14762,7 +14749,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>97</v>
       </c>
@@ -14783,7 +14770,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>98</v>
       </c>
@@ -14804,7 +14791,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>99</v>
       </c>
@@ -14825,7 +14812,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>100</v>
       </c>
@@ -14846,7 +14833,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>101</v>
       </c>
@@ -14867,7 +14854,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -14884,7 +14871,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>102</v>
       </c>
@@ -14905,7 +14892,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>104</v>
       </c>
@@ -14950,7 +14937,7 @@
       </c>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>105</v>
       </c>
@@ -14995,7 +14982,7 @@
       </c>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>106</v>
       </c>
@@ -15040,7 +15027,7 @@
       </c>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>107</v>
       </c>
@@ -15085,7 +15072,7 @@
       </c>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -15130,7 +15117,7 @@
       </c>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>109</v>
       </c>
@@ -15175,7 +15162,7 @@
       </c>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>110</v>
       </c>
@@ -15220,7 +15207,7 @@
       </c>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>111</v>
       </c>
@@ -15265,7 +15252,7 @@
       </c>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>112</v>
       </c>
@@ -15310,7 +15297,7 @@
       </c>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>113</v>
       </c>
@@ -15355,7 +15342,7 @@
       </c>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>114</v>
       </c>
@@ -15400,7 +15387,7 @@
       </c>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>115</v>
       </c>
@@ -15445,7 +15432,7 @@
       </c>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>116</v>
       </c>
@@ -15490,7 +15477,7 @@
       </c>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>117</v>
       </c>
@@ -15535,7 +15522,7 @@
       </c>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -15552,7 +15539,7 @@
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>102</v>
       </c>
@@ -15573,7 +15560,7 @@
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>104</v>
       </c>
@@ -15618,7 +15605,7 @@
       </c>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>105</v>
       </c>
@@ -15663,7 +15650,7 @@
       </c>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>106</v>
       </c>
@@ -15708,7 +15695,7 @@
       </c>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>107</v>
       </c>
@@ -15753,7 +15740,7 @@
       </c>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>108</v>
       </c>
@@ -15798,7 +15785,7 @@
       </c>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>109</v>
       </c>
@@ -15843,7 +15830,7 @@
       </c>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>110</v>
       </c>
@@ -15888,7 +15875,7 @@
       </c>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>111</v>
       </c>
@@ -15933,7 +15920,7 @@
       </c>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>112</v>
       </c>
@@ -15978,7 +15965,7 @@
       </c>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>113</v>
       </c>
@@ -16023,7 +16010,7 @@
       </c>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>114</v>
       </c>
@@ -16068,7 +16055,7 @@
       </c>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>115</v>
       </c>
@@ -16113,7 +16100,7 @@
       </c>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>116</v>
       </c>
@@ -16158,7 +16145,7 @@
       </c>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>117</v>
       </c>
@@ -16203,7 +16190,7 @@
       </c>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -16220,7 +16207,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>119</v>
       </c>
@@ -16239,28 +16226,28 @@
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="38"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -16277,7 +16264,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>122</v>
       </c>
@@ -16296,7 +16283,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>123</v>
       </c>
@@ -16317,7 +16304,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>124</v>
       </c>
@@ -16336,7 +16323,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>125</v>
       </c>
@@ -16357,7 +16344,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>126</v>
       </c>
@@ -16378,7 +16365,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>127</v>
       </c>
@@ -16399,7 +16386,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>128</v>
       </c>
@@ -16420,7 +16407,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>129</v>
       </c>
@@ -16439,7 +16426,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>130</v>
       </c>
@@ -16460,7 +16447,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>131</v>
       </c>
@@ -16481,7 +16468,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>125</v>
       </c>
@@ -16502,7 +16489,7 @@
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>132</v>
       </c>
@@ -16523,7 +16510,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>133</v>
       </c>
@@ -16542,7 +16529,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>134</v>
       </c>
@@ -16563,7 +16550,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>135</v>
       </c>
@@ -16584,7 +16571,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>136</v>
       </c>
@@ -16605,7 +16592,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>137</v>
       </c>
@@ -16626,7 +16613,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>138</v>
       </c>
@@ -16645,7 +16632,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>139</v>
       </c>
@@ -16666,7 +16653,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>140</v>
       </c>
@@ -16687,7 +16674,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>142</v>
       </c>
@@ -16706,7 +16693,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>143</v>
       </c>
@@ -16727,7 +16714,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>145</v>
       </c>
@@ -16748,7 +16735,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>147</v>
       </c>
@@ -16769,7 +16756,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>149</v>
       </c>
@@ -16790,7 +16777,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>150</v>
       </c>
@@ -16813,29 +16800,29 @@
   <dimension ref="A1:N372"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="A331" sqref="A331:XFD331"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>105</v>
@@ -16877,7 +16864,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>154</v>
       </c>
@@ -16919,7 +16906,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>155</v>
       </c>
@@ -16937,7 +16924,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>156</v>
       </c>
@@ -16955,23 +16942,23 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="27">
         <v>0.23469999999999999</v>
       </c>
       <c r="C7" s="2">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="10">
         <v>0.64990000000000003</v>
       </c>
       <c r="E7" s="2">
         <v>0.2409</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="10">
         <v>0.55869999999999997</v>
       </c>
       <c r="G7" s="2">
@@ -16999,11 +16986,11 @@
         <v>0.31830000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="27">
         <v>0.4103</v>
       </c>
       <c r="C8" s="2">
@@ -17018,10 +17005,10 @@
       <c r="F8" s="2">
         <v>0.25140000000000001</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="10">
         <v>0.68500000000000005</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="10">
         <v>0.53310000000000002</v>
       </c>
       <c r="I8" s="2">
@@ -17043,20 +17030,20 @@
         <v>0.2878</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="27">
         <v>0.35499999999999998</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="10">
         <v>0.80710000000000004</v>
       </c>
       <c r="D9" s="2">
         <v>0.30499999999999999</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="10">
         <v>0.65849999999999997</v>
       </c>
       <c r="F9" s="2">
@@ -17068,7 +17055,7 @@
       <c r="H9" s="2">
         <v>0.25309999999999999</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="10">
         <v>0.46339999999999998</v>
       </c>
       <c r="J9" s="2">
@@ -17087,7 +17074,7 @@
         <v>0.39389999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>160</v>
       </c>
@@ -17105,11 +17092,11 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="27">
         <v>0.65459999999999996</v>
       </c>
       <c r="C11" s="2">
@@ -17121,16 +17108,16 @@
       <c r="E11" s="2">
         <v>0.79010000000000002</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="10">
         <v>0.67459999999999998</v>
       </c>
       <c r="G11" s="2">
         <v>0.52939999999999998</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="10">
         <v>0.72230000000000005</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="10">
         <v>0.64510000000000001</v>
       </c>
       <c r="J11" s="2">
@@ -17149,11 +17136,11 @@
         <v>0.66679999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="27">
         <v>0.221</v>
       </c>
       <c r="C12" s="2">
@@ -17168,7 +17155,7 @@
       <c r="F12" s="2">
         <v>0.15459999999999999</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="10">
         <v>0.40079999999999999</v>
       </c>
       <c r="H12" s="2">
@@ -17193,11 +17180,11 @@
         <v>0.1774</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="27">
         <v>0.1244</v>
       </c>
       <c r="C13" s="2">
@@ -17237,7 +17224,7 @@
         <v>0.15579999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>163</v>
       </c>
@@ -17255,11 +17242,11 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="28">
         <v>0.23480000000000001</v>
       </c>
       <c r="C15" s="2">
@@ -17299,11 +17286,11 @@
         <v>0.27479999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="28">
         <v>0.2427</v>
       </c>
       <c r="C16" s="2">
@@ -17318,13 +17305,13 @@
       <c r="F16" s="2">
         <v>1.15E-2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="10">
         <v>0.497</v>
       </c>
       <c r="H16" s="2">
         <v>0.40289999999999998</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="10">
         <v>0.48480000000000001</v>
       </c>
       <c r="J16" s="2">
@@ -17343,11 +17330,11 @@
         <v>0.21990000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="28">
         <v>0.52249999999999996</v>
       </c>
       <c r="C17" s="2">
@@ -17359,13 +17346,13 @@
       <c r="E17" s="2">
         <v>0.57030000000000003</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="10">
         <v>0.75619999999999998</v>
       </c>
       <c r="G17" s="2">
         <v>0.44900000000000001</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="10">
         <v>0.44369999999999998</v>
       </c>
       <c r="I17" s="2">
@@ -17387,7 +17374,7 @@
         <v>0.50539999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>166</v>
       </c>
@@ -17405,7 +17392,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
@@ -17421,13 +17408,13 @@
       <c r="E19" s="2">
         <v>0.42849999999999999</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="10">
         <v>0.88759999999999994</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="10">
         <v>0.54139999999999999</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="10">
         <v>0.76570000000000005</v>
       </c>
       <c r="I19" s="2">
@@ -17449,7 +17436,7 @@
         <v>0.45269999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>158</v>
       </c>
@@ -17493,7 +17480,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>168</v>
       </c>
@@ -17518,7 +17505,7 @@
       <c r="H21" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="10">
         <v>0.69630000000000003</v>
       </c>
       <c r="J21" s="2">
@@ -17537,7 +17524,7 @@
         <v>0.3533</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>169</v>
       </c>
@@ -17555,7 +17542,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>170</v>
       </c>
@@ -17574,13 +17561,13 @@
       <c r="F23" s="2">
         <v>0.36359999999999998</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="10">
         <v>0.87090000000000001</v>
       </c>
       <c r="H23" s="2">
         <v>1.67E-2</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="10">
         <v>0.87150000000000005</v>
       </c>
       <c r="J23" s="2">
@@ -17599,7 +17586,7 @@
         <v>0.56669999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>158</v>
       </c>
@@ -17643,7 +17630,7 @@
         <v>9.4799999999999995E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>171</v>
       </c>
@@ -17659,13 +17646,13 @@
       <c r="E25" s="2">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="10">
         <v>0.61980000000000002</v>
       </c>
       <c r="G25" s="2">
         <v>1.4E-3</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="10">
         <v>0.72719999999999996</v>
       </c>
       <c r="I25" s="2">
@@ -17687,7 +17674,7 @@
         <v>0.33850000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>172</v>
       </c>
@@ -17705,7 +17692,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>173</v>
       </c>
@@ -17724,13 +17711,13 @@
       <c r="F27" s="2">
         <v>0.26290000000000002</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="10">
         <v>0.49619999999999997</v>
       </c>
       <c r="H27" s="2">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="10">
         <v>0.84189999999999998</v>
       </c>
       <c r="J27" s="2">
@@ -17749,7 +17736,7 @@
         <v>0.46539999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>158</v>
       </c>
@@ -17793,7 +17780,7 @@
         <v>0.1089</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>174</v>
       </c>
@@ -17809,13 +17796,13 @@
       <c r="E29" s="2">
         <v>0.4118</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="10">
         <v>0.7369</v>
       </c>
       <c r="G29" s="2">
         <v>0.33450000000000002</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="10">
         <v>0.84770000000000001</v>
       </c>
       <c r="I29" s="2">
@@ -17837,7 +17824,7 @@
         <v>0.42570000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>175</v>
       </c>
@@ -17855,7 +17842,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>176</v>
       </c>
@@ -17871,13 +17858,13 @@
       <c r="E31" s="2">
         <v>0.50370000000000004</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="10">
         <v>0.96970000000000001</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="10">
         <v>0.50719999999999998</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="10">
         <v>0.93710000000000004</v>
       </c>
       <c r="I31" s="2">
@@ -17899,7 +17886,7 @@
         <v>0.59379999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>158</v>
       </c>
@@ -17943,7 +17930,7 @@
         <v>0.1091</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>177</v>
       </c>
@@ -17968,7 +17955,7 @@
       <c r="H33" s="2">
         <v>1.9E-3</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="10">
         <v>0.63919999999999999</v>
       </c>
       <c r="J33" s="2">
@@ -17987,7 +17974,7 @@
         <v>0.29709999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>178</v>
       </c>
@@ -18005,7 +17992,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>179</v>
       </c>
@@ -18049,7 +18036,7 @@
         <v>0.53080000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>158</v>
       </c>
@@ -18068,13 +18055,13 @@
       <c r="F36" s="2">
         <v>0.27979999999999999</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="10">
         <v>0.62539999999999996</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="10">
         <v>0.57450000000000001</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="10">
         <v>0.50939999999999996</v>
       </c>
       <c r="J36" s="2">
@@ -18093,7 +18080,7 @@
         <v>0.2959</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>180</v>
       </c>
@@ -18137,7 +18124,7 @@
         <v>0.17330000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>181</v>
       </c>
@@ -18155,7 +18142,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>182</v>
       </c>
@@ -18174,7 +18161,7 @@
       <c r="F39" s="2">
         <v>0.76759999999999995</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="10">
         <v>0.53739999999999999</v>
       </c>
       <c r="H39" s="2">
@@ -18199,7 +18186,7 @@
         <v>0.2339</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>158</v>
       </c>
@@ -18243,7 +18230,7 @@
         <v>9.6500000000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>183</v>
       </c>
@@ -18265,7 +18252,7 @@
       <c r="G41" s="2">
         <v>0.17349999999999999</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="10">
         <v>0.57640000000000002</v>
       </c>
       <c r="I41" s="2">
@@ -18287,7 +18274,7 @@
         <v>0.66959999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>184</v>
       </c>
@@ -18305,7 +18292,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>185</v>
       </c>
@@ -18323,7 +18310,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>186</v>
       </c>
@@ -18367,7 +18354,7 @@
         <v>0.19489999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>187</v>
       </c>
@@ -18411,7 +18398,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>188</v>
       </c>
@@ -18455,7 +18442,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>189</v>
       </c>
@@ -18499,7 +18486,7 @@
         <v>0.2087</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>190</v>
       </c>
@@ -18543,7 +18530,7 @@
         <v>0.1958</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>191</v>
       </c>
@@ -18587,7 +18574,7 @@
         <v>48.6402</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>192</v>
       </c>
@@ -18605,7 +18592,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>193</v>
       </c>
@@ -18649,7 +18636,7 @@
         <v>0.45090000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>194</v>
       </c>
@@ -18693,7 +18680,7 @@
         <v>0.54910000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>195</v>
       </c>
@@ -18711,7 +18698,7 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="14">
         <v>44986</v>
       </c>
@@ -18755,7 +18742,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="14">
         <v>45020</v>
       </c>
@@ -18799,7 +18786,7 @@
         <v>0.12620000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="14">
         <v>45082</v>
       </c>
@@ -18843,7 +18830,7 @@
         <v>0.2112</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="14">
         <v>45145</v>
       </c>
@@ -18887,7 +18874,7 @@
         <v>0.1381</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="14">
         <v>45239</v>
       </c>
@@ -18931,7 +18918,7 @@
         <v>0.16819999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>196</v>
       </c>
@@ -18975,7 +18962,7 @@
         <v>0.13539999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>191</v>
       </c>
@@ -18985,7 +18972,7 @@
       <c r="C60" s="2">
         <v>6.2037000000000004</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="20">
         <v>4.8670999999999998</v>
       </c>
       <c r="E60" s="2">
@@ -18997,7 +18984,7 @@
       <c r="G60" s="2">
         <v>5.9273999999999996</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H60" s="20">
         <v>4.5019999999999998</v>
       </c>
       <c r="I60" s="2">
@@ -19006,20 +18993,20 @@
       <c r="J60" s="2">
         <v>6.2533000000000003</v>
       </c>
-      <c r="K60" s="21">
+      <c r="K60" s="19">
         <v>7.2385000000000002</v>
       </c>
       <c r="L60" s="2">
         <v>5.4199000000000002</v>
       </c>
-      <c r="M60" s="22">
+      <c r="M60" s="20">
         <v>4.7766999999999999</v>
       </c>
       <c r="N60" s="2">
         <v>5.6256000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>197</v>
       </c>
@@ -19037,7 +19024,7 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>198</v>
       </c>
@@ -19081,7 +19068,7 @@
         <v>7.9799999999999996E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>199</v>
       </c>
@@ -19125,7 +19112,7 @@
         <v>0.15559999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>200</v>
       </c>
@@ -19169,7 +19156,7 @@
         <v>0.36159999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>201</v>
       </c>
@@ -19213,7 +19200,7 @@
         <v>0.23569999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>202</v>
       </c>
@@ -19257,7 +19244,7 @@
         <v>0.1139</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>196</v>
       </c>
@@ -19301,7 +19288,7 @@
         <v>5.3400000000000003E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>203</v>
       </c>
@@ -19319,7 +19306,7 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>204</v>
       </c>
@@ -19363,7 +19350,7 @@
         <v>0.5998</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>205</v>
       </c>
@@ -19407,7 +19394,7 @@
         <v>0.28670000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>206</v>
       </c>
@@ -19451,7 +19438,7 @@
         <v>9.9400000000000002E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>196</v>
       </c>
@@ -19495,7 +19482,7 @@
         <v>1.41E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>207</v>
       </c>
@@ -19513,7 +19500,7 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>208</v>
       </c>
@@ -19557,7 +19544,7 @@
         <v>0.1406</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>209</v>
       </c>
@@ -19601,7 +19588,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>210</v>
       </c>
@@ -19645,7 +19632,7 @@
         <v>0.39069999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>211</v>
       </c>
@@ -19689,7 +19676,7 @@
         <v>0.11020000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>212</v>
       </c>
@@ -19733,7 +19720,7 @@
         <v>6.4799999999999996E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>213</v>
       </c>
@@ -19777,7 +19764,7 @@
         <v>9.64E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>214</v>
       </c>
@@ -19821,7 +19808,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>215</v>
       </c>
@@ -19865,7 +19852,7 @@
         <v>0.11260000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>196</v>
       </c>
@@ -19909,7 +19896,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>216</v>
       </c>
@@ -19927,7 +19914,7 @@
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>217</v>
       </c>
@@ -19971,7 +19958,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>218</v>
       </c>
@@ -20015,7 +20002,7 @@
         <v>0.3775</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>219</v>
       </c>
@@ -20059,7 +20046,7 @@
         <v>0.1452</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>196</v>
       </c>
@@ -20103,7 +20090,7 @@
         <v>7.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>220</v>
       </c>
@@ -20121,7 +20108,7 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>217</v>
       </c>
@@ -20165,7 +20152,7 @@
         <v>0.41249999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>218</v>
       </c>
@@ -20209,7 +20196,7 @@
         <v>0.3367</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>219</v>
       </c>
@@ -20253,7 +20240,7 @@
         <v>0.13750000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>196</v>
       </c>
@@ -20297,7 +20284,7 @@
         <v>0.1133</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>221</v>
       </c>
@@ -20315,7 +20302,7 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>222</v>
       </c>
@@ -20359,7 +20346,7 @@
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>223</v>
       </c>
@@ -20403,7 +20390,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>224</v>
       </c>
@@ -20447,7 +20434,7 @@
         <v>0.10680000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>225</v>
       </c>
@@ -20491,7 +20478,7 @@
         <v>0.18629999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>226</v>
       </c>
@@ -20535,7 +20522,7 @@
         <v>0.11020000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>227</v>
       </c>
@@ -20579,7 +20566,7 @@
         <v>3.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>228</v>
       </c>
@@ -20623,7 +20610,7 @@
         <v>7.0900000000000005E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>229</v>
       </c>
@@ -20667,7 +20654,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>230</v>
       </c>
@@ -20711,7 +20698,7 @@
         <v>0.20780000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>231</v>
       </c>
@@ -20755,7 +20742,7 @@
         <v>9.64E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>196</v>
       </c>
@@ -20799,7 +20786,7 @@
         <v>7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>232</v>
       </c>
@@ -20817,7 +20804,7 @@
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>233</v>
       </c>
@@ -20861,7 +20848,7 @@
         <v>0.15720000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>234</v>
       </c>
@@ -20905,7 +20892,7 @@
         <v>0.4748</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>235</v>
       </c>
@@ -20949,7 +20936,7 @@
         <v>0.25019999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>236</v>
       </c>
@@ -20993,7 +20980,7 @@
         <v>0.1169</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>196</v>
       </c>
@@ -21037,7 +21024,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>191</v>
       </c>
@@ -21081,7 +21068,7 @@
         <v>2.3271999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>237</v>
       </c>
@@ -21099,7 +21086,7 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>204</v>
       </c>
@@ -21143,7 +21130,7 @@
         <v>0.58560000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>206</v>
       </c>
@@ -21187,7 +21174,7 @@
         <v>0.26640000000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>238</v>
       </c>
@@ -21231,7 +21218,7 @@
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>196</v>
       </c>
@@ -21275,7 +21262,7 @@
         <v>0.1139</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>239</v>
       </c>
@@ -21293,7 +21280,7 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>240</v>
       </c>
@@ -21337,7 +21324,7 @@
         <v>0.16020000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>241</v>
       </c>
@@ -21381,7 +21368,7 @@
         <v>9.98E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>242</v>
       </c>
@@ -21394,7 +21381,7 @@
       <c r="D120" s="2">
         <v>0.1038</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="10">
         <v>0.27439999999999998</v>
       </c>
       <c r="F120" s="2">
@@ -21425,7 +21412,7 @@
         <v>0.2268</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>243</v>
       </c>
@@ -21469,7 +21456,7 @@
         <v>0.1661</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>244</v>
       </c>
@@ -21513,7 +21500,7 @@
         <v>2.76E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>245</v>
       </c>
@@ -21557,7 +21544,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>246</v>
       </c>
@@ -21601,7 +21588,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>247</v>
       </c>
@@ -21645,7 +21632,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>248</v>
       </c>
@@ -21689,7 +21676,7 @@
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>249</v>
       </c>
@@ -21733,7 +21720,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>250</v>
       </c>
@@ -21777,7 +21764,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>251</v>
       </c>
@@ -21821,7 +21808,7 @@
         <v>3.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>252</v>
       </c>
@@ -21865,7 +21852,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>253</v>
       </c>
@@ -21909,7 +21896,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>254</v>
       </c>
@@ -21953,7 +21940,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>255</v>
       </c>
@@ -21997,7 +21984,7 @@
         <v>2.12E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>256</v>
       </c>
@@ -22041,7 +22028,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>257</v>
       </c>
@@ -22085,7 +22072,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>258</v>
       </c>
@@ -22129,7 +22116,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>259</v>
       </c>
@@ -22173,7 +22160,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>196</v>
       </c>
@@ -22217,7 +22204,7 @@
         <v>0.21060000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>260</v>
       </c>
@@ -22235,7 +22222,7 @@
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>261</v>
       </c>
@@ -22279,7 +22266,7 @@
         <v>0.15679999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>262</v>
       </c>
@@ -22323,7 +22310,7 @@
         <v>0.24310000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>263</v>
       </c>
@@ -22367,7 +22354,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>264</v>
       </c>
@@ -22411,7 +22398,7 @@
         <v>4.24E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>265</v>
       </c>
@@ -22455,7 +22442,7 @@
         <v>6.2899999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>266</v>
       </c>
@@ -22499,7 +22486,7 @@
         <v>5.5899999999999998E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>267</v>
       </c>
@@ -22543,7 +22530,7 @@
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>268</v>
       </c>
@@ -22587,7 +22574,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>269</v>
       </c>
@@ -22631,7 +22618,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>270</v>
       </c>
@@ -22675,7 +22662,7 @@
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>271</v>
       </c>
@@ -22719,7 +22706,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>272</v>
       </c>
@@ -22763,7 +22750,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>273</v>
       </c>
@@ -22807,7 +22794,7 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>274</v>
       </c>
@@ -22851,7 +22838,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>275</v>
       </c>
@@ -22895,7 +22882,7 @@
         <v>2.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>276</v>
       </c>
@@ -22939,7 +22926,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>277</v>
       </c>
@@ -22983,7 +22970,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>278</v>
       </c>
@@ -23027,7 +23014,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>279</v>
       </c>
@@ -23071,7 +23058,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>280</v>
       </c>
@@ -23115,7 +23102,7 @@
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>281</v>
       </c>
@@ -23159,7 +23146,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>282</v>
       </c>
@@ -23203,7 +23190,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>283</v>
       </c>
@@ -23247,7 +23234,7 @@
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>284</v>
       </c>
@@ -23291,7 +23278,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>285</v>
       </c>
@@ -23335,7 +23322,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>286</v>
       </c>
@@ -23379,7 +23366,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>287</v>
       </c>
@@ -23423,7 +23410,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>288</v>
       </c>
@@ -23467,7 +23454,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>289</v>
       </c>
@@ -23511,7 +23498,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>290</v>
       </c>
@@ -23555,7 +23542,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>291</v>
       </c>
@@ -23599,7 +23586,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>292</v>
       </c>
@@ -23643,7 +23630,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>293</v>
       </c>
@@ -23687,7 +23674,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>294</v>
       </c>
@@ -23731,7 +23718,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>295</v>
       </c>
@@ -23775,7 +23762,7 @@
         <v>1.78E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>296</v>
       </c>
@@ -23819,7 +23806,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>297</v>
       </c>
@@ -23863,7 +23850,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>196</v>
       </c>
@@ -23907,7 +23894,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>298</v>
       </c>
@@ -23925,7 +23912,7 @@
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>299</v>
       </c>
@@ -23969,7 +23956,7 @@
         <v>0.18779999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="14">
         <v>45051</v>
       </c>
@@ -24013,7 +24000,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="14">
         <v>45113</v>
       </c>
@@ -24057,7 +24044,7 @@
         <v>0.27529999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="14">
         <v>45146</v>
       </c>
@@ -24101,7 +24088,7 @@
         <v>0.20069999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="14">
         <v>45208</v>
       </c>
@@ -24145,7 +24132,7 @@
         <v>0.1114</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>196</v>
       </c>
@@ -24189,7 +24176,7 @@
         <v>2.6700000000000002E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>191</v>
       </c>
@@ -24233,7 +24220,7 @@
         <v>6.0984999999999996</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>300</v>
       </c>
@@ -24251,7 +24238,7 @@
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>299</v>
       </c>
@@ -24295,7 +24282,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="14">
         <v>45051</v>
       </c>
@@ -24339,7 +24326,7 @@
         <v>0.24160000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="14">
         <v>45083</v>
       </c>
@@ -24383,7 +24370,7 @@
         <v>0.15010000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="14">
         <v>45114</v>
       </c>
@@ -24427,7 +24414,7 @@
         <v>0.16450000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="14">
         <v>45207</v>
       </c>
@@ -24471,7 +24458,7 @@
         <v>0.21329999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>196</v>
       </c>
@@ -24515,7 +24502,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>191</v>
       </c>
@@ -24559,7 +24546,7 @@
         <v>5.8170999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>301</v>
       </c>
@@ -24577,7 +24564,7 @@
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>302</v>
       </c>
@@ -24621,7 +24608,7 @@
         <v>0.1535</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="14">
         <v>45020</v>
       </c>
@@ -24665,7 +24652,7 @@
         <v>9.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="14">
         <v>45051</v>
       </c>
@@ -24709,7 +24696,7 @@
         <v>0.27589999999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="14">
         <v>45113</v>
       </c>
@@ -24753,7 +24740,7 @@
         <v>0.28510000000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" s="14">
         <v>45207</v>
       </c>
@@ -24797,7 +24784,7 @@
         <v>0.12770000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>196</v>
       </c>
@@ -24841,7 +24828,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>191</v>
       </c>
@@ -24885,7 +24872,7 @@
         <v>5.2920999999999996</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>303</v>
       </c>
@@ -24903,7 +24890,7 @@
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>299</v>
       </c>
@@ -24947,7 +24934,7 @@
         <v>0.1731</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="14">
         <v>45051</v>
       </c>
@@ -24991,7 +24978,7 @@
         <v>0.22620000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" s="14">
         <v>45083</v>
       </c>
@@ -25035,7 +25022,7 @@
         <v>0.14860000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="14">
         <v>45114</v>
       </c>
@@ -25079,7 +25066,7 @@
         <v>0.17069999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="14">
         <v>45207</v>
       </c>
@@ -25123,7 +25110,7 @@
         <v>0.24590000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>196</v>
       </c>
@@ -25167,7 +25154,7 @@
         <v>3.56E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>191</v>
       </c>
@@ -25211,7 +25198,7 @@
         <v>5.9722999999999997</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>304</v>
       </c>
@@ -25229,7 +25216,7 @@
       <c r="M210" s="2"/>
       <c r="N210" s="2"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>299</v>
       </c>
@@ -25273,7 +25260,7 @@
         <v>0.16569999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212" s="14">
         <v>45051</v>
       </c>
@@ -25317,7 +25304,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" s="14">
         <v>45113</v>
       </c>
@@ -25361,7 +25348,7 @@
         <v>0.25719999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214" s="14">
         <v>45146</v>
       </c>
@@ -25405,7 +25392,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" s="14">
         <v>45208</v>
       </c>
@@ -25449,7 +25436,7 @@
         <v>0.1507</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>196</v>
       </c>
@@ -25493,7 +25480,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>191</v>
       </c>
@@ -25537,7 +25524,7 @@
         <v>6.3772000000000002</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>305</v>
       </c>
@@ -25555,7 +25542,7 @@
       <c r="M218" s="2"/>
       <c r="N218" s="2"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>306</v>
       </c>
@@ -25599,7 +25586,7 @@
         <v>7.5800000000000006E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>307</v>
       </c>
@@ -25643,7 +25630,7 @@
         <v>0.66049999999999998</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>308</v>
       </c>
@@ -25687,7 +25674,7 @@
         <v>0.2112</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>309</v>
       </c>
@@ -25731,7 +25718,7 @@
         <v>3.9899999999999998E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>196</v>
       </c>
@@ -25775,7 +25762,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>191</v>
       </c>
@@ -25819,7 +25806,7 @@
         <v>2.218</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>310</v>
       </c>
@@ -25837,7 +25824,7 @@
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>302</v>
       </c>
@@ -25881,7 +25868,7 @@
         <v>0.19209999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" s="14">
         <v>45020</v>
       </c>
@@ -25925,7 +25912,7 @@
         <v>8.4099999999999994E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" s="14">
         <v>45082</v>
       </c>
@@ -25969,7 +25956,7 @@
         <v>0.3054</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" s="14">
         <v>45114</v>
       </c>
@@ -26013,7 +26000,7 @@
         <v>0.1053</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" s="14">
         <v>45207</v>
       </c>
@@ -26057,7 +26044,7 @@
         <v>0.19889999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>196</v>
       </c>
@@ -26101,7 +26088,7 @@
         <v>0.1142</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>191</v>
       </c>
@@ -26145,7 +26132,7 @@
         <v>5.3788</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>311</v>
       </c>
@@ -26163,7 +26150,7 @@
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>312</v>
       </c>
@@ -26207,7 +26194,7 @@
         <v>0.14860000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" s="14">
         <v>45019</v>
       </c>
@@ -26251,7 +26238,7 @@
         <v>0.18940000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" s="14">
         <v>45051</v>
       </c>
@@ -26295,7 +26282,7 @@
         <v>0.2167</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" s="14">
         <v>45113</v>
       </c>
@@ -26339,7 +26326,7 @@
         <v>0.20069999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" s="14">
         <v>45207</v>
       </c>
@@ -26383,7 +26370,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>196</v>
       </c>
@@ -26427,7 +26414,7 @@
         <v>0.10829999999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>191</v>
       </c>
@@ -26471,7 +26458,7 @@
         <v>4.9229000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>313</v>
       </c>
@@ -26489,7 +26476,7 @@
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>312</v>
       </c>
@@ -26533,7 +26520,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243" s="14">
         <v>45019</v>
       </c>
@@ -26577,7 +26564,7 @@
         <v>0.15379999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" s="14">
         <v>45082</v>
       </c>
@@ -26621,7 +26608,7 @@
         <v>0.26150000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245" s="14">
         <v>45145</v>
       </c>
@@ -26665,7 +26652,7 @@
         <v>0.2087</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246" s="14">
         <v>45208</v>
       </c>
@@ -26709,7 +26696,7 @@
         <v>0.13289999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>196</v>
       </c>
@@ -26753,7 +26740,7 @@
         <v>9.2100000000000001E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>191</v>
       </c>
@@ -26766,7 +26753,7 @@
       <c r="D248" s="2">
         <v>4.5179</v>
       </c>
-      <c r="E248" s="2">
+      <c r="E248" s="10">
         <v>5.9866000000000001</v>
       </c>
       <c r="F248" s="2">
@@ -26797,7 +26784,7 @@
         <v>5.4208999999999996</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>314</v>
       </c>
@@ -26815,7 +26802,7 @@
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>315</v>
       </c>
@@ -26859,7 +26846,7 @@
         <v>0.2167</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251" s="14">
         <v>44958</v>
       </c>
@@ -26903,7 +26890,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252" s="14">
         <v>45049</v>
       </c>
@@ -26947,7 +26934,7 @@
         <v>0.26150000000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" s="14">
         <v>45113</v>
       </c>
@@ -26991,7 +26978,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254" s="14">
         <v>45207</v>
       </c>
@@ -27035,7 +27022,7 @@
         <v>0.1694</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>196</v>
       </c>
@@ -27079,7 +27066,7 @@
         <v>0.1099</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>191</v>
       </c>
@@ -27123,7 +27110,7 @@
         <v>4.0818000000000003</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>316</v>
       </c>
@@ -27141,7 +27128,7 @@
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>317</v>
       </c>
@@ -27185,7 +27172,7 @@
         <v>0.17710000000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259" s="14">
         <v>44987</v>
       </c>
@@ -27229,7 +27216,7 @@
         <v>0.1731</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260" s="14">
         <v>45050</v>
       </c>
@@ -27273,7 +27260,7 @@
         <v>0.2354</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261" s="14">
         <v>45113</v>
       </c>
@@ -27317,7 +27304,7 @@
         <v>0.16789999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262" s="14">
         <v>45207</v>
       </c>
@@ -27361,7 +27348,7 @@
         <v>0.15709999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>196</v>
       </c>
@@ -27405,7 +27392,7 @@
         <v>8.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>191</v>
       </c>
@@ -27449,7 +27436,7 @@
         <v>4.4115000000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265" s="5" t="s">
         <v>318</v>
       </c>
@@ -27467,7 +27454,7 @@
       <c r="M265" s="2"/>
       <c r="N265" s="2"/>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>319</v>
       </c>
@@ -27511,7 +27498,7 @@
         <v>3.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>320</v>
       </c>
@@ -27555,7 +27542,7 @@
         <v>0.45179999999999998</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>321</v>
       </c>
@@ -27599,7 +27586,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>322</v>
       </c>
@@ -27643,7 +27630,7 @@
         <v>9.5500000000000002E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>323</v>
       </c>
@@ -27687,7 +27674,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>196</v>
       </c>
@@ -27731,7 +27718,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>191</v>
       </c>
@@ -27775,7 +27762,7 @@
         <v>2.5867</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273" s="5" t="s">
         <v>324</v>
       </c>
@@ -27793,7 +27780,7 @@
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
     </row>
-    <row r="274" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>325</v>
       </c>
@@ -27837,7 +27824,7 @@
         <v>9.2399999999999996E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
         <v>2</v>
       </c>
@@ -27881,7 +27868,7 @@
         <v>0.22309999999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
         <v>3</v>
       </c>
@@ -27925,7 +27912,7 @@
         <v>0.3649</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
         <v>4</v>
       </c>
@@ -27969,7 +27956,7 @@
         <v>0.15409999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>326</v>
       </c>
@@ -28013,7 +28000,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>196</v>
       </c>
@@ -28057,7 +28044,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280" s="5" t="s">
         <v>327</v>
       </c>
@@ -28075,7 +28062,7 @@
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
         <v>302</v>
       </c>
@@ -28119,7 +28106,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282" s="14">
         <v>45020</v>
       </c>
@@ -28163,7 +28150,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283" s="14">
         <v>45051</v>
       </c>
@@ -28207,7 +28194,7 @@
         <v>0.29620000000000002</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284" s="14">
         <v>45113</v>
       </c>
@@ -28251,7 +28238,7 @@
         <v>0.19120000000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A285" s="14">
         <v>45207</v>
       </c>
@@ -28295,7 +28282,7 @@
         <v>0.14149999999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
         <v>196</v>
       </c>
@@ -28339,7 +28326,7 @@
         <v>8.8099999999999998E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
         <v>191</v>
       </c>
@@ -28383,7 +28370,7 @@
         <v>5.1173999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288" s="5" t="s">
         <v>328</v>
       </c>
@@ -28401,7 +28388,7 @@
       <c r="M288" s="2"/>
       <c r="N288" s="2"/>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
         <v>329</v>
       </c>
@@ -28445,7 +28432,7 @@
         <v>0.29370000000000002</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
         <v>330</v>
       </c>
@@ -28489,7 +28476,7 @@
         <v>0.52729999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
         <v>331</v>
       </c>
@@ -28533,7 +28520,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
         <v>332</v>
       </c>
@@ -28577,7 +28564,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
         <v>196</v>
       </c>
@@ -28621,7 +28608,7 @@
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A294" s="5" t="s">
         <v>333</v>
       </c>
@@ -28639,7 +28626,7 @@
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>334</v>
       </c>
@@ -28683,7 +28670,7 @@
         <v>0.19980000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
         <v>335</v>
       </c>
@@ -28727,7 +28714,7 @@
         <v>0.16209999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
         <v>336</v>
       </c>
@@ -28771,7 +28758,7 @@
         <v>0.14030000000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>337</v>
       </c>
@@ -28815,7 +28802,7 @@
         <v>0.4773</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>196</v>
       </c>
@@ -28859,7 +28846,7 @@
         <v>2.06E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300" s="5" t="s">
         <v>338</v>
       </c>
@@ -28877,7 +28864,7 @@
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>339</v>
       </c>
@@ -28921,7 +28908,7 @@
         <v>0.50980000000000003</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
         <v>340</v>
       </c>
@@ -28965,7 +28952,7 @@
         <v>0.33389999999999997</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
         <v>341</v>
       </c>
@@ -29009,7 +28996,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
         <v>296</v>
       </c>
@@ -29053,7 +29040,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
         <v>196</v>
       </c>
@@ -29097,7 +29084,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A306" s="5" t="s">
         <v>342</v>
       </c>
@@ -29115,7 +29102,7 @@
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
         <v>315</v>
       </c>
@@ -29159,7 +29146,7 @@
         <v>0.21210000000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A308" s="14">
         <v>44927</v>
       </c>
@@ -29203,7 +29190,7 @@
         <v>0.33860000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A309" s="14">
         <v>44987</v>
       </c>
@@ -29247,7 +29234,7 @@
         <v>0.24890000000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A310" s="14">
         <v>45050</v>
       </c>
@@ -29291,7 +29278,7 @@
         <v>0.19120000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
         <v>196</v>
       </c>
@@ -29335,7 +29322,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
         <v>191</v>
       </c>
@@ -29379,7 +29366,7 @@
         <v>1.7382</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A313" s="5" t="s">
         <v>343</v>
       </c>
@@ -29397,7 +29384,7 @@
       <c r="M313" s="2"/>
       <c r="N313" s="2"/>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A314" s="3" t="s">
         <v>204</v>
       </c>
@@ -29441,7 +29428,7 @@
         <v>0.15809999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A315" s="3" t="s">
         <v>206</v>
       </c>
@@ -29485,7 +29472,7 @@
         <v>0.83979999999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
         <v>196</v>
       </c>
@@ -29529,7 +29516,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A317" s="5" t="s">
         <v>344</v>
       </c>
@@ -29547,7 +29534,7 @@
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A318" s="3" t="s">
         <v>345</v>
       </c>
@@ -29591,7 +29578,7 @@
         <v>0.43680000000000002</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
         <v>346</v>
       </c>
@@ -29635,7 +29622,7 @@
         <v>0.1608</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
         <v>347</v>
       </c>
@@ -29679,7 +29666,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A321" s="3" t="s">
         <v>348</v>
       </c>
@@ -29723,7 +29710,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
         <v>349</v>
       </c>
@@ -29767,7 +29754,7 @@
         <v>0.1071</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
         <v>350</v>
       </c>
@@ -29811,7 +29798,7 @@
         <v>0.19550000000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
         <v>351</v>
       </c>
@@ -29855,7 +29842,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
         <v>352</v>
       </c>
@@ -29899,7 +29886,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
         <v>353</v>
       </c>
@@ -29943,7 +29930,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
         <v>196</v>
       </c>
@@ -29987,7 +29974,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A328" s="5" t="s">
         <v>354</v>
       </c>
@@ -30005,7 +29992,7 @@
       <c r="M328" s="2"/>
       <c r="N328" s="2"/>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
         <v>217</v>
       </c>
@@ -30049,7 +30036,7 @@
         <v>0.2722</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
         <v>218</v>
       </c>
@@ -30093,7 +30080,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
         <v>219</v>
       </c>
@@ -30137,7 +30124,7 @@
         <v>0.1056</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
         <v>196</v>
       </c>
@@ -30181,7 +30168,7 @@
         <v>0.4052</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A333" s="5" t="s">
         <v>355</v>
       </c>
@@ -30199,7 +30186,7 @@
       <c r="M333" s="2"/>
       <c r="N333" s="2"/>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
         <v>356</v>
       </c>
@@ -30243,7 +30230,7 @@
         <v>0.52270000000000005</v>
       </c>
     </row>
-    <row r="335" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
         <v>357</v>
       </c>
@@ -30287,7 +30274,7 @@
         <v>0.27810000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
         <v>358</v>
       </c>
@@ -30331,7 +30318,7 @@
         <v>0.19919999999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A337" s="5" t="s">
         <v>359</v>
       </c>
@@ -30349,7 +30336,7 @@
       <c r="M337" s="2"/>
       <c r="N337" s="2"/>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
         <v>360</v>
       </c>
@@ -30393,7 +30380,7 @@
         <v>0.52729999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
         <v>361</v>
       </c>
@@ -30437,7 +30424,7 @@
         <v>0.28639999999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A340" s="3" t="s">
         <v>362</v>
       </c>
@@ -30481,7 +30468,7 @@
         <v>0.18629999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A341" s="5" t="s">
         <v>363</v>
       </c>
@@ -30499,7 +30486,7 @@
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A342" s="14">
         <v>44927</v>
       </c>
@@ -30543,7 +30530,7 @@
         <v>0.41160000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A343" s="14">
         <v>44987</v>
       </c>
@@ -30587,7 +30574,7 @@
         <v>0.20069999999999999</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A344" s="14">
         <v>45081</v>
       </c>
@@ -30631,7 +30618,7 @@
         <v>0.1885</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A345" s="14">
         <v>45176</v>
       </c>
@@ -30675,7 +30662,7 @@
         <v>0.19919999999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A346" s="3" t="s">
         <v>191</v>
       </c>
@@ -30719,7 +30706,7 @@
         <v>3.3315000000000001</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A347" s="5" t="s">
         <v>364</v>
       </c>
@@ -30737,7 +30724,7 @@
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
         <v>365</v>
       </c>
@@ -30781,7 +30768,7 @@
         <v>0.1482</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A349" s="3" t="s">
         <v>366</v>
       </c>
@@ -30825,7 +30812,7 @@
         <v>9.1800000000000007E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A350" s="3" t="s">
         <v>367</v>
       </c>
@@ -30869,7 +30856,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A351" s="3" t="s">
         <v>368</v>
       </c>
@@ -30913,7 +30900,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A352" s="3" t="s">
         <v>369</v>
       </c>
@@ -30957,7 +30944,7 @@
         <v>7.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A353" s="3" t="s">
         <v>370</v>
       </c>
@@ -31001,7 +30988,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
         <v>371</v>
       </c>
@@ -31045,7 +31032,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
         <v>372</v>
       </c>
@@ -31089,7 +31076,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
         <v>373</v>
       </c>
@@ -31133,7 +31120,7 @@
         <v>7.9200000000000007E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
         <v>374</v>
       </c>
@@ -31177,7 +31164,7 @@
         <v>8.7800000000000003E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
         <v>375</v>
       </c>
@@ -31221,7 +31208,7 @@
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
         <v>376</v>
       </c>
@@ -31265,7 +31252,7 @@
         <v>7.1499999999999994E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
         <v>377</v>
       </c>
@@ -31309,7 +31296,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
         <v>378</v>
       </c>
@@ -31353,7 +31340,7 @@
         <v>0.1111</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
         <v>379</v>
       </c>
@@ -31397,7 +31384,7 @@
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A363" s="3" t="s">
         <v>380</v>
       </c>
@@ -31441,7 +31428,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A364" s="3" t="s">
         <v>381</v>
       </c>
@@ -31485,7 +31472,7 @@
         <v>3.56E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A365" s="3" t="s">
         <v>382</v>
       </c>
@@ -31529,7 +31516,7 @@
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A366" s="3" t="s">
         <v>383</v>
       </c>
@@ -31573,7 +31560,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A367" s="3" t="s">
         <v>384</v>
       </c>
@@ -31617,7 +31604,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
         <v>385</v>
       </c>
@@ -31661,7 +31648,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A369" s="3" t="s">
         <v>386</v>
       </c>
@@ -31705,7 +31692,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A370" s="5" t="s">
         <v>387</v>
       </c>
@@ -31723,7 +31710,7 @@
       <c r="M370" s="2"/>
       <c r="N370" s="2"/>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A371" s="3" t="s">
         <v>388</v>
       </c>
@@ -31767,7 +31754,7 @@
         <v>0.76329999999999998</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A372" s="3" t="s">
         <v>389</v>
       </c>
@@ -31821,21 +31808,21 @@
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="18"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>391</v>
       </c>
@@ -31849,7 +31836,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="19"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -31867,7 +31854,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>105</v>
@@ -31899,7 +31886,7 @@
       <c r="K4" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="18" t="s">
         <v>110</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -31951,7 +31938,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>156</v>
       </c>
@@ -31965,7 +31952,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="19"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -31983,7 +31970,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>157</v>
       </c>
@@ -32017,7 +32004,7 @@
       <c r="K6" s="2">
         <v>2.3927</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="17">
         <v>-1.6168</v>
       </c>
       <c r="M6" s="2">
@@ -32069,7 +32056,7 @@
         <v>0.2306</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>158</v>
       </c>
@@ -32103,7 +32090,7 @@
       <c r="K7" s="2">
         <v>-0.94589999999999996</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="17">
         <v>1.1612</v>
       </c>
       <c r="M7" s="2">
@@ -32149,7 +32136,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>159</v>
       </c>
@@ -32183,7 +32170,7 @@
       <c r="K8" s="2">
         <v>-0.89019999999999999</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="17">
         <v>0.4556</v>
       </c>
       <c r="M8" s="2">
@@ -32229,7 +32216,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>160</v>
       </c>
@@ -32243,7 +32230,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="19"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -32261,7 +32248,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>161</v>
       </c>
@@ -32295,7 +32282,7 @@
       <c r="K10" s="2">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="17">
         <v>-0.1381</v>
       </c>
       <c r="M10" s="2">
@@ -32347,7 +32334,7 @@
         <v>0.17249999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>158</v>
       </c>
@@ -32381,7 +32368,7 @@
       <c r="K11" s="2">
         <v>-0.77890000000000004</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="17">
         <v>0.6835</v>
       </c>
       <c r="M11" s="2">
@@ -32427,7 +32414,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>162</v>
       </c>
@@ -32461,7 +32448,7 @@
       <c r="K12" s="2">
         <v>0.45979999999999999</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="17">
         <v>-0.5454</v>
       </c>
       <c r="M12" s="2">
@@ -32507,7 +32494,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>163</v>
       </c>
@@ -32521,7 +32508,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="19"/>
+      <c r="L13" s="17"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -32539,7 +32526,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>164</v>
       </c>
@@ -32573,7 +32560,7 @@
       <c r="K14" s="2">
         <v>1.1294</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="17">
         <v>-1.2786</v>
       </c>
       <c r="M14" s="2">
@@ -32625,7 +32612,7 @@
         <v>0.15790000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>158</v>
       </c>
@@ -32659,7 +32646,7 @@
       <c r="K15" s="2">
         <v>-1.6135999999999999</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="17">
         <v>1.1059000000000001</v>
       </c>
       <c r="M15" s="2">
@@ -32705,7 +32692,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>165</v>
       </c>
@@ -32739,7 +32726,7 @@
       <c r="K16" s="2">
         <v>1.8604000000000001</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="17">
         <v>0.17280000000000001</v>
       </c>
       <c r="M16" s="2">
@@ -32785,7 +32772,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>166</v>
       </c>
@@ -32799,7 +32786,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="19"/>
+      <c r="L17" s="17"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -32817,7 +32804,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>167</v>
       </c>
@@ -32851,7 +32838,7 @@
       <c r="K18" s="2">
         <v>2.4441000000000002</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="17">
         <v>0.42759999999999998</v>
       </c>
       <c r="M18" s="2">
@@ -32903,7 +32890,7 @@
         <v>0.2581</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
@@ -32937,7 +32924,7 @@
       <c r="K19" s="2">
         <v>-0.16880000000000001</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="17">
         <v>0.57020000000000004</v>
       </c>
       <c r="M19" s="2">
@@ -32983,7 +32970,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
@@ -33017,7 +33004,7 @@
       <c r="K20" s="2">
         <v>-1.2718</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="17">
         <v>-0.99780000000000002</v>
       </c>
       <c r="M20" s="2">
@@ -33063,7 +33050,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>169</v>
       </c>
@@ -33077,7 +33064,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="19"/>
+      <c r="L21" s="17"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -33095,7 +33082,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>170</v>
       </c>
@@ -33129,7 +33116,7 @@
       <c r="K22" s="2">
         <v>1.83E-2</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="17">
         <v>1.9475</v>
       </c>
       <c r="M22" s="2">
@@ -33181,7 +33168,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>158</v>
       </c>
@@ -33215,7 +33202,7 @@
       <c r="K23" s="2">
         <v>-1.6833</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="17">
         <v>1.4498</v>
       </c>
       <c r="M23" s="2">
@@ -33261,7 +33248,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>171</v>
       </c>
@@ -33295,7 +33282,7 @@
       <c r="K24" s="2">
         <v>2.3472</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="17">
         <v>-3.3973</v>
       </c>
       <c r="M24" s="2">
@@ -33341,7 +33328,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>172</v>
       </c>
@@ -33355,7 +33342,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="19"/>
+      <c r="L25" s="17"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -33373,7 +33360,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>173</v>
       </c>
@@ -33407,7 +33394,7 @@
       <c r="K26" s="2">
         <v>0.46179999999999999</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="17">
         <v>-9.0399999999999994E-2</v>
       </c>
       <c r="M26" s="2">
@@ -33459,7 +33446,7 @@
         <v>0.26329999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>158</v>
       </c>
@@ -33493,7 +33480,7 @@
       <c r="K27" s="2">
         <v>-0.60550000000000004</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="17">
         <v>0.68110000000000004</v>
       </c>
       <c r="M27" s="2">
@@ -33539,7 +33526,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>174</v>
       </c>
@@ -33573,7 +33560,7 @@
       <c r="K28" s="2">
         <v>0.74739999999999995</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="17">
         <v>-0.5907</v>
       </c>
       <c r="M28" s="2">
@@ -33619,7 +33606,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>175</v>
       </c>
@@ -33633,7 +33620,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="19"/>
+      <c r="L29" s="17"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -33651,7 +33638,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>176</v>
       </c>
@@ -33685,7 +33672,7 @@
       <c r="K30" s="2">
         <v>1.7847999999999999</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="17">
         <v>-0.58009999999999995</v>
       </c>
       <c r="M30" s="2">
@@ -33737,7 +33724,7 @@
         <v>0.29849999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>158</v>
       </c>
@@ -33771,7 +33758,7 @@
       <c r="K31" s="2">
         <v>0.1067</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L31" s="17">
         <v>0.52710000000000001</v>
       </c>
       <c r="M31" s="2">
@@ -33817,7 +33804,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>177</v>
       </c>
@@ -33851,7 +33838,7 @@
       <c r="K32" s="2">
         <v>-0.99480000000000002</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L32" s="17">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="M32" s="2">
@@ -33897,7 +33884,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>178</v>
       </c>
@@ -33911,7 +33898,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="19"/>
+      <c r="L33" s="17"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -33929,7 +33916,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>179</v>
       </c>
@@ -33963,7 +33950,7 @@
       <c r="K34" s="2">
         <v>-1.8557999999999999</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="17">
         <v>-0.81579999999999997</v>
       </c>
       <c r="M34" s="2">
@@ -34015,7 +34002,7 @@
         <v>0.2011</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>158</v>
       </c>
@@ -34049,7 +34036,7 @@
       <c r="K35" s="2">
         <v>-0.87849999999999995</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="17">
         <v>0.67410000000000003</v>
       </c>
       <c r="M35" s="2">
@@ -34095,7 +34082,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>180</v>
       </c>
@@ -34129,7 +34116,7 @@
       <c r="K36" s="2">
         <v>1.5727</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="17">
         <v>0.14169999999999999</v>
       </c>
       <c r="M36" s="2">
@@ -34175,7 +34162,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>181</v>
       </c>
@@ -34189,7 +34176,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="19"/>
+      <c r="L37" s="17"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -34207,7 +34194,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>182</v>
       </c>
@@ -34241,7 +34228,7 @@
       <c r="K38" s="2">
         <v>1.9339</v>
       </c>
-      <c r="L38" s="19">
+      <c r="L38" s="17">
         <v>0.96740000000000004</v>
       </c>
       <c r="M38" s="2">
@@ -34293,7 +34280,7 @@
         <v>0.31669999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>158</v>
       </c>
@@ -34327,7 +34314,7 @@
       <c r="K39" s="2">
         <v>0.40479999999999999</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="17">
         <v>0.84819999999999995</v>
       </c>
       <c r="M39" s="2">
@@ -34373,7 +34360,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>183</v>
       </c>
@@ -34407,7 +34394,7 @@
       <c r="K40" s="2">
         <v>-1.7448999999999999</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L40" s="17">
         <v>-1.8156000000000001</v>
       </c>
       <c r="M40" s="2">
@@ -34464,30 +34451,30 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>395</v>
       </c>
@@ -34510,7 +34497,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -34536,7 +34523,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -34559,7 +34546,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -34582,7 +34569,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -34605,7 +34592,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -34628,7 +34615,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -34651,7 +34638,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -34674,7 +34661,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -34697,7 +34684,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -34720,7 +34707,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -34743,7 +34730,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -34766,7 +34753,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -34789,39 +34776,39 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>395</v>
       </c>
@@ -34844,7 +34831,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -34867,7 +34854,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -34890,7 +34877,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -34913,7 +34900,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -34936,7 +34923,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>5</v>
       </c>
@@ -34959,7 +34946,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>6</v>
       </c>
@@ -34982,7 +34969,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>7</v>
       </c>
@@ -35005,7 +34992,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>8</v>
       </c>
@@ -35028,7 +35015,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>9</v>
       </c>
@@ -35051,7 +35038,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>10</v>
       </c>
@@ -35074,7 +35061,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>11</v>
       </c>
@@ -35097,7 +35084,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>12</v>
       </c>
@@ -35120,39 +35107,39 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-    </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+    </row>
+    <row r="31" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-    </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+    </row>
+    <row r="32" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>395</v>
       </c>
@@ -35175,7 +35162,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -35198,7 +35185,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -35221,7 +35208,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>3</v>
       </c>
@@ -35244,7 +35231,7 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -35267,7 +35254,7 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -35290,7 +35277,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>6</v>
       </c>
@@ -35313,7 +35300,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>7</v>
       </c>
@@ -35336,7 +35323,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>8</v>
       </c>
@@ -35359,7 +35346,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>9</v>
       </c>
@@ -35382,7 +35369,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>10</v>
       </c>
@@ -35405,7 +35392,7 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>11</v>
       </c>
@@ -35428,7 +35415,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>12</v>
       </c>
@@ -35451,39 +35438,39 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-    </row>
-    <row r="46" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+    </row>
+    <row r="46" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>395</v>
       </c>
@@ -35506,7 +35493,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -35529,7 +35516,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>2</v>
       </c>
@@ -35552,7 +35539,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -35575,7 +35562,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>4</v>
       </c>
@@ -35598,7 +35585,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>5</v>
       </c>
@@ -35621,7 +35608,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>6</v>
       </c>
@@ -35644,7 +35631,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>7</v>
       </c>
@@ -35667,7 +35654,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>8</v>
       </c>
@@ -35690,7 +35677,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>9</v>
       </c>
@@ -35713,7 +35700,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>10</v>
       </c>
@@ -35736,7 +35723,7 @@
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>11</v>
       </c>
@@ -35759,7 +35746,7 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>12</v>
       </c>
@@ -35782,39 +35769,39 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-    </row>
-    <row r="61" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+    </row>
+    <row r="61" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>395</v>
       </c>
@@ -35837,7 +35824,7 @@
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>1</v>
       </c>
@@ -35860,7 +35847,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>2</v>
       </c>
@@ -35883,7 +35870,7 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>3</v>
       </c>
@@ -35906,7 +35893,7 @@
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>4</v>
       </c>
@@ -35929,7 +35916,7 @@
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>5</v>
       </c>
@@ -35952,7 +35939,7 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>6</v>
       </c>
@@ -35975,7 +35962,7 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>7</v>
       </c>
@@ -35998,7 +35985,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>8</v>
       </c>
@@ -36021,7 +36008,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>9</v>
       </c>
@@ -36044,7 +36031,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>10</v>
       </c>
@@ -36067,7 +36054,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>11</v>
       </c>
@@ -36090,7 +36077,7 @@
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>12</v>
       </c>
@@ -36113,39 +36100,39 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-    </row>
-    <row r="76" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+    </row>
+    <row r="76" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-    </row>
-    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+    </row>
+    <row r="77" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>395</v>
       </c>
@@ -36168,7 +36155,7 @@
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>1</v>
       </c>
@@ -36191,7 +36178,7 @@
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>2</v>
       </c>
@@ -36214,7 +36201,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>3</v>
       </c>
@@ -36237,7 +36224,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>4</v>
       </c>
@@ -36260,7 +36247,7 @@
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>5</v>
       </c>
@@ -36283,7 +36270,7 @@
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>6</v>
       </c>
@@ -36306,7 +36293,7 @@
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>7</v>
       </c>
@@ -36329,7 +36316,7 @@
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>8</v>
       </c>
@@ -36352,7 +36339,7 @@
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>9</v>
       </c>
@@ -36375,7 +36362,7 @@
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>10</v>
       </c>
@@ -36398,7 +36385,7 @@
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>11</v>
       </c>
@@ -36421,7 +36408,7 @@
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>12</v>
       </c>
@@ -36444,39 +36431,39 @@
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-    </row>
-    <row r="91" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="38"/>
+    </row>
+    <row r="91" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="16"/>
-    </row>
-    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+    </row>
+    <row r="92" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>395</v>
       </c>
@@ -36499,7 +36486,7 @@
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>1</v>
       </c>
@@ -36522,7 +36509,7 @@
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>2</v>
       </c>
@@ -36545,7 +36532,7 @@
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>3</v>
       </c>
@@ -36568,7 +36555,7 @@
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>4</v>
       </c>
@@ -36591,7 +36578,7 @@
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>5</v>
       </c>
@@ -36614,7 +36601,7 @@
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>6</v>
       </c>
@@ -36637,7 +36624,7 @@
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>7</v>
       </c>
@@ -36660,7 +36647,7 @@
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>8</v>
       </c>
@@ -36683,7 +36670,7 @@
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>9</v>
       </c>
@@ -36706,7 +36693,7 @@
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>10</v>
       </c>
@@ -36729,7 +36716,7 @@
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>11</v>
       </c>
@@ -36752,7 +36739,7 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>12</v>
       </c>
@@ -36775,39 +36762,39 @@
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-    </row>
-    <row r="106" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A105" s="38"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="38"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="38"/>
+    </row>
+    <row r="106" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="16"/>
-    </row>
-    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="37"/>
+    </row>
+    <row r="107" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>395</v>
       </c>
@@ -36830,7 +36817,7 @@
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>1</v>
       </c>
@@ -36853,7 +36840,7 @@
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>2</v>
       </c>
@@ -36876,7 +36863,7 @@
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>3</v>
       </c>
@@ -36899,7 +36886,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>4</v>
       </c>
@@ -36922,7 +36909,7 @@
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>5</v>
       </c>
@@ -36945,7 +36932,7 @@
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>6</v>
       </c>
@@ -36968,7 +36955,7 @@
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>7</v>
       </c>
@@ -36991,7 +36978,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>8</v>
       </c>
@@ -37014,7 +37001,7 @@
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>9</v>
       </c>
@@ -37037,7 +37024,7 @@
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>10</v>
       </c>
@@ -37060,7 +37047,7 @@
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>11</v>
       </c>
@@ -37083,7 +37070,7 @@
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>12</v>
       </c>
@@ -37106,39 +37093,39 @@
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="17"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-    </row>
-    <row r="121" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A120" s="38"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="38"/>
+      <c r="J120" s="38"/>
+      <c r="K120" s="38"/>
+      <c r="L120" s="38"/>
+      <c r="M120" s="38"/>
+    </row>
+    <row r="121" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4"/>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="16"/>
-      <c r="L121" s="16"/>
-      <c r="M121" s="16"/>
-    </row>
-    <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C121" s="37"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="37"/>
+      <c r="K121" s="37"/>
+      <c r="L121" s="37"/>
+      <c r="M121" s="37"/>
+    </row>
+    <row r="122" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>395</v>
       </c>
@@ -37161,7 +37148,7 @@
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>1</v>
       </c>
@@ -37184,7 +37171,7 @@
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>2</v>
       </c>
@@ -37207,7 +37194,7 @@
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>3</v>
       </c>
@@ -37230,7 +37217,7 @@
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>4</v>
       </c>
@@ -37253,7 +37240,7 @@
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>5</v>
       </c>
@@ -37276,7 +37263,7 @@
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>6</v>
       </c>
@@ -37299,7 +37286,7 @@
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>7</v>
       </c>
@@ -37322,7 +37309,7 @@
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>8</v>
       </c>
@@ -37345,7 +37332,7 @@
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>9</v>
       </c>
@@ -37368,7 +37355,7 @@
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>10</v>
       </c>
@@ -37391,7 +37378,7 @@
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>11</v>
       </c>
@@ -37414,7 +37401,7 @@
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>12</v>
       </c>
@@ -37439,11 +37426,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B91:M91"/>
-    <mergeCell ref="A105:M105"/>
-    <mergeCell ref="B106:M106"/>
-    <mergeCell ref="A120:M120"/>
-    <mergeCell ref="B121:M121"/>
     <mergeCell ref="A90:M90"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A15:M15"/>
@@ -37456,6 +37438,11 @@
     <mergeCell ref="B61:M61"/>
     <mergeCell ref="A75:M75"/>
     <mergeCell ref="B76:M76"/>
+    <mergeCell ref="B91:M91"/>
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="B106:M106"/>
+    <mergeCell ref="A120:M120"/>
+    <mergeCell ref="B121:M121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37473,9 +37460,9 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>395</v>
       </c>
@@ -37483,7 +37470,7 @@
         <v>399</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>397</v>
@@ -37498,536 +37485,541 @@
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>-2.7099999999999999E-2</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="25">
         <v>0.48280000000000001</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="25">
         <v>0.22339999999999999</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="21">
         <v>-0.2535</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="22">
         <v>-0.68389999999999995</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="21">
         <v>0.25829999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="23">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="39"/>
+      <c r="B3" s="21">
         <v>-5.9700000000000003E-2</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <v>1.4995000000000001</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <v>1.369</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <v>-1.1518999999999999</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="21">
         <v>-2.1423999999999999</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="21">
         <v>1.1802999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <v>3.1214</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="26">
         <v>1.9111</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <v>-0.76119999999999999</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="22">
         <v>-1.6362000000000001</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <v>-2.3589000000000002</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="21">
         <v>-0.27629999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="23">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="39"/>
+      <c r="B5" s="21">
         <v>9.1630000000000003</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>5.3301999999999996</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <v>-2.3489</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <v>-2.9775</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <v>-2.3494999999999999</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="21">
         <v>-0.75739999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <v>0.26440000000000002</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>-0.76329999999999998</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <v>-0.10059999999999999</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="21">
         <v>-0.1656</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="26">
         <v>0.441</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="21">
         <v>0.3241</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="23">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="39"/>
+      <c r="B7" s="21">
         <v>0.75719999999999998</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="21">
         <v>-1.81</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="21">
         <v>-0.63329999999999997</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="21">
         <v>-0.85909999999999997</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="21">
         <v>2.2250999999999999</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="21">
         <v>1.5559000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="25">
         <v>0.32719999999999999</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="26">
         <v>0.83</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="25">
         <v>0.25040000000000001</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="21">
         <v>-0.21329999999999999</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="22">
         <v>-0.68259999999999998</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="21">
         <v>-0.51180000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="23">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="39"/>
+      <c r="B9" s="21">
         <v>0.72309999999999997</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="21">
         <v>2.4967999999999999</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="21">
         <v>1.3976999999999999</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <v>-0.88460000000000005</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="21">
         <v>-1.9357</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="21">
         <v>-1.5972999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="21">
         <v>-0.13589999999999999</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="21">
         <v>-2.0354999999999999</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="25">
         <v>0.29060000000000002</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="26">
         <v>1.3050999999999999</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="26">
         <v>1.5587</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="21">
         <v>-0.9829</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="23">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="39"/>
+      <c r="B11" s="21">
         <v>-0.17280000000000001</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="21">
         <v>-1.21</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="21">
         <v>0.65469999999999995</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>3.0169999999999999</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="21">
         <v>3.5388000000000002</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="21">
         <v>-1.0006999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="25">
         <v>0.2601</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="25">
         <v>0.59119999999999995</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="22">
         <v>-0.40089999999999998</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="25">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="21">
         <v>-0.49080000000000001</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="21">
         <v>-4.5499999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="23">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="39"/>
+      <c r="B13" s="21">
         <v>0.63780000000000003</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="21">
         <v>1.7593000000000001</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="21">
         <v>-2.0335000000000001</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>0.39019999999999999</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="21">
         <v>-1.5132000000000001</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="21">
         <v>-0.16089999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="21">
         <v>-1.6914</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="21">
         <v>-1.016</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="25">
         <v>0.39839999999999998</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="25">
         <v>0.53139999999999998</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="26">
         <v>0.92290000000000005</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="21">
         <v>0.85470000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="23">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="39"/>
+      <c r="B15" s="21">
         <v>-1.0123</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="21">
         <v>-1.1900999999999999</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="21">
         <v>0.99760000000000004</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <v>1.2877000000000001</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="21">
         <v>2.1930999999999998</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="21">
         <v>1.9749000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="26">
         <v>2.2132999999999998</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="26">
         <v>1.8516999999999999</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="21">
         <v>-8.3799999999999999E-2</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="22">
         <v>-1.8001</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <v>-1.9079999999999999</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="21">
         <v>-0.27310000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="23">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="39"/>
+      <c r="B17" s="21">
         <v>5.4676</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="21">
         <v>4.5679999999999996</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="21">
         <v>-0.24179999999999999</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>-2.0602999999999998</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="21">
         <v>-1.75</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="21">
         <v>-0.54420000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <v>-2.8885000000000001</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="21">
         <v>-2.0592000000000001</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="21">
         <v>0.2001</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="26">
         <v>1.7354000000000001</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="26">
         <v>2.4815</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="21">
         <v>0.53069999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="23">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="39"/>
+      <c r="B19" s="21">
         <v>-3.3971</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="21">
         <v>-0.96709999999999996</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="21">
         <v>0.35849999999999999</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <v>3.5232000000000001</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="21">
         <v>5.0548000000000002</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="21">
         <v>0.82620000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="21">
         <v>-1.8303</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="21">
         <v>-0.55349999999999999</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="21">
         <v>0.44359999999999999</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="26">
         <v>1.387</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="26">
         <v>1.2789999999999999</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="21">
         <v>-0.72560000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="23">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="39"/>
+      <c r="B21" s="21">
         <v>-1.0934999999999999</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="21">
         <v>-0.61850000000000005</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="21">
         <v>1.0189999999999999</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>3.2793000000000001</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="21">
         <v>2.8614999999999999</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="21">
         <v>-0.99339999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="21">
         <v>-0.52980000000000005</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="25">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="25">
         <v>0.1817</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="21">
         <v>-1.1900000000000001E-2</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="25">
         <v>0.15140000000000001</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="21">
         <v>0.14680000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="39"/>
+      <c r="B23" s="21">
         <v>-0.66180000000000005</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="21">
         <v>0.13589999999999999</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="21">
         <v>0.70930000000000004</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="21">
         <v>-3.6900000000000002E-2</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="21">
         <v>0.44209999999999999</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="21">
         <v>0.376</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="26">
         <v>0.91669999999999996</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="25">
         <v>0.69910000000000005</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="22">
         <v>-0.64159999999999995</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="21">
         <v>-0.96430000000000005</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="21">
         <v>-0.71040000000000003</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="21">
         <v>0.70050000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="23">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="39"/>
+      <c r="B25" s="21">
         <v>2.1248999999999998</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="21">
         <v>1.7442</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="21">
         <v>-1.9228000000000001</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="21">
         <v>-1.8149</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="21">
         <v>-1.2369000000000001</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="21">
         <v>2.2273000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -38035,11 +38027,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38049,17 +38036,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF444BFF-E328-4BE5-8E9A-815970B56C64}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>395</v>
       </c>
@@ -38073,172 +38060,172 @@
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>405</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="C2" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>406</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="C3" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>407</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>455</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="C4" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>408</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="C5" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>409</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="C6" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>410</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="C7" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>410</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="C8" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>411</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="C9" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>412</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="C10" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C11" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="C12" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>456</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>423</v>
+      <c r="C13" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -38248,198 +38235,202 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4488E5F7-017A-4AF3-89B8-C4EE09303AAF}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="41" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>446</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="41"/>
+      <c r="B4" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="42"/>
+      <c r="B5" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="41"/>
+      <c r="B7" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="42"/>
+      <c r="B8" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="36">
+        <v>1</v>
+      </c>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="C9" s="33">
+        <v>10</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="41"/>
+      <c r="B10" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="42"/>
+      <c r="B11" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="41"/>
+      <c r="B13" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="42"/>
+      <c r="B14" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="41" t="s">
         <v>435</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>439</v>
-      </c>
-      <c r="E2" s="43" t="s">
+      <c r="B15" s="31" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="41"/>
+      <c r="B16" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>450</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>445</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>450</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43" t="s">
-        <v>452</v>
-      </c>
-      <c r="E6" s="43"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45">
-        <v>1</v>
-      </c>
-      <c r="E8" s="45"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="35">
+        <v>11</v>
+      </c>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="42"/>
+      <c r="B17" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>450</v>
-      </c>
-      <c r="C9" s="43">
-        <v>10</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>438</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>450</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>447</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>453</v>
-      </c>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>449</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>450</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44">
-        <v>11</v>
-      </c>
-      <c r="E16" s="44"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/lca estimations/selects1999_lcaresults.xlsx
+++ b/lca estimations/selects1999_lcaresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\OneDrive\Bureau\master-thesis\lca estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B638A15A-E67A-4B2A-980D-567F3A4FD95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E7DE2-1D20-4F94-A175-F4BBA0954714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="2" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="457">
   <si>
     <t>selects1999.sav</t>
   </si>
@@ -1374,18 +1374,12 @@
     <t>Right</t>
   </si>
   <si>
-    <t>2, 8</t>
-  </si>
-  <si>
     <t>Center-left</t>
   </si>
   <si>
     <t>Center-right</t>
   </si>
   <si>
-    <t>5, 9</t>
-  </si>
-  <si>
     <t>Blocs</t>
   </si>
   <si>
@@ -1396,22 +1390,6 @@
   </si>
   <si>
     <t>Anti-EU</t>
-  </si>
-  <si>
-    <t>4, 6</t>
-  </si>
-  <si>
-    <t>3,7</t>
-  </si>
-  <si>
-    <t>For increase in taxes on high income (HI), but supports free markets;
-no clear opinion on Swiss army;
-rather pro-EU integration;
-but with an appreciable minority of; anti-EU supporters (40%);
-for equal chances Swiss-foreigners;
-defend traditions;
-pro-environment;
-against nuclear energy.</t>
   </si>
   <si>
     <t>Against social spending;
@@ -1471,6 +1449,31 @@
   </si>
   <si>
     <t>Pro-EU integration; for equal chances Swiss-foreigners; rather defend traditions; pro-nuclear energy.</t>
+  </si>
+  <si>
+    <t>For increase in taxes on high income (HI) and in social spending, but supports free markets;
+no clear opinion on Swiss army;
+rather pro-EU integration;
+but with an appreciable minority of; anti-EU supporters (40%);
+for equal chances Swiss-foreigners;
+defend traditions;
+pro-environment;
+against nuclear energy.</t>
+  </si>
+  <si>
+    <t>2, 8 (19,7%)</t>
+  </si>
+  <si>
+    <t>12 (2,6%)</t>
+  </si>
+  <si>
+    <t>4 (12,4%)</t>
+  </si>
+  <si>
+    <t>1 (17,8%)</t>
+  </si>
+  <si>
+    <t>3, 5, 9 (25,4%)</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1527,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1558,18 +1561,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1730,7 +1721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1804,12 +1795,6 @@
     <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1818,6 +1803,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1848,7 +1834,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -13046,73 +13031,73 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
     </row>
     <row r="5" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
@@ -14017,7 +14002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9709DC-552F-4C6B-9224-EEC8D1F9F04F}">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -14029,23 +14014,23 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -16230,22 +16215,22 @@
       <c r="A77" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="37"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
@@ -16799,10 +16784,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA7F9F8-281B-4B85-B195-B5DD0C70CF99}">
   <dimension ref="A1:N372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="A372" sqref="A372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16946,43 +16931,43 @@
       <c r="A7" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7">
         <v>0.23469999999999999</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7">
         <v>0.64990000000000003</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>0.2409</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7">
         <v>0.55869999999999997</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>0.21379999999999999</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>0.7339</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>0.75329999999999997</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>0.1913</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7">
         <v>0.32319999999999999</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7">
         <v>0.31830000000000003</v>
       </c>
     </row>
@@ -16990,43 +16975,43 @@
       <c r="A8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8">
         <v>0.4103</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>0.1181</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>0.1007</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>0.25140000000000001</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8">
         <v>0.68500000000000005</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8">
         <v>0.53310000000000002</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>0.46650000000000003</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>0.25890000000000002</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>0.2195</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>0.63770000000000004</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8">
         <v>0.19819999999999999</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8">
         <v>0.2878</v>
       </c>
     </row>
@@ -17034,43 +17019,43 @@
       <c r="A9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9">
         <v>0.35499999999999998</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>0.80710000000000004</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>0.30499999999999999</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9">
         <v>0.65849999999999997</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>0.18990000000000001</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>0.25309999999999999</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9">
         <v>0.46339999999999998</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9">
         <v>0.17100000000000001</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9">
         <v>0.47870000000000001</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9">
         <v>0.39389999999999997</v>
       </c>
     </row>
@@ -17078,61 +17063,48 @@
       <c r="A10" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11">
         <v>0.65459999999999996</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>0.94679999999999997</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>0.69350000000000001</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>0.79010000000000002</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11">
         <v>0.67459999999999998</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>0.52939999999999998</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11">
         <v>0.72230000000000005</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11">
         <v>0.64510000000000001</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>2.3E-3</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11">
         <v>0.51990000000000003</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11">
         <v>0.95530000000000004</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11">
         <v>0.66679999999999995</v>
       </c>
     </row>
@@ -17140,43 +17112,43 @@
       <c r="A12" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12">
         <v>0.221</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>0.15459999999999999</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12">
         <v>0.40079999999999999</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>0.16739999999999999</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>0.32919999999999999</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>0.58069999999999999</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
         <v>0.29199999999999998</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12">
         <v>0.41899999999999998</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12">
         <v>0.1774</v>
       </c>
     </row>
@@ -17184,43 +17156,43 @@
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13">
         <v>0.1244</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>2.01E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>0.29139999999999999</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>0.18110000000000001</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>0.17080000000000001</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>0.11020000000000001</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13">
         <v>0.41699999999999998</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13">
         <v>0.42399999999999999</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13">
         <v>6.1100000000000002E-2</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13">
         <v>1.4E-3</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13">
         <v>0.15579999999999999</v>
       </c>
     </row>
@@ -17228,61 +17200,48 @@
       <c r="A14" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15">
         <v>0.23480000000000001</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>0.53920000000000001</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>0.40660000000000002</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>0.34970000000000001</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>0.23230000000000001</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <v>0.15340000000000001</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>0.19650000000000001</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15">
         <v>9.11E-2</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15">
         <v>2.46E-2</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15">
         <v>0.41049999999999998</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15">
         <v>0.27479999999999999</v>
       </c>
     </row>
@@ -17290,43 +17249,43 @@
       <c r="A16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16">
         <v>0.2427</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>0.13039999999999999</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>0.08</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>1.15E-2</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16">
         <v>0.497</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
         <v>0.40289999999999998</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16">
         <v>0.48480000000000001</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16">
         <v>0.16889999999999999</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16">
         <v>0.79120000000000001</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16">
         <v>0.58660000000000001</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16">
         <v>0.21990000000000001</v>
       </c>
     </row>
@@ -17334,43 +17293,43 @@
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17">
         <v>0.52249999999999996</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>0.33029999999999998</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>0.54510000000000003</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>0.57030000000000003</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17">
         <v>0.75619999999999998</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>0.44900000000000001</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17">
         <v>0.44369999999999998</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>0.31859999999999999</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17">
         <v>0.74</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17">
         <v>0.94430000000000003</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17">
         <v>0.1842</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17">
         <v>0.50539999999999996</v>
       </c>
     </row>
@@ -17378,61 +17337,48 @@
       <c r="A18" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>0.39650000000000002</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>0.63180000000000003</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>0.42849999999999999</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19">
         <v>0.88759999999999994</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19">
         <v>0.54139999999999999</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19">
         <v>0.76570000000000005</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19">
         <v>0.87960000000000005</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19">
         <v>0.42109999999999997</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19">
         <v>0.29289999999999999</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19">
         <v>0.30620000000000003</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19">
         <v>0.45269999999999999</v>
       </c>
     </row>
@@ -17440,43 +17386,43 @@
       <c r="A20" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>0.31909999999999999</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>0.10879999999999999</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>9.3100000000000002E-2</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20">
         <v>0.3886</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20">
         <v>0.23269999999999999</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20">
         <v>0.3019</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20">
         <v>0.20860000000000001</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20">
         <v>0.56630000000000003</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20">
         <v>0.29780000000000001</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20">
         <v>0.19400000000000001</v>
       </c>
     </row>
@@ -17484,43 +17430,43 @@
       <c r="A21" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>0.28449999999999998</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>0.88390000000000002</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>0.29310000000000003</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>0.4627</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21">
         <v>0.69630000000000003</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21">
         <v>0.37030000000000002</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21">
         <v>0.14080000000000001</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21">
         <v>0.39600000000000002</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21">
         <v>0.3533</v>
       </c>
     </row>
@@ -17528,61 +17474,48 @@
       <c r="A22" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>0.5161</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>0.91110000000000002</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>0.23380000000000001</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>0.92920000000000003</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>0.36359999999999998</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23">
         <v>0.87090000000000001</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23">
         <v>1.67E-2</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23">
         <v>0.87150000000000005</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23">
         <v>0.21199999999999999</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23">
         <v>0.81140000000000001</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23">
         <v>0.28110000000000002</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23">
         <v>0.1832</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23">
         <v>0.56669999999999998</v>
       </c>
     </row>
@@ -17590,43 +17523,43 @@
       <c r="A24" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>8.6300000000000002E-2</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>1.67E-2</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
         <v>0.12770000000000001</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24">
         <v>0.25609999999999999</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24">
         <v>0.12670000000000001</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24">
         <v>0.1048</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24">
         <v>0.28739999999999999</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24">
         <v>0.54759999999999998</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24">
         <v>9.4799999999999995E-2</v>
       </c>
     </row>
@@ -17634,43 +17567,43 @@
       <c r="A25" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>0.39760000000000001</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>6.8500000000000005E-2</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>0.73209999999999997</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25">
         <v>0.61980000000000002</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <v>1.4E-3</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25">
         <v>0.72719999999999996</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25">
         <v>1.9E-3</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25">
         <v>0.68310000000000004</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25">
         <v>0.10639999999999999</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25">
         <v>0.43159999999999998</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25">
         <v>0.26919999999999999</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25">
         <v>0.33850000000000002</v>
       </c>
     </row>
@@ -17678,61 +17611,48 @@
       <c r="A26" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>0.4889</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>0.96779999999999999</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>0.23519999999999999</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>0.46820000000000001</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <v>0.26290000000000002</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27">
         <v>0.49619999999999997</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27">
         <v>0.84189999999999998</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27">
         <v>0.34339999999999998</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27">
         <v>0.56259999999999999</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27">
         <v>1.89E-2</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27">
         <v>0.1578</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27">
         <v>0.46539999999999998</v>
       </c>
     </row>
@@ -17740,43 +17660,43 @@
       <c r="A28" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>0.1265</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>0.12</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28">
         <v>0.16930000000000001</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28">
         <v>0.1258</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28">
         <v>0.24879999999999999</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28">
         <v>0.1007</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28">
         <v>0.53949999999999998</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28">
         <v>0.36670000000000003</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28">
         <v>0.1089</v>
       </c>
     </row>
@@ -17784,43 +17704,43 @@
       <c r="A29" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>0.3846</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>0.76449999999999996</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29">
         <v>0.4118</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29">
         <v>0.7369</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29">
         <v>0.33450000000000002</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29">
         <v>0.84770000000000001</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29">
         <v>0.4078</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29">
         <v>0.33679999999999999</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29">
         <v>0.4415</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29">
         <v>0.47549999999999998</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29">
         <v>0.42570000000000002</v>
       </c>
     </row>
@@ -17828,61 +17748,48 @@
       <c r="A30" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>0.71709999999999996</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>0.25659999999999999</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
         <v>0.87849999999999995</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31">
         <v>0.50370000000000004</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31">
         <v>0.96970000000000001</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31">
         <v>0.50719999999999998</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31">
         <v>0.93710000000000004</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31">
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31">
         <v>0.86170000000000002</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31">
         <v>0.2515</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31">
         <v>0.21820000000000001</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31">
         <v>0.60560000000000003</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31">
         <v>0.59379999999999999</v>
       </c>
     </row>
@@ -17890,43 +17797,43 @@
       <c r="A32" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32">
         <v>0.2671</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32">
         <v>0.29720000000000002</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32">
         <v>0.10630000000000001</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32">
         <v>5.28E-2</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32">
         <v>0.70020000000000004</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32">
         <v>0.20419999999999999</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32">
         <v>0.1091</v>
       </c>
     </row>
@@ -17934,43 +17841,43 @@
       <c r="A33" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>0.1875</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>0.67610000000000003</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <v>9.4100000000000003E-2</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33">
         <v>0.49340000000000001</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33">
         <v>0.22570000000000001</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33">
         <v>1.9E-3</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33">
         <v>0.63919999999999999</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33">
         <v>0.69569999999999999</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33">
         <v>8.1500000000000003E-2</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33">
         <v>0.19020000000000001</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33">
         <v>0.29709999999999998</v>
       </c>
     </row>
@@ -17978,61 +17885,48 @@
       <c r="A34" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>0.52190000000000003</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>0.90239999999999998</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <v>0.69420000000000004</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35">
         <v>0.57079999999999997</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <v>0.3745</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35">
         <v>0.26650000000000001</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35">
         <v>0.2321</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35">
         <v>0.4899</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35">
         <v>0.22370000000000001</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35">
         <v>0.41189999999999999</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35">
         <v>0.14710000000000001</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35">
         <v>0.90920000000000001</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35">
         <v>0.53080000000000005</v>
       </c>
     </row>
@@ -18040,43 +17934,43 @@
       <c r="A36" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>0.39989999999999998</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36">
         <v>0.11509999999999999</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36">
         <v>0.27979999999999999</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36">
         <v>0.62539999999999996</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36">
         <v>0.57450000000000001</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36">
         <v>0.50939999999999996</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36">
         <v>0.52910000000000001</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36">
         <v>0.85219999999999996</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36">
         <v>0.2959</v>
       </c>
     </row>
@@ -18084,43 +17978,43 @@
       <c r="A37" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>7.8200000000000006E-2</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37">
         <v>0.2321</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37">
         <v>0.31409999999999999</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37">
         <v>0.34570000000000001</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
         <v>0.1081</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37">
         <v>0.19339999999999999</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37">
         <v>0.2472</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37">
         <v>0.50509999999999999</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37">
         <v>0.17330000000000001</v>
       </c>
     </row>
@@ -18128,61 +18022,48 @@
       <c r="A38" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <v>0.13120000000000001</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39">
         <v>0.31730000000000003</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39">
         <v>0.76759999999999995</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39">
         <v>0.53739999999999999</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39">
         <v>0.13489999999999999</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39">
         <v>0.63829999999999998</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39">
         <v>0.49209999999999998</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39">
         <v>0.16520000000000001</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39">
         <v>0.2339</v>
       </c>
     </row>
@@ -18190,43 +18071,43 @@
       <c r="A40" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>3.04E-2</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40">
         <v>1.17E-2</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40">
         <v>0.13070000000000001</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
         <v>0.28910000000000002</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40">
         <v>0.28870000000000001</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40">
         <v>5.57E-2</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40">
         <v>0.5131</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40">
         <v>9.69E-2</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40">
         <v>9.6500000000000002E-2</v>
       </c>
     </row>
@@ -18234,43 +18115,43 @@
       <c r="A41" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>0.94369999999999998</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>0.89629999999999999</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <v>0.86860000000000004</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41">
         <v>0.67100000000000004</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41">
         <v>0.1017</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41">
         <v>0.17349999999999999</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41">
         <v>0.57640000000000002</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41">
         <v>0.84060000000000001</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41">
         <v>0.30599999999999999</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41">
         <v>0.41970000000000002</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41">
         <v>0.32169999999999999</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41">
         <v>0.90180000000000005</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41">
         <v>0.66959999999999997</v>
       </c>
     </row>
@@ -21375,7 +21256,7 @@
       <c r="B120" s="2">
         <v>0.20899999999999999</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="10">
         <v>0.49840000000000001</v>
       </c>
       <c r="D120" s="2">
@@ -21771,7 +21652,7 @@
       <c r="B129" s="2">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="10">
         <v>8.4099999999999994E-2</v>
       </c>
       <c r="D129" s="2">
@@ -26747,7 +26628,7 @@
       <c r="B248" s="2">
         <v>5.5026999999999999</v>
       </c>
-      <c r="C248" s="2">
+      <c r="C248" s="10">
         <v>7.4112</v>
       </c>
       <c r="D248" s="2">
@@ -26759,13 +26640,13 @@
       <c r="F248" s="2">
         <v>4.0617999999999999</v>
       </c>
-      <c r="G248" s="2">
+      <c r="G248" s="10">
         <v>5.6322999999999999</v>
       </c>
       <c r="H248" s="2">
         <v>4.0039999999999996</v>
       </c>
-      <c r="I248" s="2">
+      <c r="I248" s="10">
         <v>7.0854999999999997</v>
       </c>
       <c r="J248" s="2">
@@ -27399,7 +27280,7 @@
       <c r="B264" s="2">
         <v>4.5274999999999999</v>
       </c>
-      <c r="C264" s="2">
+      <c r="C264" s="10">
         <v>6.6464999999999996</v>
       </c>
       <c r="D264" s="2">
@@ -31800,6 +31681,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -34447,7 +34329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA0092D-1E03-4D5C-A537-9FD0A80C2E74}">
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -34459,20 +34341,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -34777,36 +34659,36 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -35108,36 +34990,36 @@
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
     </row>
     <row r="31" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
     </row>
     <row r="32" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
@@ -35439,36 +35321,36 @@
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
     </row>
     <row r="46" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
@@ -35770,36 +35652,36 @@
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
     </row>
     <row r="61" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
@@ -36101,36 +35983,36 @@
       <c r="M74" s="4"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
     </row>
     <row r="76" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
     </row>
     <row r="77" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
@@ -36432,36 +36314,36 @@
       <c r="M89" s="4"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A90" s="38"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
     </row>
     <row r="91" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
-      <c r="B91" s="37" t="s">
+      <c r="B91" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
     </row>
     <row r="92" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
@@ -36763,36 +36645,36 @@
       <c r="M104" s="4"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A105" s="38"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="38"/>
-      <c r="L105" s="38"/>
-      <c r="M105" s="38"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="37"/>
     </row>
     <row r="106" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
-      <c r="B106" s="37" t="s">
+      <c r="B106" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="37"/>
-      <c r="K106" s="37"/>
-      <c r="L106" s="37"/>
-      <c r="M106" s="37"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
+      <c r="L106" s="36"/>
+      <c r="M106" s="36"/>
     </row>
     <row r="107" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
@@ -37094,36 +36976,36 @@
       <c r="M119" s="4"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A120" s="38"/>
-      <c r="B120" s="38"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="38"/>
-      <c r="E120" s="38"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="38"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="38"/>
-      <c r="J120" s="38"/>
-      <c r="K120" s="38"/>
-      <c r="L120" s="38"/>
-      <c r="M120" s="38"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="37"/>
+      <c r="L120" s="37"/>
+      <c r="M120" s="37"/>
     </row>
     <row r="121" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4"/>
-      <c r="B121" s="37" t="s">
+      <c r="B121" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C121" s="37"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="37"/>
-      <c r="K121" s="37"/>
-      <c r="L121" s="37"/>
-      <c r="M121" s="37"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="36"/>
+      <c r="J121" s="36"/>
+      <c r="K121" s="36"/>
+      <c r="L121" s="36"/>
+      <c r="M121" s="36"/>
     </row>
     <row r="122" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
@@ -37486,7 +37368,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>105</v>
       </c>
       <c r="B2" s="21">
@@ -37509,7 +37391,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="21">
         <v>-5.9700000000000003E-2</v>
       </c>
@@ -37530,7 +37412,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>106</v>
       </c>
       <c r="B4" s="26">
@@ -37553,7 +37435,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="21">
         <v>9.1630000000000003</v>
       </c>
@@ -37574,7 +37456,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>107</v>
       </c>
       <c r="B6" s="25">
@@ -37597,7 +37479,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="21">
         <v>0.75719999999999998</v>
       </c>
@@ -37618,7 +37500,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>108</v>
       </c>
       <c r="B8" s="25">
@@ -37641,7 +37523,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="21">
         <v>0.72309999999999997</v>
       </c>
@@ -37662,7 +37544,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>109</v>
       </c>
       <c r="B10" s="21">
@@ -37685,7 +37567,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="21">
         <v>-0.17280000000000001</v>
       </c>
@@ -37706,7 +37588,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="25">
@@ -37729,7 +37611,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="21">
         <v>0.63780000000000003</v>
       </c>
@@ -37750,7 +37632,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="21">
@@ -37773,7 +37655,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="21">
         <v>-1.0123</v>
       </c>
@@ -37794,7 +37676,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>112</v>
       </c>
       <c r="B16" s="26">
@@ -37817,7 +37699,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="39"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="21">
         <v>5.4676</v>
       </c>
@@ -37838,7 +37720,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>113</v>
       </c>
       <c r="B18" s="22">
@@ -37861,7 +37743,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="21">
         <v>-3.3971</v>
       </c>
@@ -37882,7 +37764,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
         <v>114</v>
       </c>
       <c r="B20" s="21">
@@ -37905,7 +37787,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="39"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="21">
         <v>-1.0934999999999999</v>
       </c>
@@ -37926,7 +37808,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="38" t="s">
         <v>115</v>
       </c>
       <c r="B22" s="21">
@@ -37949,7 +37831,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="39"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="21">
         <v>-0.66180000000000005</v>
       </c>
@@ -37970,7 +37852,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="38" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="26">
@@ -37993,7 +37875,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="39"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="21">
         <v>2.1248999999999998</v>
       </c>
@@ -38036,8 +37918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF444BFF-E328-4BE5-8E9A-815970B56C64}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38060,7 +37942,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -38068,10 +37950,10 @@
         <v>405</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
@@ -38085,7 +37967,7 @@
         <v>418</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -38096,10 +37978,10 @@
         <v>407</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="116" x14ac:dyDescent="0.35">
@@ -38113,7 +37995,7 @@
         <v>419</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
@@ -38127,7 +38009,7 @@
         <v>420</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -38138,10 +38020,10 @@
         <v>410</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
@@ -38152,10 +38034,10 @@
         <v>410</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="116" x14ac:dyDescent="0.35">
@@ -38169,7 +38051,7 @@
         <v>421</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
@@ -38183,7 +38065,7 @@
         <v>422</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -38197,7 +38079,7 @@
         <v>423</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -38222,7 +38104,7 @@
         <v>414</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>416</v>
@@ -38237,200 +38119,202 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4488E5F7-017A-4AF3-89B8-C4EE09303AAF}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="2" max="3" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="40" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="39" t="s">
         <v>425</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>446</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
-        <v>428</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="40"/>
+      <c r="B4" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="41"/>
+      <c r="B5" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="39" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
-      <c r="B4" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="42"/>
-      <c r="B5" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+      <c r="B6" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="40"/>
+      <c r="B7" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="41"/>
+      <c r="B8" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="41"/>
-      <c r="B7" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="42"/>
-      <c r="B8" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="36">
-        <v>1</v>
-      </c>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
-        <v>432</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="C9" s="33">
+      <c r="B9" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" s="31">
         <v>10</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
-      <c r="B10" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="G10" s="47"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="42"/>
-      <c r="B11" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
-      <c r="B13" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="D13" s="33">
+        <v>7</v>
+      </c>
+      <c r="E13" s="33"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="41"/>
+      <c r="B14" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="40" t="s">
         <v>433</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="42"/>
-      <c r="B14" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
+      <c r="B15" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32">
+        <v>6</v>
+      </c>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="40"/>
+      <c r="B16" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="41"/>
-      <c r="B16" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="35">
+      <c r="C16" s="29"/>
+      <c r="D16" s="33">
         <v>11</v>
       </c>
-      <c r="E16" s="35"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="42"/>
-      <c r="B17" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/lca estimations/selects1999_lcaresults.xlsx
+++ b/lca estimations/selects1999_lcaresults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\OneDrive\Bureau\master-thesis\lca estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E7DE2-1D20-4F94-A175-F4BBA0954714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3664B3BF-C167-4B89-AFC8-1D5F92AFA870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="455">
   <si>
     <t>selects1999.sav</t>
   </si>
@@ -202,9 +202,6 @@
     <t>3,8e-755</t>
   </si>
   <si>
-    <t>finalmodel (R)</t>
-  </si>
-  <si>
     <t>Model13</t>
   </si>
   <si>
@@ -212,12 +209,6 @@
   </si>
   <si>
     <t>4,1e-753</t>
-  </si>
-  <si>
-    <t>finalmodel_InCov</t>
-  </si>
-  <si>
-    <t>Model15</t>
   </si>
   <si>
     <t>finalmodel_InCov - L² = 10160,7922</t>
@@ -1474,6 +1465,9 @@
   </si>
   <si>
     <t>3, 5, 9 (25,4%)</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -13014,10 +13008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6FEEA-7F1C-4F2D-993C-471A07D16102}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13100,8 +13094,12 @@
       <c r="R5" s="37"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
@@ -13815,160 +13813,61 @@
         <v>0.61070000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2">
-        <v>-25174.386999999999</v>
+        <v>-25151.331999999999</v>
       </c>
       <c r="D19" s="2">
-        <v>52184.947200000002</v>
+        <v>52292.525800000003</v>
       </c>
       <c r="E19" s="2">
-        <v>50802.773999999998</v>
+        <v>50794.663999999997</v>
       </c>
       <c r="F19" s="2">
-        <v>51029.773999999998</v>
+        <v>51040.663999999997</v>
       </c>
       <c r="G19" s="2">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H19" s="2">
-        <v>10160.7922</v>
+        <v>10114.682199999999</v>
       </c>
       <c r="I19" s="2">
-        <v>3031</v>
+        <v>3012</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2.8797000000000001</v>
+      </c>
+      <c r="M19" s="2">
+        <v>46.11</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2.35E-2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>46.11</v>
+      </c>
+      <c r="P19" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
       <c r="Q19" s="2">
-        <v>0.34079999999999999</v>
+        <v>0.33589999999999998</v>
       </c>
       <c r="R19" s="2">
-        <v>0.61070000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2">
-        <v>-25151.331999999999</v>
-      </c>
-      <c r="D20" s="2">
-        <v>52292.525800000003</v>
-      </c>
-      <c r="E20" s="2">
-        <v>50794.663999999997</v>
-      </c>
-      <c r="F20" s="2">
-        <v>51040.663999999997</v>
-      </c>
-      <c r="G20" s="2">
-        <v>246</v>
-      </c>
-      <c r="H20" s="2">
-        <v>10114.682199999999</v>
-      </c>
-      <c r="I20" s="2">
-        <v>3012</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="L20" s="2">
-        <v>2.8797000000000001</v>
-      </c>
-      <c r="M20" s="2">
-        <v>46.11</v>
-      </c>
-      <c r="N20" s="2">
-        <v>2.35E-2</v>
-      </c>
-      <c r="O20" s="2">
-        <v>46.11</v>
-      </c>
-      <c r="P20" s="2">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0.33589999999999998</v>
-      </c>
-      <c r="R20" s="2">
         <v>0.62929999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-25174.386999999999</v>
-      </c>
-      <c r="D21" s="2">
-        <v>52184.947200000002</v>
-      </c>
-      <c r="E21" s="2">
-        <v>50802.773999999998</v>
-      </c>
-      <c r="F21" s="2">
-        <v>51029.773999999998</v>
-      </c>
-      <c r="G21" s="2">
-        <v>227</v>
-      </c>
-      <c r="H21" s="2">
-        <v>10160.7922</v>
-      </c>
-      <c r="I21" s="2">
-        <v>3031</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2">
-        <v>3.8391000000000002</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2">
-        <v>0.34079999999999999</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0.61070000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13989,10 +13888,7 @@
     <hyperlink ref="A16" r:id="rId10" location="Mdl10v0000" display="selects1999_lcaresultsLatest.html - Mdl10v0000" xr:uid="{FE1237F9-37D5-403E-A922-217A616E7750}"/>
     <hyperlink ref="A17" r:id="rId11" location="Mdl11v0000" display="selects1999_lcaresultsLatest.html - Mdl11v0000" xr:uid="{3DDBB3E5-35A0-41F5-95B1-7BDEE6A168CE}"/>
     <hyperlink ref="A18" r:id="rId12" location="Mdl12v0000" display="selects1999_lcaresultsLatest.html - Mdl12v0000" xr:uid="{AF2AAF53-1F82-47D0-B04A-DF694C902A5D}"/>
-    <hyperlink ref="A19" r:id="rId13" location="Mdl16v0000" display="selects1999_lcaresultsLatest.html - Mdl16v0000" xr:uid="{6BBE9B50-C647-4ACA-9495-B97F5983E8C8}"/>
-    <hyperlink ref="A20" r:id="rId14" location="Mdl13v0000" display="selects1999_lcaresultsLatest.html - Mdl13v0000" xr:uid="{9A19F5A7-BA3E-49CA-89DE-FF8598A0E9AC}"/>
-    <hyperlink ref="A21" r:id="rId15" location="Mdl14v0000" display="selects1999_lcaresultsLatest.html - Mdl14v0000" xr:uid="{6EFD9165-5157-4680-85CF-E75F91814308}"/>
-    <hyperlink ref="A22" r:id="rId16" location="Mdl15v0000" display="selects1999_lcaresultsLatest.html - Mdl15v0000" xr:uid="{366F586B-AD8A-45EF-90C7-49410B04A924}"/>
+    <hyperlink ref="A19" r:id="rId13" location="Mdl13v0000" display="selects1999_lcaresultsLatest.html - Mdl13v0000" xr:uid="{9A19F5A7-BA3E-49CA-89DE-FF8598A0E9AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14010,12 +13906,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -14051,7 +13947,7 @@
     </row>
     <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2">
         <v>3258</v>
@@ -14072,7 +13968,7 @@
     </row>
     <row r="6" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2">
         <v>227</v>
@@ -14093,7 +13989,7 @@
     </row>
     <row r="7" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2">
         <v>1317174</v>
@@ -14114,7 +14010,7 @@
     </row>
     <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>456793</v>
@@ -14152,7 +14048,7 @@
     </row>
     <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -14171,7 +14067,7 @@
     </row>
     <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2">
         <v>3031</v>
@@ -14194,7 +14090,7 @@
     </row>
     <row r="12" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2">
         <v>10160.7922</v>
@@ -14217,13 +14113,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2">
         <v>154876.3173</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -14240,13 +14136,13 @@
     </row>
     <row r="14" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2">
         <v>37187.043700000002</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -14263,7 +14159,7 @@
     </row>
     <row r="15" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2">
         <v>-14356.569100000001</v>
@@ -14284,7 +14180,7 @@
     </row>
     <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2">
         <v>4098.7921999999999</v>
@@ -14305,7 +14201,7 @@
     </row>
     <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2">
         <v>1067.7922000000001</v>
@@ -14326,7 +14222,7 @@
     </row>
     <row r="18" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B18" s="2">
         <v>-17387.569100000001</v>
@@ -14347,7 +14243,7 @@
     </row>
     <row r="19" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2">
         <v>-4725.7480999999998</v>
@@ -14368,7 +14264,7 @@
     </row>
     <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2">
         <v>0.57450000000000001</v>
@@ -14389,7 +14285,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2">
         <v>22.184699999999999</v>
@@ -14427,7 +14323,7 @@
     </row>
     <row r="23" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -14446,7 +14342,7 @@
     </row>
     <row r="24" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2">
         <v>-25174.386999999999</v>
@@ -14467,7 +14363,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B25" s="2">
         <v>-15.7094</v>
@@ -14488,7 +14384,7 @@
     </row>
     <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B26" s="2">
         <v>-25190.096399999999</v>
@@ -14509,7 +14405,7 @@
     </row>
     <row r="27" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B27" s="2">
         <v>52184.947200000002</v>
@@ -14530,7 +14426,7 @@
     </row>
     <row r="28" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B28" s="2">
         <v>50802.773999999998</v>
@@ -14551,7 +14447,7 @@
     </row>
     <row r="29" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B29" s="2">
         <v>51029.773999999998</v>
@@ -14572,7 +14468,7 @@
     </row>
     <row r="30" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B30" s="2">
         <v>52411.947200000002</v>
@@ -14593,7 +14489,7 @@
     </row>
     <row r="31" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B31" s="2">
         <v>51463.668299999998</v>
@@ -14631,10 +14527,10 @@
     </row>
     <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -14652,7 +14548,7 @@
     </row>
     <row r="34" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B34" s="2">
         <v>0.34079999999999999</v>
@@ -14673,7 +14569,7 @@
     </row>
     <row r="35" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2">
         <v>0.58550000000000002</v>
@@ -14694,7 +14590,7 @@
     </row>
     <row r="36" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B36" s="2">
         <v>0.61070000000000002</v>
@@ -14715,7 +14611,7 @@
     </row>
     <row r="37" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B37" s="2">
         <v>0.47860000000000003</v>
@@ -14736,7 +14632,7 @@
     </row>
     <row r="38" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" s="2">
         <v>-28140.4899</v>
@@ -14757,7 +14653,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B39" s="2">
         <v>2966.1028999999999</v>
@@ -14778,7 +14674,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B40" s="2">
         <v>56280.979800000001</v>
@@ -14799,7 +14695,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B41" s="2">
         <v>60634.326200000003</v>
@@ -14820,7 +14716,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2">
         <v>58117.152999999998</v>
@@ -14858,10 +14754,10 @@
     </row>
     <row r="44" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -14879,52 +14775,52 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2">
         <v>352.89569999999998</v>
@@ -14969,7 +14865,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2">
         <v>18.153099999999998</v>
@@ -15014,7 +14910,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2">
         <v>40.625399999999999</v>
@@ -15059,7 +14955,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2">
         <v>44.961500000000001</v>
@@ -15104,7 +15000,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2">
         <v>8.3393999999999995</v>
@@ -15149,7 +15045,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2">
         <v>25.9849</v>
@@ -15194,7 +15090,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2">
         <v>19.0609</v>
@@ -15239,7 +15135,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2">
         <v>11.806900000000001</v>
@@ -15284,7 +15180,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2">
         <v>11.4411</v>
@@ -15329,7 +15225,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2">
         <v>13.236499999999999</v>
@@ -15374,7 +15270,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2">
         <v>7.0517000000000003</v>
@@ -15419,7 +15315,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2">
         <v>14.443</v>
@@ -15464,7 +15360,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2">
         <v>568</v>
@@ -15526,10 +15422,10 @@
     </row>
     <row r="60" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -15547,52 +15443,52 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="I61" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="J61" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="L61" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="M61" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2">
         <v>283.04860000000002</v>
@@ -15637,7 +15533,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2">
         <v>32.249200000000002</v>
@@ -15682,7 +15578,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2">
         <v>59.165700000000001</v>
@@ -15727,7 +15623,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2">
         <v>54.060699999999997</v>
@@ -15772,7 +15668,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2">
         <v>9.9763999999999999</v>
@@ -15817,7 +15713,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2">
         <v>26.046099999999999</v>
@@ -15862,7 +15758,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2">
         <v>35.516199999999998</v>
@@ -15907,7 +15803,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2">
         <v>23.261900000000001</v>
@@ -15952,7 +15848,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2">
         <v>13.443899999999999</v>
@@ -15997,7 +15893,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2">
         <v>14.141500000000001</v>
@@ -16042,7 +15938,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2">
         <v>10.5106</v>
@@ -16087,7 +15983,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2">
         <v>18.4192</v>
@@ -16132,7 +16028,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2">
         <v>579.84</v>
@@ -16194,7 +16090,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -16213,10 +16109,10 @@
     </row>
     <row r="77" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -16251,7 +16147,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -16270,7 +16166,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2">
         <v>6</v>
@@ -16291,7 +16187,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -16310,7 +16206,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B82" s="7">
         <v>1E-8</v>
@@ -16331,7 +16227,7 @@
     </row>
     <row r="83" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2">
         <v>0.01</v>
@@ -16352,7 +16248,7 @@
     </row>
     <row r="84" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2">
         <v>250</v>
@@ -16373,7 +16269,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2">
         <v>50</v>
@@ -16394,7 +16290,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -16413,7 +16309,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2">
         <v>1317174</v>
@@ -16434,7 +16330,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2">
         <v>160</v>
@@ -16455,7 +16351,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B89" s="7">
         <v>1.0000000000000001E-5</v>
@@ -16476,7 +16372,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2">
         <v>250</v>
@@ -16497,7 +16393,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -16516,7 +16412,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
@@ -16537,7 +16433,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B93" s="2">
         <v>1</v>
@@ -16558,7 +16454,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
@@ -16579,7 +16475,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2">
         <v>1</v>
@@ -16600,7 +16496,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -16619,7 +16515,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2">
         <v>10</v>
@@ -16640,10 +16536,10 @@
     </row>
     <row r="98" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -16661,7 +16557,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -16680,10 +16576,10 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -16701,10 +16597,10 @@
     </row>
     <row r="101" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -16722,10 +16618,10 @@
     </row>
     <row r="102" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -16743,7 +16639,7 @@
     </row>
     <row r="103" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B103" s="2">
         <v>3258</v>
@@ -16764,10 +16660,10 @@
     </row>
     <row r="104" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C104" s="2"/>
     </row>
@@ -16799,59 +16695,59 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="N3" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B4" s="2">
         <v>0.1779</v>
@@ -16893,7 +16789,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -16911,7 +16807,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -16929,7 +16825,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>0.23469999999999999</v>
@@ -16973,7 +16869,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B8">
         <v>0.4103</v>
@@ -17017,7 +16913,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B9">
         <v>0.35499999999999998</v>
@@ -17061,12 +16957,12 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B11">
         <v>0.65459999999999996</v>
@@ -17110,7 +17006,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B12">
         <v>0.221</v>
@@ -17154,7 +17050,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B13">
         <v>0.1244</v>
@@ -17198,12 +17094,12 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15">
         <v>0.23480000000000001</v>
@@ -17247,7 +17143,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B16">
         <v>0.2427</v>
@@ -17291,7 +17187,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B17">
         <v>0.52249999999999996</v>
@@ -17335,12 +17231,12 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B19">
         <v>0.39650000000000002</v>
@@ -17384,7 +17280,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B20">
         <v>0.31909999999999999</v>
@@ -17428,7 +17324,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B21">
         <v>0.28449999999999998</v>
@@ -17472,12 +17368,12 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B23">
         <v>0.5161</v>
@@ -17521,7 +17417,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B24">
         <v>8.6300000000000002E-2</v>
@@ -17565,7 +17461,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B25">
         <v>0.39760000000000001</v>
@@ -17609,12 +17505,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B27">
         <v>0.4889</v>
@@ -17658,7 +17554,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B28">
         <v>0.1265</v>
@@ -17702,7 +17598,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B29">
         <v>0.3846</v>
@@ -17746,12 +17642,12 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B31">
         <v>0.71709999999999996</v>
@@ -17795,7 +17691,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B32">
         <v>9.5399999999999999E-2</v>
@@ -17839,7 +17735,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B33">
         <v>0.1875</v>
@@ -17883,12 +17779,12 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B35">
         <v>0.52190000000000003</v>
@@ -17932,7 +17828,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B36">
         <v>0.39989999999999998</v>
@@ -17976,7 +17872,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B37">
         <v>7.8200000000000006E-2</v>
@@ -18020,12 +17916,12 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B39">
         <v>4.0000000000000002E-4</v>
@@ -18069,7 +17965,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B40">
         <v>5.5899999999999998E-2</v>
@@ -18113,7 +18009,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B41">
         <v>0.94369999999999998</v>
@@ -18157,7 +18053,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -18175,7 +18071,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -18193,7 +18089,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B44" s="2">
         <v>0.17380000000000001</v>
@@ -18237,7 +18133,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B45" s="2">
         <v>0.19500000000000001</v>
@@ -18281,7 +18177,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B46" s="2">
         <v>0.19089999999999999</v>
@@ -18325,7 +18221,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B47" s="2">
         <v>0.22670000000000001</v>
@@ -18369,7 +18265,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B48" s="2">
         <v>0.21360000000000001</v>
@@ -18413,7 +18309,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B49" s="2">
         <v>49.9328</v>
@@ -18457,7 +18353,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -18475,7 +18371,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B51" s="2">
         <v>0.41199999999999998</v>
@@ -18519,7 +18415,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B52" s="2">
         <v>0.58799999999999997</v>
@@ -18563,7 +18459,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -18801,7 +18697,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B59" s="2">
         <v>0.15720000000000001</v>
@@ -18845,7 +18741,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B60" s="2">
         <v>5.3536999999999999</v>
@@ -18889,7 +18785,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -18907,7 +18803,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B62" s="2">
         <v>8.4699999999999998E-2</v>
@@ -18951,7 +18847,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B63" s="2">
         <v>0.1699</v>
@@ -18995,7 +18891,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B64" s="2">
         <v>0.3664</v>
@@ -19039,7 +18935,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B65" s="2">
         <v>0.22550000000000001</v>
@@ -19083,7 +18979,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B66" s="2">
         <v>9.2499999999999999E-2</v>
@@ -19127,7 +19023,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B67" s="2">
         <v>6.0999999999999999E-2</v>
@@ -19171,7 +19067,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -19189,7 +19085,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B69" s="2">
         <v>0.57820000000000005</v>
@@ -19233,7 +19129,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B70" s="2">
         <v>0.29480000000000001</v>
@@ -19277,7 +19173,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B71" s="2">
         <v>0.1138</v>
@@ -19321,7 +19217,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B72" s="2">
         <v>1.32E-2</v>
@@ -19365,7 +19261,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -19383,7 +19279,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B74" s="2">
         <v>0.15540000000000001</v>
@@ -19427,7 +19323,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B75" s="2">
         <v>4.0800000000000003E-2</v>
@@ -19471,7 +19367,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B76" s="2">
         <v>0.41610000000000003</v>
@@ -19515,7 +19411,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B77" s="2">
         <v>0.13020000000000001</v>
@@ -19559,7 +19455,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B78" s="2">
         <v>5.96E-2</v>
@@ -19603,7 +19499,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B79" s="2">
         <v>8.14E-2</v>
@@ -19647,7 +19543,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B80" s="2">
         <v>4.0300000000000002E-2</v>
@@ -19691,7 +19587,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B81" s="2">
         <v>6.88E-2</v>
@@ -19735,7 +19631,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B82" s="2">
         <v>7.3000000000000001E-3</v>
@@ -19779,7 +19675,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -19797,7 +19693,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B84" s="2">
         <v>0.42299999999999999</v>
@@ -19841,7 +19737,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B85" s="2">
         <v>0.3664</v>
@@ -19885,7 +19781,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B86" s="2">
         <v>0.14030000000000001</v>
@@ -19929,7 +19825,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B87" s="2">
         <v>7.0300000000000001E-2</v>
@@ -19973,7 +19869,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -19991,7 +19887,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B89" s="2">
         <v>0.43459999999999999</v>
@@ -20035,7 +19931,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B90" s="2">
         <v>0.32879999999999998</v>
@@ -20079,7 +19975,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B91" s="2">
         <v>0.13300000000000001</v>
@@ -20123,7 +20019,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B92" s="2">
         <v>0.1036</v>
@@ -20167,7 +20063,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -20185,7 +20081,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B94" s="2">
         <v>1.5100000000000001E-2</v>
@@ -20229,7 +20125,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B95" s="2">
         <v>1.83E-2</v>
@@ -20273,7 +20169,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B96" s="2">
         <v>0.1069</v>
@@ -20317,7 +20213,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B97" s="2">
         <v>0.154</v>
@@ -20361,7 +20257,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B98" s="2">
         <v>0.1171</v>
@@ -20405,7 +20301,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B99" s="2">
         <v>3.8699999999999998E-2</v>
@@ -20449,7 +20345,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B100" s="2">
         <v>7.5499999999999998E-2</v>
@@ -20493,7 +20389,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B101" s="2">
         <v>7.0499999999999993E-2</v>
@@ -20537,7 +20433,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B102" s="2">
         <v>0.2167</v>
@@ -20581,7 +20477,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B103" s="2">
         <v>0.11409999999999999</v>
@@ -20625,7 +20521,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B104" s="2">
         <v>7.3099999999999998E-2</v>
@@ -20669,7 +20565,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -20687,7 +20583,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B106" s="2">
         <v>0.1193</v>
@@ -20731,7 +20627,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B107" s="2">
         <v>0.48530000000000001</v>
@@ -20775,7 +20671,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B108" s="2">
         <v>0.26650000000000001</v>
@@ -20819,7 +20715,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B109" s="2">
         <v>0.1275</v>
@@ -20863,7 +20759,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B110" s="2">
         <v>1.2999999999999999E-3</v>
@@ -20907,7 +20803,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B111" s="2">
         <v>2.4026999999999998</v>
@@ -20951,7 +20847,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -20969,7 +20865,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B113" s="2">
         <v>0.57279999999999998</v>
@@ -21013,7 +20909,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B114" s="2">
         <v>0.27079999999999999</v>
@@ -21057,7 +20953,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B115" s="2">
         <v>2.8299999999999999E-2</v>
@@ -21101,7 +20997,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B116" s="2">
         <v>0.128</v>
@@ -21145,7 +21041,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -21163,7 +21059,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B118" s="2">
         <v>0.15809999999999999</v>
@@ -21207,7 +21103,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B119" s="2">
         <v>0.1084</v>
@@ -21251,7 +21147,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B120" s="2">
         <v>0.20899999999999999</v>
@@ -21295,7 +21191,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B121" s="2">
         <v>0.1482</v>
@@ -21339,7 +21235,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B122" s="2">
         <v>2.46E-2</v>
@@ -21383,7 +21279,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B123" s="2">
         <v>5.7999999999999996E-3</v>
@@ -21427,7 +21323,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B124" s="2">
         <v>1.38E-2</v>
@@ -21471,7 +21367,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B125" s="2">
         <v>1.5E-3</v>
@@ -21515,7 +21411,7 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B126" s="2">
         <v>6.1000000000000004E-3</v>
@@ -21559,7 +21455,7 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B127" s="2">
         <v>1E-4</v>
@@ -21603,7 +21499,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B128" s="2">
         <v>6.1999999999999998E-3</v>
@@ -21647,7 +21543,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B129" s="2">
         <v>3.0599999999999999E-2</v>
@@ -21691,7 +21587,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B130" s="2">
         <v>2.7000000000000001E-3</v>
@@ -21735,7 +21631,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B131" s="2">
         <v>5.4000000000000003E-3</v>
@@ -21779,7 +21675,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B132" s="2">
         <v>1.4E-3</v>
@@ -21823,7 +21719,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B133" s="2">
         <v>2.3800000000000002E-2</v>
@@ -21867,7 +21763,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B134" s="2">
         <v>3.5999999999999999E-3</v>
@@ -21911,7 +21807,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B135" s="2">
         <v>6.3E-3</v>
@@ -21955,7 +21851,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B136" s="2">
         <v>4.0000000000000001E-3</v>
@@ -21999,7 +21895,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B137" s="2">
         <v>3.0000000000000001E-3</v>
@@ -22043,7 +21939,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B138" s="2">
         <v>0.23749999999999999</v>
@@ -22087,7 +21983,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -22105,7 +22001,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B140" s="2">
         <v>0.16</v>
@@ -22149,7 +22045,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B141" s="2">
         <v>0.23419999999999999</v>
@@ -22193,7 +22089,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B142" s="2">
         <v>0.11210000000000001</v>
@@ -22237,7 +22133,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B143" s="2">
         <v>3.7999999999999999E-2</v>
@@ -22281,7 +22177,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B144" s="2">
         <v>6.5000000000000002E-2</v>
@@ -22325,7 +22221,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B145" s="2">
         <v>6.2100000000000002E-2</v>
@@ -22369,7 +22265,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B146" s="2">
         <v>1.04E-2</v>
@@ -22413,7 +22309,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B147" s="2">
         <v>4.2500000000000003E-2</v>
@@ -22457,7 +22353,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B148" s="2">
         <v>4.0000000000000001E-3</v>
@@ -22501,7 +22397,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B149" s="2">
         <v>1.38E-2</v>
@@ -22545,7 +22441,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B150" s="2">
         <v>2.0999999999999999E-3</v>
@@ -22589,7 +22485,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B151" s="2">
         <v>1.5299999999999999E-2</v>
@@ -22633,7 +22529,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B152" s="2">
         <v>1.4200000000000001E-2</v>
@@ -22677,7 +22573,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B153" s="2">
         <v>1.47E-2</v>
@@ -22721,7 +22617,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B154" s="2">
         <v>2.86E-2</v>
@@ -22765,7 +22661,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B155" s="2">
         <v>1.29E-2</v>
@@ -22809,7 +22705,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B156" s="2">
         <v>1.4E-3</v>
@@ -22853,7 +22749,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B157" s="2">
         <v>2.9999999999999997E-4</v>
@@ -22897,7 +22793,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B158" s="2">
         <v>3.3099999999999997E-2</v>
@@ -22941,7 +22837,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B159" s="2">
         <v>7.0000000000000001E-3</v>
@@ -22985,7 +22881,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B160" s="2">
         <v>8.8000000000000005E-3</v>
@@ -23029,7 +22925,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B161" s="2">
         <v>2.8999999999999998E-3</v>
@@ -23073,7 +22969,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B162" s="2">
         <v>2.0500000000000001E-2</v>
@@ -23117,7 +23013,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B163" s="2">
         <v>4.3E-3</v>
@@ -23161,7 +23057,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B164" s="2">
         <v>6.1999999999999998E-3</v>
@@ -23205,7 +23101,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B165" s="2">
         <v>1.6000000000000001E-3</v>
@@ -23249,7 +23145,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B166" s="2">
         <v>1.32E-2</v>
@@ -23293,7 +23189,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B167" s="2">
         <v>2.0999999999999999E-3</v>
@@ -23337,7 +23233,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B168" s="2">
         <v>3.0999999999999999E-3</v>
@@ -23381,7 +23277,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B169" s="2">
         <v>2.0000000000000001E-4</v>
@@ -23425,7 +23321,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B170" s="2">
         <v>2.0000000000000001E-4</v>
@@ -23469,7 +23365,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B171" s="2">
         <v>8.0000000000000004E-4</v>
@@ -23513,7 +23409,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B172" s="2">
         <v>1.4E-3</v>
@@ -23557,7 +23453,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B173" s="2">
         <v>2.0000000000000001E-4</v>
@@ -23601,7 +23497,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B174" s="2">
         <v>1.6500000000000001E-2</v>
@@ -23645,7 +23541,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B175" s="2">
         <v>4.0000000000000002E-4</v>
@@ -23689,7 +23585,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B176" s="2">
         <v>8.0000000000000004E-4</v>
@@ -23733,7 +23629,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B177" s="2">
         <v>4.48E-2</v>
@@ -23777,7 +23673,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -23795,7 +23691,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B179" s="2">
         <v>0.18010000000000001</v>
@@ -24015,7 +23911,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B184" s="2">
         <v>3.0700000000000002E-2</v>
@@ -24059,7 +23955,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B185" s="2">
         <v>6.1167999999999996</v>
@@ -24103,7 +23999,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -24121,7 +24017,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B187" s="2">
         <v>0.18379999999999999</v>
@@ -24341,7 +24237,7 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B192" s="2">
         <v>5.3999999999999999E-2</v>
@@ -24385,7 +24281,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B193" s="2">
         <v>5.7626999999999997</v>
@@ -24429,7 +24325,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -24447,7 +24343,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B195" s="2">
         <v>0.1668</v>
@@ -24667,7 +24563,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B200" s="2">
         <v>7.22E-2</v>
@@ -24711,7 +24607,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B201" s="2">
         <v>5.1933999999999996</v>
@@ -24755,7 +24651,7 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -24773,7 +24669,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B203" s="2">
         <v>0.1744</v>
@@ -24993,7 +24889,7 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B208" s="2">
         <v>3.8800000000000001E-2</v>
@@ -25037,7 +24933,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B209" s="2">
         <v>5.9889999999999999</v>
@@ -25081,7 +24977,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -25099,7 +24995,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B211" s="2">
         <v>0.16300000000000001</v>
@@ -25319,7 +25215,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B216" s="2">
         <v>4.0800000000000003E-2</v>
@@ -25363,7 +25259,7 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B217" s="2">
         <v>6.3963999999999999</v>
@@ -25407,7 +25303,7 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -25425,7 +25321,7 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B219" s="2">
         <v>7.2999999999999995E-2</v>
@@ -25469,7 +25365,7 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B220" s="2">
         <v>0.69269999999999998</v>
@@ -25513,7 +25409,7 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B221" s="2">
         <v>0.18360000000000001</v>
@@ -25557,7 +25453,7 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B222" s="2">
         <v>0.04</v>
@@ -25601,7 +25497,7 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B223" s="2">
         <v>1.0800000000000001E-2</v>
@@ -25645,7 +25541,7 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B224" s="2">
         <v>2.1926999999999999</v>
@@ -25689,7 +25585,7 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -25707,7 +25603,7 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B226" s="2">
         <v>0.17860000000000001</v>
@@ -25927,7 +25823,7 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B231" s="2">
         <v>0.14219999999999999</v>
@@ -25971,7 +25867,7 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B232" s="2">
         <v>5.4062999999999999</v>
@@ -26015,7 +25911,7 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -26033,7 +25929,7 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B234" s="2">
         <v>0.14130000000000001</v>
@@ -26253,7 +26149,7 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B239" s="2">
         <v>0.13589999999999999</v>
@@ -26297,7 +26193,7 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B240" s="2">
         <v>4.9305000000000003</v>
@@ -26341,7 +26237,7 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -26359,7 +26255,7 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B242" s="2">
         <v>0.12379999999999999</v>
@@ -26579,7 +26475,7 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B247" s="2">
         <v>0.11</v>
@@ -26623,7 +26519,7 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B248" s="2">
         <v>5.5026999999999999</v>
@@ -26667,7 +26563,7 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -26685,7 +26581,7 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B250" s="2">
         <v>0.187</v>
@@ -26905,7 +26801,7 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B255" s="2">
         <v>0.1336</v>
@@ -26949,7 +26845,7 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B256" s="2">
         <v>4.1048999999999998</v>
@@ -26993,7 +26889,7 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -27011,7 +26907,7 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B258" s="2">
         <v>0.15229999999999999</v>
@@ -27231,7 +27127,7 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B263" s="2">
         <v>0.11119999999999999</v>
@@ -27275,7 +27171,7 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B264" s="2">
         <v>4.5274999999999999</v>
@@ -27319,7 +27215,7 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -27337,7 +27233,7 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B266" s="2">
         <v>3.5900000000000001E-2</v>
@@ -27381,7 +27277,7 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B267" s="2">
         <v>0.44400000000000001</v>
@@ -27425,7 +27321,7 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B268" s="2">
         <v>0.40749999999999997</v>
@@ -27469,7 +27365,7 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B269" s="2">
         <v>9.0899999999999995E-2</v>
@@ -27513,7 +27409,7 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B270" s="2">
         <v>1.38E-2</v>
@@ -27557,7 +27453,7 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B271" s="2">
         <v>8.0999999999999996E-3</v>
@@ -27601,7 +27497,7 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B272" s="2">
         <v>2.5994999999999999</v>
@@ -27645,7 +27541,7 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -27663,7 +27559,7 @@
     </row>
     <row r="274" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B274" s="2">
         <v>0.1032</v>
@@ -27839,7 +27735,7 @@
     </row>
     <row r="278" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B278" s="2">
         <v>0.14030000000000001</v>
@@ -27883,7 +27779,7 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B279" s="2">
         <v>3.8100000000000002E-2</v>
@@ -27927,7 +27823,7 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -27945,7 +27841,7 @@
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B281" s="2">
         <v>0.1618</v>
@@ -28165,7 +28061,7 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B286" s="2">
         <v>0.1094</v>
@@ -28209,7 +28105,7 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B287" s="2">
         <v>5.1147</v>
@@ -28253,7 +28149,7 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -28271,7 +28167,7 @@
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B289" s="2">
         <v>0.28820000000000001</v>
@@ -28315,7 +28211,7 @@
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B290" s="2">
         <v>0.56859999999999999</v>
@@ -28359,7 +28255,7 @@
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B291" s="2">
         <v>9.6799999999999997E-2</v>
@@ -28403,7 +28299,7 @@
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B292" s="2">
         <v>2.53E-2</v>
@@ -28447,7 +28343,7 @@
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B293" s="2">
         <v>2.12E-2</v>
@@ -28491,7 +28387,7 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A294" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -28509,7 +28405,7 @@
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B295" s="2">
         <v>0.21460000000000001</v>
@@ -28553,7 +28449,7 @@
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B296" s="2">
         <v>0.15160000000000001</v>
@@ -28597,7 +28493,7 @@
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B297" s="2">
         <v>0.14399999999999999</v>
@@ -28641,7 +28537,7 @@
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B298" s="2">
         <v>0.46489999999999998</v>
@@ -28685,7 +28581,7 @@
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B299" s="2">
         <v>2.4799999999999999E-2</v>
@@ -28729,7 +28625,7 @@
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -28747,7 +28643,7 @@
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B301" s="2">
         <v>0.54749999999999999</v>
@@ -28791,7 +28687,7 @@
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B302" s="2">
         <v>0.30020000000000002</v>
@@ -28835,7 +28731,7 @@
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B303" s="2">
         <v>3.9E-2</v>
@@ -28879,7 +28775,7 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B304" s="2">
         <v>0.10730000000000001</v>
@@ -28923,7 +28819,7 @@
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B305" s="2">
         <v>5.8999999999999999E-3</v>
@@ -28967,7 +28863,7 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A306" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -28985,7 +28881,7 @@
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B307" s="2">
         <v>0.21010000000000001</v>
@@ -29161,7 +29057,7 @@
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B311" s="2">
         <v>0.01</v>
@@ -29205,7 +29101,7 @@
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B312" s="2">
         <v>1.7849999999999999</v>
@@ -29249,7 +29145,7 @@
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A313" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -29267,7 +29163,7 @@
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A314" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B314" s="2">
         <v>0.15040000000000001</v>
@@ -29311,7 +29207,7 @@
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A315" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B315" s="2">
         <v>0.84750000000000003</v>
@@ -29355,7 +29251,7 @@
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B316" s="2">
         <v>2.0999999999999999E-3</v>
@@ -29399,7 +29295,7 @@
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A317" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -29417,7 +29313,7 @@
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A318" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B318" s="2">
         <v>0.39939999999999998</v>
@@ -29461,7 +29357,7 @@
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B319" s="2">
         <v>0.16239999999999999</v>
@@ -29505,7 +29401,7 @@
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B320" s="2">
         <v>3.1E-2</v>
@@ -29549,7 +29445,7 @@
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A321" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B321" s="2">
         <v>4.7999999999999996E-3</v>
@@ -29593,7 +29489,7 @@
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B322" s="2">
         <v>0.1245</v>
@@ -29637,7 +29533,7 @@
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B323" s="2">
         <v>0.21049999999999999</v>
@@ -29681,7 +29577,7 @@
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B324" s="2">
         <v>4.6800000000000001E-2</v>
@@ -29725,7 +29621,7 @@
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B325" s="2">
         <v>1.0200000000000001E-2</v>
@@ -29769,7 +29665,7 @@
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B326" s="2">
         <v>7.4999999999999997E-3</v>
@@ -29813,7 +29709,7 @@
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B327" s="2">
         <v>2.8999999999999998E-3</v>
@@ -29857,7 +29753,7 @@
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A328" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -29875,7 +29771,7 @@
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B329" s="2">
         <v>0.26500000000000001</v>
@@ -29919,7 +29815,7 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B330" s="2">
         <v>0.19040000000000001</v>
@@ -29963,7 +29859,7 @@
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B331" s="2">
         <v>0.1036</v>
@@ -30007,7 +29903,7 @@
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B332" s="2">
         <v>0.441</v>
@@ -30051,7 +29947,7 @@
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A333" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -30069,7 +29965,7 @@
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B334" s="2">
         <v>0.51019999999999999</v>
@@ -30113,7 +30009,7 @@
     </row>
     <row r="335" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B335" s="2">
         <v>0.29730000000000001</v>
@@ -30157,7 +30053,7 @@
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B336" s="2">
         <v>0.1925</v>
@@ -30201,7 +30097,7 @@
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A337" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -30219,7 +30115,7 @@
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B338" s="2">
         <v>0.51700000000000002</v>
@@ -30263,7 +30159,7 @@
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B339" s="2">
         <v>0.2445</v>
@@ -30307,7 +30203,7 @@
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A340" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B340" s="2">
         <v>0.23849999999999999</v>
@@ -30351,7 +30247,7 @@
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A341" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -30545,7 +30441,7 @@
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A346" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B346" s="2">
         <v>3.3729</v>
@@ -30589,7 +30485,7 @@
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A347" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -30607,7 +30503,7 @@
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B348" s="2">
         <v>0.12709999999999999</v>
@@ -30651,7 +30547,7 @@
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A349" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B349" s="2">
         <v>9.3399999999999997E-2</v>
@@ -30695,7 +30591,7 @@
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A350" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B350" s="2">
         <v>4.6199999999999998E-2</v>
@@ -30739,7 +30635,7 @@
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A351" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B351" s="2">
         <v>6.1999999999999998E-3</v>
@@ -30783,7 +30679,7 @@
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A352" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B352" s="2">
         <v>5.74E-2</v>
@@ -30827,7 +30723,7 @@
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A353" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B353" s="2">
         <v>1.06E-2</v>
@@ -30871,7 +30767,7 @@
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B354" s="2">
         <v>8.9999999999999993E-3</v>
@@ -30915,7 +30811,7 @@
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B355" s="2">
         <v>1.2500000000000001E-2</v>
@@ -30959,7 +30855,7 @@
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B356" s="2">
         <v>9.2999999999999999E-2</v>
@@ -31003,7 +30899,7 @@
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B357" s="2">
         <v>9.1800000000000007E-2</v>
@@ -31047,7 +30943,7 @@
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B358" s="2">
         <v>2.8799999999999999E-2</v>
@@ -31091,7 +30987,7 @@
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B359" s="2">
         <v>7.7600000000000002E-2</v>
@@ -31135,7 +31031,7 @@
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B360" s="2">
         <v>4.7100000000000003E-2</v>
@@ -31179,7 +31075,7 @@
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B361" s="2">
         <v>0.11849999999999999</v>
@@ -31223,7 +31119,7 @@
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B362" s="2">
         <v>2.5899999999999999E-2</v>
@@ -31267,7 +31163,7 @@
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A363" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B363" s="2">
         <v>2.8199999999999999E-2</v>
@@ -31311,7 +31207,7 @@
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A364" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B364" s="2">
         <v>4.4299999999999999E-2</v>
@@ -31355,7 +31251,7 @@
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A365" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B365" s="2">
         <v>2.46E-2</v>
@@ -31399,7 +31295,7 @@
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A366" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B366" s="2">
         <v>2.93E-2</v>
@@ -31443,7 +31339,7 @@
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A367" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B367" s="2">
         <v>1.7600000000000001E-2</v>
@@ -31487,7 +31383,7 @@
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B368" s="2">
         <v>7.4000000000000003E-3</v>
@@ -31531,7 +31427,7 @@
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A369" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B369" s="2">
         <v>3.3999999999999998E-3</v>
@@ -31575,7 +31471,7 @@
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A370" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -31593,7 +31489,7 @@
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A371" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B371" s="2">
         <v>0.76639999999999997</v>
@@ -31637,7 +31533,7 @@
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A372" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B372" s="2">
         <v>0.2336</v>
@@ -31701,12 +31597,12 @@
   <sheetData>
     <row r="1" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -31739,90 +31635,90 @@
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="O4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="L4" s="18" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="S4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="U4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="W4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="Y4" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -31854,7 +31750,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B6" s="2">
         <v>-0.3503</v>
@@ -31940,7 +31836,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B7" s="2">
         <v>0.14410000000000001</v>
@@ -32020,7 +31916,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B8" s="2">
         <v>0.20619999999999999</v>
@@ -32100,7 +31996,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -32132,7 +32028,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B10" s="2">
         <v>9.4000000000000004E-3</v>
@@ -32218,7 +32114,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B11" s="2">
         <v>2.3400000000000001E-2</v>
@@ -32298,7 +32194,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2">
         <v>-3.2800000000000003E-2</v>
@@ -32378,7 +32274,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -32410,7 +32306,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2">
         <v>-0.1101</v>
@@ -32496,7 +32392,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B15" s="2">
         <v>8.7499999999999994E-2</v>
@@ -32576,7 +32472,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2">
         <v>2.2599999999999999E-2</v>
@@ -32656,7 +32552,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -32688,7 +32584,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B18" s="2">
         <v>-0.182</v>
@@ -32774,7 +32670,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2">
         <v>7.4999999999999997E-2</v>
@@ -32854,7 +32750,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2">
         <v>0.107</v>
@@ -32934,7 +32830,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -32966,7 +32862,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2">
         <v>-0.15559999999999999</v>
@@ -33052,7 +32948,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B23" s="2">
         <v>-0.52239999999999998</v>
@@ -33132,7 +33028,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2">
         <v>0.67800000000000005</v>
@@ -33212,7 +33108,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -33244,7 +33140,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B26" s="2">
         <v>-4.9700000000000001E-2</v>
@@ -33330,7 +33226,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2">
         <v>0.44519999999999998</v>
@@ -33410,7 +33306,7 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B28" s="2">
         <v>-0.39550000000000002</v>
@@ -33490,7 +33386,7 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -33522,7 +33418,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B30" s="2">
         <v>5.57E-2</v>
@@ -33608,7 +33504,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B31" s="2">
         <v>-0.21279999999999999</v>
@@ -33688,7 +33584,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B32" s="2">
         <v>0.15709999999999999</v>
@@ -33768,7 +33664,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -33800,7 +33696,7 @@
     </row>
     <row r="34" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2">
         <v>-0.1106</v>
@@ -33886,7 +33782,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B35" s="2">
         <v>0.25990000000000002</v>
@@ -33966,7 +33862,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B36" s="2">
         <v>-0.1492</v>
@@ -34046,7 +33942,7 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -34078,7 +33974,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B38" s="2">
         <v>-3.8216999999999999</v>
@@ -34164,7 +34060,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B39" s="2">
         <v>1.5739000000000001</v>
@@ -34244,7 +34140,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B40" s="2">
         <v>2.2477999999999998</v>
@@ -34342,7 +34238,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -34358,16 +34254,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -34676,7 +34572,7 @@
     <row r="16" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -34692,16 +34588,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -35007,7 +34903,7 @@
     <row r="31" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
@@ -35023,16 +34919,16 @@
     </row>
     <row r="32" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -35338,7 +35234,7 @@
     <row r="46" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="36" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
@@ -35354,16 +35250,16 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -35669,7 +35565,7 @@
     <row r="61" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="B61" s="36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
@@ -35685,16 +35581,16 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -36000,7 +35896,7 @@
     <row r="76" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C76" s="36"/>
       <c r="D76" s="36"/>
@@ -36016,16 +35912,16 @@
     </row>
     <row r="77" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -36331,7 +36227,7 @@
     <row r="91" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
       <c r="B91" s="36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C91" s="36"/>
       <c r="D91" s="36"/>
@@ -36347,16 +36243,16 @@
     </row>
     <row r="92" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -36662,7 +36558,7 @@
     <row r="106" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
       <c r="B106" s="36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C106" s="36"/>
       <c r="D106" s="36"/>
@@ -36678,16 +36574,16 @@
     </row>
     <row r="107" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -36993,7 +36889,7 @@
     <row r="121" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4"/>
       <c r="B121" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C121" s="36"/>
       <c r="D121" s="36"/>
@@ -37009,16 +36905,16 @@
     </row>
     <row r="122" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -37308,6 +37204,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B91:M91"/>
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="B106:M106"/>
+    <mergeCell ref="A120:M120"/>
+    <mergeCell ref="B121:M121"/>
     <mergeCell ref="A90:M90"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A15:M15"/>
@@ -37320,11 +37221,6 @@
     <mergeCell ref="B61:M61"/>
     <mergeCell ref="A75:M75"/>
     <mergeCell ref="B76:M76"/>
-    <mergeCell ref="B91:M91"/>
-    <mergeCell ref="A105:M105"/>
-    <mergeCell ref="B106:M106"/>
-    <mergeCell ref="A120:M120"/>
-    <mergeCell ref="B121:M121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37346,30 +37242,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" s="21">
         <v>-2.7099999999999999E-2</v>
@@ -37413,7 +37309,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B4" s="26">
         <v>3.1214</v>
@@ -37457,7 +37353,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" s="25">
         <v>0.26440000000000002</v>
@@ -37501,7 +37397,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B8" s="25">
         <v>0.32719999999999999</v>
@@ -37545,7 +37441,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="21">
         <v>-0.13589999999999999</v>
@@ -37589,7 +37485,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B12" s="25">
         <v>0.2601</v>
@@ -37633,7 +37529,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B14" s="21">
         <v>-1.6914</v>
@@ -37677,7 +37573,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B16" s="26">
         <v>2.2132999999999998</v>
@@ -37721,7 +37617,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B18" s="22">
         <v>-2.8885000000000001</v>
@@ -37765,7 +37661,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B20" s="21">
         <v>-1.8303</v>
@@ -37809,7 +37705,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B22" s="21">
         <v>-0.52980000000000005</v>
@@ -37853,7 +37749,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B24" s="26">
         <v>0.91669999999999996</v>
@@ -37897,11 +37793,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -37909,6 +37800,11 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37930,16 +37826,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -37947,13 +37843,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
@@ -37961,13 +37857,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -37975,13 +37871,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="116" x14ac:dyDescent="0.35">
@@ -37989,13 +37885,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
@@ -38003,13 +37899,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -38017,13 +37913,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
@@ -38031,13 +37927,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="116" x14ac:dyDescent="0.35">
@@ -38045,13 +37941,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
@@ -38059,13 +37955,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -38073,13 +37969,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -38087,13 +37983,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
@@ -38101,13 +37997,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -38119,7 +38015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4488E5F7-017A-4AF3-89B8-C4EE09303AAF}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -38132,43 +38028,43 @@
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="39" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="42" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="32" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="40"/>
       <c r="B4" s="29" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="33"/>
@@ -38177,31 +38073,31 @@
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="41"/>
       <c r="B5" s="30" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="32" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="40"/>
       <c r="B7" s="29" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="33"/>
@@ -38210,20 +38106,20 @@
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41"/>
       <c r="B8" s="30" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="34" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>431</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>434</v>
       </c>
       <c r="C9" s="31">
         <v>10</v>
@@ -38234,7 +38130,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
       <c r="B10" s="29" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="33"/>
@@ -38244,7 +38140,7 @@
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41"/>
       <c r="B11" s="30" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="34"/>
@@ -38252,10 +38148,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32"/>
@@ -38264,10 +38160,10 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
       <c r="B13" s="29" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D13" s="33">
         <v>7</v>
@@ -38277,7 +38173,7 @@
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41"/>
       <c r="B14" s="30" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="34"/>
@@ -38285,10 +38181,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="32">
@@ -38299,7 +38195,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="40"/>
       <c r="B16" s="29" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="33">
@@ -38310,7 +38206,7 @@
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="41"/>
       <c r="B17" s="30" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="34"/>

--- a/lca estimations/selects1999_lcaresults.xlsx
+++ b/lca estimations/selects1999_lcaresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\OneDrive\Bureau\master-thesis\lca estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3664B3BF-C167-4B89-AFC8-1D5F92AFA870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CD34E1-2C6A-4C0E-B79E-0B3668B7AF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="14140" windowHeight="11370" firstSheet="2" activeTab="2" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -13010,7 +13010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6FEEA-7F1C-4F2D-993C-471A07D16102}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+    <sheetView zoomScale="71" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -16680,10 +16680,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA7F9F8-281B-4B85-B195-B5DD0C70CF99}">
   <dimension ref="A1:N372"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="A372" sqref="A372"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16833,13 +16833,13 @@
       <c r="C7">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="12">
         <v>0.64990000000000003</v>
       </c>
       <c r="E7">
         <v>0.2409</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="12">
         <v>0.55869999999999997</v>
       </c>
       <c r="G7">
@@ -16871,7 +16871,7 @@
       <c r="A8" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="12">
         <v>0.4103</v>
       </c>
       <c r="C8">
@@ -16915,16 +16915,16 @@
       <c r="A9" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="12">
         <v>0.35499999999999998</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="12">
         <v>0.80710000000000004</v>
       </c>
       <c r="D9">
         <v>0.30499999999999999</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="12">
         <v>0.65849999999999997</v>
       </c>
       <c r="F9">
@@ -16964,25 +16964,25 @@
       <c r="A11" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="12">
         <v>0.65459999999999996</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="12">
         <v>0.94679999999999997</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="12">
         <v>0.69350000000000001</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="12">
         <v>0.79010000000000002</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="12">
         <v>0.67459999999999998</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="12">
         <v>0.52939999999999998</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="12">
         <v>0.72230000000000005</v>
       </c>
       <c r="I11">
@@ -17023,7 +17023,7 @@
       <c r="F12">
         <v>0.15459999999999999</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="12">
         <v>0.40079999999999999</v>
       </c>
       <c r="H12">
@@ -17104,7 +17104,7 @@
       <c r="B15">
         <v>0.23480000000000001</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="12">
         <v>0.53920000000000001</v>
       </c>
       <c r="D15">
@@ -17189,25 +17189,25 @@
       <c r="A17" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="12">
         <v>0.52249999999999996</v>
       </c>
       <c r="C17">
         <v>0.33029999999999998</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="12">
         <v>0.54510000000000003</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="12">
         <v>0.75619999999999998</v>
       </c>
       <c r="G17">
         <v>0.44900000000000001</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="12">
         <v>0.44369999999999998</v>
       </c>
       <c r="I17">
@@ -17238,25 +17238,25 @@
       <c r="A19" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="12">
         <v>0.39650000000000002</v>
       </c>
       <c r="C19">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="12">
         <v>0.63180000000000003</v>
       </c>
       <c r="E19">
         <v>0.42849999999999999</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="12">
         <v>0.88759999999999994</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="12">
         <v>0.54139999999999999</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="12">
         <v>0.76570000000000005</v>
       </c>
       <c r="I19">
@@ -17329,13 +17329,13 @@
       <c r="B21">
         <v>0.28449999999999998</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="12">
         <v>0.88390000000000002</v>
       </c>
       <c r="D21">
         <v>0.29310000000000003</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="12">
         <v>0.4627</v>
       </c>
       <c r="F21">
@@ -17375,22 +17375,22 @@
       <c r="A23" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="12">
         <v>0.5161</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="12">
         <v>0.91110000000000002</v>
       </c>
       <c r="D23">
         <v>0.23380000000000001</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="12">
         <v>0.92920000000000003</v>
       </c>
       <c r="F23">
         <v>0.36359999999999998</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="12">
         <v>0.87090000000000001</v>
       </c>
       <c r="H23">
@@ -17469,19 +17469,19 @@
       <c r="C25">
         <v>6.8500000000000005E-2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="12">
         <v>0.73209999999999997</v>
       </c>
       <c r="E25">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="12">
         <v>0.61980000000000002</v>
       </c>
       <c r="G25">
         <v>1.4E-3</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="12">
         <v>0.72719999999999996</v>
       </c>
       <c r="I25">
@@ -17512,22 +17512,22 @@
       <c r="A27" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="12">
         <v>0.4889</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="12">
         <v>0.96779999999999999</v>
       </c>
       <c r="D27">
         <v>0.23519999999999999</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="12">
         <v>0.46820000000000001</v>
       </c>
       <c r="F27">
         <v>0.26290000000000002</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="12">
         <v>0.49619999999999997</v>
       </c>
       <c r="H27">
@@ -17606,19 +17606,19 @@
       <c r="C29">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="12">
         <v>0.76449999999999996</v>
       </c>
       <c r="E29">
         <v>0.4118</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="12">
         <v>0.7369</v>
       </c>
       <c r="G29">
         <v>0.33450000000000002</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="12">
         <v>0.84770000000000001</v>
       </c>
       <c r="I29">
@@ -17649,25 +17649,25 @@
       <c r="A31" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="12">
         <v>0.71709999999999996</v>
       </c>
       <c r="C31">
         <v>0.25659999999999999</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="12">
         <v>0.87849999999999995</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="12">
         <v>0.50370000000000004</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="12">
         <v>0.96970000000000001</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="12">
         <v>0.50719999999999998</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="12">
         <v>0.93710000000000004</v>
       </c>
       <c r="I31">
@@ -17740,7 +17740,7 @@
       <c r="B33">
         <v>0.1875</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="12">
         <v>0.67610000000000003</v>
       </c>
       <c r="D33">
@@ -17786,16 +17786,16 @@
       <c r="A35" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="12">
         <v>0.52190000000000003</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="12">
         <v>0.90239999999999998</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="12">
         <v>0.69420000000000004</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="12">
         <v>0.57079999999999997</v>
       </c>
       <c r="F35">
@@ -17935,10 +17935,10 @@
       <c r="E39">
         <v>0.31730000000000003</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="12">
         <v>0.76759999999999995</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="12">
         <v>0.53739999999999999</v>
       </c>
       <c r="H39">
@@ -18029,7 +18029,7 @@
       <c r="G41">
         <v>0.17349999999999999</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="12">
         <v>0.57640000000000002</v>
       </c>
       <c r="I41">
@@ -37204,11 +37204,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B91:M91"/>
-    <mergeCell ref="A105:M105"/>
-    <mergeCell ref="B106:M106"/>
-    <mergeCell ref="A120:M120"/>
-    <mergeCell ref="B121:M121"/>
     <mergeCell ref="A90:M90"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A15:M15"/>
@@ -37221,6 +37216,11 @@
     <mergeCell ref="B61:M61"/>
     <mergeCell ref="A75:M75"/>
     <mergeCell ref="B76:M76"/>
+    <mergeCell ref="B91:M91"/>
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="B106:M106"/>
+    <mergeCell ref="A120:M120"/>
+    <mergeCell ref="B121:M121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37793,6 +37793,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -37800,11 +37805,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37815,7 +37815,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/lca estimations/selects1999_lcaresults.xlsx
+++ b/lca estimations/selects1999_lcaresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\OneDrive\Bureau\master-thesis\lca estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CD34E1-2C6A-4C0E-B79E-0B3668B7AF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80625122-5517-40FF-9BDA-6EB5CA256DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="14140" windowHeight="11370" firstSheet="2" activeTab="2" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="7" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1521,7 +1521,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1555,6 +1555,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,7 +1721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1827,6 +1833,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16680,10 +16689,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA7F9F8-281B-4B85-B195-B5DD0C70CF99}">
   <dimension ref="A1:N372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16851,10 +16860,10 @@
       <c r="I7">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="12">
         <v>0.7339</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="12">
         <v>0.75329999999999997</v>
       </c>
       <c r="L7">
@@ -16886,10 +16895,10 @@
       <c r="F8">
         <v>0.25140000000000001</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="12">
         <v>0.68500000000000005</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="12">
         <v>0.53310000000000002</v>
       </c>
       <c r="I8">
@@ -16901,7 +16910,7 @@
       <c r="K8">
         <v>0.2195</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="12">
         <v>0.63770000000000004</v>
       </c>
       <c r="M8">
@@ -16936,7 +16945,7 @@
       <c r="H9">
         <v>0.25309999999999999</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="12">
         <v>0.46339999999999998</v>
       </c>
       <c r="J9">
@@ -16948,7 +16957,7 @@
       <c r="L9">
         <v>0.17100000000000001</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="12">
         <v>0.47870000000000001</v>
       </c>
       <c r="N9">
@@ -16985,7 +16994,7 @@
       <c r="H11" s="12">
         <v>0.72230000000000005</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="12">
         <v>0.64510000000000001</v>
       </c>
       <c r="J11">
@@ -16994,10 +17003,10 @@
       <c r="K11">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="12">
         <v>0.51990000000000003</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="12">
         <v>0.95530000000000004</v>
       </c>
       <c r="N11">
@@ -17032,7 +17041,7 @@
       <c r="I12">
         <v>0.32919999999999999</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="12">
         <v>0.58069999999999999</v>
       </c>
       <c r="K12">
@@ -17076,10 +17085,10 @@
       <c r="I13">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="12">
         <v>0.41699999999999998</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="12">
         <v>0.42399999999999999</v>
       </c>
       <c r="L13">
@@ -17166,7 +17175,7 @@
       <c r="H16">
         <v>0.40289999999999998</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="12">
         <v>0.48480000000000001</v>
       </c>
       <c r="J16">
@@ -17175,10 +17184,10 @@
       <c r="K16">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="12">
         <v>0.79120000000000001</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="12">
         <v>0.58660000000000001</v>
       </c>
       <c r="N16">
@@ -17204,7 +17213,7 @@
       <c r="F17" s="12">
         <v>0.75619999999999998</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="12">
         <v>0.44900000000000001</v>
       </c>
       <c r="H17" s="12">
@@ -17213,10 +17222,10 @@
       <c r="I17">
         <v>0.31859999999999999</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="12">
         <v>0.74</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="12">
         <v>0.94430000000000003</v>
       </c>
       <c r="L17">
@@ -17262,16 +17271,16 @@
       <c r="I19">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="12">
         <v>0.87960000000000005</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="12">
         <v>0.42109999999999997</v>
       </c>
       <c r="L19">
         <v>0.29289999999999999</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="16">
         <v>0.30620000000000003</v>
       </c>
       <c r="N19">
@@ -17312,10 +17321,10 @@
       <c r="K20">
         <v>0.20860000000000001</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="12">
         <v>0.56630000000000003</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="16">
         <v>0.29780000000000001</v>
       </c>
       <c r="N20">
@@ -17347,19 +17356,19 @@
       <c r="H21">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="12">
         <v>0.69630000000000003</v>
       </c>
       <c r="J21">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="12">
         <v>0.37030000000000002</v>
       </c>
       <c r="L21">
         <v>0.14080000000000001</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="12">
         <v>0.39600000000000002</v>
       </c>
       <c r="N21">
@@ -17396,13 +17405,13 @@
       <c r="H23">
         <v>1.67E-2</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="12">
         <v>0.87150000000000005</v>
       </c>
       <c r="J23">
         <v>0.21199999999999999</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="12">
         <v>0.81140000000000001</v>
       </c>
       <c r="L23">
@@ -17452,7 +17461,7 @@
       <c r="L24">
         <v>0.28739999999999999</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="12">
         <v>0.54759999999999998</v>
       </c>
       <c r="N24">
@@ -17487,13 +17496,13 @@
       <c r="I25">
         <v>1.9E-3</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="12">
         <v>0.68310000000000004</v>
       </c>
       <c r="K25">
         <v>0.10639999999999999</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="12">
         <v>0.43159999999999998</v>
       </c>
       <c r="M25">
@@ -17533,13 +17542,13 @@
       <c r="H27">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="12">
         <v>0.84189999999999998</v>
       </c>
       <c r="J27">
         <v>0.34339999999999998</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="12">
         <v>0.56259999999999999</v>
       </c>
       <c r="L27">
@@ -17586,7 +17595,7 @@
       <c r="K28">
         <v>0.1007</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="12">
         <v>0.53949999999999998</v>
       </c>
       <c r="M28">
@@ -17624,7 +17633,7 @@
       <c r="I29">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="12">
         <v>0.4078</v>
       </c>
       <c r="K29">
@@ -17633,7 +17642,7 @@
       <c r="L29">
         <v>0.4415</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="12">
         <v>0.47549999999999998</v>
       </c>
       <c r="N29">
@@ -17673,7 +17682,7 @@
       <c r="I31">
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="12">
         <v>0.86170000000000002</v>
       </c>
       <c r="K31">
@@ -17682,7 +17691,7 @@
       <c r="L31">
         <v>0.21820000000000001</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="12">
         <v>0.60560000000000003</v>
       </c>
       <c r="N31">
@@ -17723,7 +17732,7 @@
       <c r="K32">
         <v>5.28E-2</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="12">
         <v>0.70020000000000004</v>
       </c>
       <c r="M32">
@@ -17758,13 +17767,13 @@
       <c r="H33">
         <v>1.9E-3</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="12">
         <v>0.63919999999999999</v>
       </c>
       <c r="J33">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="12">
         <v>0.69569999999999999</v>
       </c>
       <c r="L33">
@@ -17819,7 +17828,7 @@
       <c r="L35">
         <v>0.14710000000000001</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="12">
         <v>0.90920000000000001</v>
       </c>
       <c r="N35">
@@ -17851,16 +17860,16 @@
       <c r="H36">
         <v>0.57450000000000001</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="12">
         <v>0.50939999999999996</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="12">
         <v>0.52910000000000001</v>
       </c>
       <c r="K36">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="12">
         <v>0.85219999999999996</v>
       </c>
       <c r="M36">
@@ -17901,7 +17910,7 @@
       <c r="J37">
         <v>0.2472</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="12">
         <v>0.50509999999999999</v>
       </c>
       <c r="L37">
@@ -17947,10 +17956,10 @@
       <c r="I39">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="12">
         <v>0.63829999999999998</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="12">
         <v>0.49209999999999998</v>
       </c>
       <c r="L39">
@@ -17997,7 +18006,7 @@
       <c r="K40">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="12">
         <v>0.5131</v>
       </c>
       <c r="M40">
@@ -18032,7 +18041,7 @@
       <c r="H41" s="12">
         <v>0.57640000000000002</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="12">
         <v>0.84060000000000001</v>
       </c>
       <c r="J41">
@@ -18044,7 +18053,7 @@
       <c r="L41">
         <v>0.32169999999999999</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="12">
         <v>0.90180000000000005</v>
       </c>
       <c r="N41">
@@ -37204,6 +37213,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B91:M91"/>
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="B106:M106"/>
+    <mergeCell ref="A120:M120"/>
+    <mergeCell ref="B121:M121"/>
     <mergeCell ref="A90:M90"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A15:M15"/>
@@ -37216,11 +37230,6 @@
     <mergeCell ref="B61:M61"/>
     <mergeCell ref="A75:M75"/>
     <mergeCell ref="B76:M76"/>
-    <mergeCell ref="B91:M91"/>
-    <mergeCell ref="A105:M105"/>
-    <mergeCell ref="B106:M106"/>
-    <mergeCell ref="A120:M120"/>
-    <mergeCell ref="B121:M121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37235,7 +37244,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37546,7 +37555,7 @@
       <c r="F14" s="26">
         <v>0.92290000000000005</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="46">
         <v>0.85470000000000002</v>
       </c>
     </row>
@@ -37766,7 +37775,7 @@
       <c r="F24" s="21">
         <v>-0.71040000000000003</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="46">
         <v>0.70050000000000001</v>
       </c>
     </row>
@@ -37793,11 +37802,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -37805,6 +37809,11 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38015,7 +38024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4488E5F7-017A-4AF3-89B8-C4EE09303AAF}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/lca estimations/selects1999_lcaresults.xlsx
+++ b/lca estimations/selects1999_lcaresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\OneDrive\Bureau\master-thesis\lca estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80625122-5517-40FF-9BDA-6EB5CA256DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF3C680-BA1C-4DF9-A741-1CF14604629D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="7" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="8" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Feuil6" sheetId="6" r:id="rId6"/>
     <sheet name="Feuil7" sheetId="7" r:id="rId7"/>
     <sheet name="Feuil8" sheetId="8" r:id="rId8"/>
+    <sheet name="Feuil9" sheetId="9" r:id="rId9"/>
+    <sheet name="Feuil10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="464">
   <si>
     <t>selects1999.sav</t>
   </si>
@@ -1468,6 +1470,33 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>PRD</t>
+  </si>
+  <si>
+    <t>PDC</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>UDC</t>
+  </si>
+  <si>
+    <t>Greens</t>
+  </si>
+  <si>
+    <t>Right (UDC)</t>
+  </si>
+  <si>
+    <t>Center-right (PRD, PDC)</t>
+  </si>
+  <si>
+    <t>2, 8, 12</t>
+  </si>
+  <si>
+    <t>1, 4</t>
   </si>
 </sst>
 </file>
@@ -1804,6 +1833,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1833,9 +1865,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13034,73 +13063,73 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
     </row>
     <row r="5" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -13903,6 +13932,47 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A7170C-FEA1-4177-B475-E9C75ED19862}">
+  <dimension ref="B1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9709DC-552F-4C6B-9224-EEC8D1F9F04F}">
   <dimension ref="A1:O104"/>
@@ -13919,23 +13989,23 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -16120,22 +16190,22 @@
       <c r="A77" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="38"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
@@ -16689,10 +16759,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA7F9F8-281B-4B85-B195-B5DD0C70CF99}">
   <dimension ref="A1:N372"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C3" zoomScale="69" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18020,16 +18090,16 @@
       <c r="A41" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="12">
         <v>0.94369999999999998</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="12">
         <v>0.89629999999999999</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="12">
         <v>0.86860000000000004</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="12">
         <v>0.67100000000000004</v>
       </c>
       <c r="F41">
@@ -21120,7 +21190,7 @@
       <c r="C119" s="2">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="10">
         <v>0.11840000000000001</v>
       </c>
       <c r="E119" s="2">
@@ -21179,7 +21249,7 @@
       <c r="H120" s="2">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="I120" s="2">
+      <c r="I120" s="10">
         <v>0.51129999999999998</v>
       </c>
       <c r="J120" s="2">
@@ -21208,31 +21278,31 @@
       <c r="C121" s="2">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="10">
         <v>0.25409999999999999</v>
       </c>
       <c r="E121" s="2">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="10">
         <v>0.34610000000000002</v>
       </c>
       <c r="G121" s="2">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="H121" s="2">
+      <c r="H121" s="10">
         <v>0.3513</v>
       </c>
       <c r="I121" s="2">
         <v>2.52E-2</v>
       </c>
-      <c r="J121" s="2">
+      <c r="J121" s="10">
         <v>0.37730000000000002</v>
       </c>
       <c r="K121" s="2">
         <v>0.12130000000000001</v>
       </c>
-      <c r="L121" s="2">
+      <c r="L121" s="10">
         <v>0.2177</v>
       </c>
       <c r="M121" s="2">
@@ -34246,20 +34316,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -34564,36 +34634,36 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -34895,36 +34965,36 @@
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
     </row>
     <row r="31" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
     </row>
     <row r="32" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
@@ -35226,36 +35296,36 @@
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
     </row>
     <row r="46" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
@@ -35557,36 +35627,36 @@
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
     </row>
     <row r="61" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
@@ -35888,36 +35958,36 @@
       <c r="M74" s="4"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
     </row>
     <row r="76" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
     </row>
     <row r="77" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
@@ -36219,36 +36289,36 @@
       <c r="M89" s="4"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A90" s="37"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="37"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="38"/>
     </row>
     <row r="91" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
     </row>
     <row r="92" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
@@ -36550,36 +36620,36 @@
       <c r="M104" s="4"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A105" s="37"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="37"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="37"/>
-      <c r="K105" s="37"/>
-      <c r="L105" s="37"/>
-      <c r="M105" s="37"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="38"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="38"/>
     </row>
     <row r="106" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
-      <c r="L106" s="36"/>
-      <c r="M106" s="36"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="37"/>
     </row>
     <row r="107" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
@@ -36881,36 +36951,36 @@
       <c r="M119" s="4"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A120" s="37"/>
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="37"/>
-      <c r="H120" s="37"/>
-      <c r="I120" s="37"/>
-      <c r="J120" s="37"/>
-      <c r="K120" s="37"/>
-      <c r="L120" s="37"/>
-      <c r="M120" s="37"/>
+      <c r="A120" s="38"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="38"/>
+      <c r="J120" s="38"/>
+      <c r="K120" s="38"/>
+      <c r="L120" s="38"/>
+      <c r="M120" s="38"/>
     </row>
     <row r="121" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4"/>
-      <c r="B121" s="36" t="s">
+      <c r="B121" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="C121" s="36"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="36"/>
-      <c r="L121" s="36"/>
-      <c r="M121" s="36"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="37"/>
+      <c r="K121" s="37"/>
+      <c r="L121" s="37"/>
+      <c r="M121" s="37"/>
     </row>
     <row r="122" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
@@ -37213,11 +37283,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B91:M91"/>
-    <mergeCell ref="A105:M105"/>
-    <mergeCell ref="B106:M106"/>
-    <mergeCell ref="A120:M120"/>
-    <mergeCell ref="B121:M121"/>
     <mergeCell ref="A90:M90"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A15:M15"/>
@@ -37230,6 +37295,11 @@
     <mergeCell ref="B61:M61"/>
     <mergeCell ref="A75:M75"/>
     <mergeCell ref="B76:M76"/>
+    <mergeCell ref="B91:M91"/>
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="B106:M106"/>
+    <mergeCell ref="A120:M120"/>
+    <mergeCell ref="B121:M121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37244,7 +37314,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37273,7 +37343,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="21">
@@ -37296,7 +37366,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="21">
         <v>-5.9700000000000003E-2</v>
       </c>
@@ -37317,7 +37387,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="26">
@@ -37340,7 +37410,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="21">
         <v>9.1630000000000003</v>
       </c>
@@ -37361,7 +37431,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>104</v>
       </c>
       <c r="B6" s="25">
@@ -37384,7 +37454,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="21">
         <v>0.75719999999999998</v>
       </c>
@@ -37405,7 +37475,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="25">
@@ -37428,7 +37498,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="21">
         <v>0.72309999999999997</v>
       </c>
@@ -37449,7 +37519,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="39" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="21">
@@ -37472,7 +37542,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="21">
         <v>-0.17280000000000001</v>
       </c>
@@ -37493,7 +37563,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="39" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="25">
@@ -37516,7 +37586,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="21">
         <v>0.63780000000000003</v>
       </c>
@@ -37537,7 +37607,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="39" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="21">
@@ -37555,12 +37625,12 @@
       <c r="F14" s="26">
         <v>0.92290000000000005</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="36">
         <v>0.85470000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="21">
         <v>-1.0123</v>
       </c>
@@ -37581,7 +37651,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="39" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="26">
@@ -37604,7 +37674,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="21">
         <v>5.4676</v>
       </c>
@@ -37625,7 +37695,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="39" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="22">
@@ -37648,7 +37718,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="38"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="21">
         <v>-3.3971</v>
       </c>
@@ -37669,7 +37739,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="39" t="s">
         <v>111</v>
       </c>
       <c r="B20" s="21">
@@ -37692,7 +37762,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="38"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="21">
         <v>-1.0934999999999999</v>
       </c>
@@ -37713,7 +37783,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="39" t="s">
         <v>112</v>
       </c>
       <c r="B22" s="21">
@@ -37736,7 +37806,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="38"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="21">
         <v>-0.66180000000000005</v>
       </c>
@@ -37757,7 +37827,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="39" t="s">
         <v>113</v>
       </c>
       <c r="B24" s="26">
@@ -37775,12 +37845,12 @@
       <c r="F24" s="21">
         <v>-0.71040000000000003</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="36">
         <v>0.70050000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="38"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="21">
         <v>2.1248999999999998</v>
       </c>
@@ -37802,6 +37872,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -37809,11 +37884,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38024,7 +38094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4488E5F7-017A-4AF3-89B8-C4EE09303AAF}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -38036,17 +38106,17 @@
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>429</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="32" t="s">
         <v>423</v>
       </c>
@@ -38058,7 +38128,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>425</v>
       </c>
       <c r="B3" s="31" t="s">
@@ -38071,7 +38141,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="29" t="s">
         <v>432</v>
       </c>
@@ -38080,7 +38150,7 @@
       <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="30" t="s">
         <v>438</v>
       </c>
@@ -38091,7 +38161,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>427</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -38104,7 +38174,7 @@
       <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="29" t="s">
         <v>432</v>
       </c>
@@ -38113,7 +38183,7 @@
       <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="30" t="s">
         <v>438</v>
       </c>
@@ -38124,7 +38194,7 @@
       <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="40" t="s">
         <v>428</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -38137,7 +38207,7 @@
       <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="29" t="s">
         <v>432</v>
       </c>
@@ -38147,7 +38217,7 @@
       <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="30" t="s">
         <v>438</v>
       </c>
@@ -38156,7 +38226,7 @@
       <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="40" t="s">
         <v>426</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -38167,7 +38237,7 @@
       <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="29" t="s">
         <v>432</v>
       </c>
@@ -38180,7 +38250,7 @@
       <c r="E13" s="33"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="30" t="s">
         <v>438</v>
       </c>
@@ -38189,7 +38259,7 @@
       <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>430</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -38202,7 +38272,7 @@
       <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="29" t="s">
         <v>432</v>
       </c>
@@ -38213,7 +38283,7 @@
       <c r="E16" s="33"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="30" t="s">
         <v>438</v>
       </c>
@@ -38233,4 +38303,520 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35301A6-45F6-4940-B210-C1159B792A3E}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-1.8800000000000001E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-9.7799999999999998E-2</v>
+      </c>
+      <c r="D2" s="10">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-2.6200000000000001E-2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-0.29720000000000002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-1.5496000000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.7548999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.78380000000000005</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.9188000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-0.36109999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-0.1181</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.47420000000000001</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.46539999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-8.6684999999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-2.7862</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.5808</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-10.3962</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11.5762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-4.8399999999999999E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-5.3600000000000002E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-7.0800000000000002E-2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-0.15060000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-0.93440000000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-0.79069999999999996</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-1.4362999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6.6074999999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-2.5825999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-0.12570000000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.22459999999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-0.1278</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-2.6728999999999998</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.7903</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.3014000000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-4.1867000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-0.86119999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-0.19470000000000001</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-0.32850000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.8079999999999998</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.9266000000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-3.6676000000000002</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.1388999999999996</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-6.6204999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.1211</v>
+      </c>
+      <c r="C12" s="10">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.18509999999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-5.16E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.7541</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.1957</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.0518999999999998</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-3.7248999999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-1.2598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-5.6300000000000003E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.38529999999999998</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-0.28520000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-1.0556000000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-2.3235999999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6.4917999999999996</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-4.7145999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-0.24199999999999999</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-8.5000000000000006E-3</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.29680000000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-0.5897</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.25640000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-5.1231999999999998</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-0.2077</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6.5259</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-10.471</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6.3430999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.32790000000000002</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-0.4345</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.40450000000000003</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-0.26550000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5.2594000000000003</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.63919999999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-7.0561999999999996</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6.6502999999999997</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-4.8274999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.42909999999999998</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-0.26919999999999999</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-4.1099999999999998E-2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B21" s="2">
+        <v>8.6849000000000007</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.4723</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-4.6616999999999997</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-0.80810000000000004</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-7.7100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="2">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-2.5499999999999998E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.1366</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-8.1500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.2859</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-0.57879999999999998</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-1.0545</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.3818999999999999</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-1.3509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-0.37919999999999998</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-4.2299999999999997E-2</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.38190000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-4.1611000000000002</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.3659</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.7192000000000001</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-0.80769999999999997</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4.4488000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lca estimations/selects1999_lcaresults.xlsx
+++ b/lca estimations/selects1999_lcaresults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\OneDrive\Bureau\master-thesis\lca estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF3C680-BA1C-4DF9-A741-1CF14604629D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A98777-A108-412B-B8C1-9F1BE064486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="8" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="465">
   <si>
     <t>selects1999.sav</t>
   </si>
@@ -1497,6 +1497,9 @@
   </si>
   <si>
     <t>1, 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1553,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1590,6 +1593,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,7 +1789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1866,6 +1905,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -16757,19 +16818,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA7F9F8-281B-4B85-B195-B5DD0C70CF99}">
-  <dimension ref="A1:N372"/>
+  <dimension ref="A1:O372"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="69" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="72" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
@@ -16778,47 +16844,48 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B2" s="54"/>
       <c r="K2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>113</v>
+      <c r="M3" s="49" t="s">
+        <v>464</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>150</v>
@@ -17924,10 +17991,10 @@
       <c r="F36">
         <v>0.27979999999999999</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="12">
         <v>0.62539999999999996</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="12">
         <v>0.57450000000000001</v>
       </c>
       <c r="I36" s="12">
@@ -19664,7 +19731,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>212</v>
       </c>
@@ -19708,7 +19775,7 @@
         <v>0.11260000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>193</v>
       </c>
@@ -19752,7 +19819,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>213</v>
       </c>
@@ -19770,7 +19837,7 @@
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>214</v>
       </c>
@@ -19814,7 +19881,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>215</v>
       </c>
@@ -19858,7 +19925,7 @@
         <v>0.3775</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>216</v>
       </c>
@@ -19902,7 +19969,7 @@
         <v>0.1452</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>193</v>
       </c>
@@ -19946,7 +20013,7 @@
         <v>7.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>217</v>
       </c>
@@ -19964,7 +20031,7 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>214</v>
       </c>
@@ -20008,7 +20075,7 @@
         <v>0.41249999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>215</v>
       </c>
@@ -20052,7 +20119,7 @@
         <v>0.3367</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>216</v>
       </c>
@@ -20096,7 +20163,7 @@
         <v>0.13750000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>193</v>
       </c>
@@ -20140,7 +20207,7 @@
         <v>0.1133</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>218</v>
       </c>
@@ -20158,7 +20225,7 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>219</v>
       </c>
@@ -20201,8 +20268,12 @@
       <c r="N94" s="2">
         <v>1.6899999999999998E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O94">
+        <f>D94-N94</f>
+        <v>1.3500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>220</v>
       </c>
@@ -20245,8 +20316,12 @@
       <c r="N95" s="2">
         <v>2.1499999999999998E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O95">
+        <f t="shared" ref="O95:O103" si="0">D95-N95</f>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>221</v>
       </c>
@@ -20289,8 +20364,12 @@
       <c r="N96" s="2">
         <v>0.10680000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O96">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999978E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>222</v>
       </c>
@@ -20333,8 +20412,12 @@
       <c r="N97" s="2">
         <v>0.18629999999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O97">
+        <f t="shared" si="0"/>
+        <v>-3.1799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>223</v>
       </c>
@@ -20377,8 +20460,12 @@
       <c r="N98" s="2">
         <v>0.11020000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O98">
+        <f t="shared" si="0"/>
+        <v>3.2199999999999993E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>224</v>
       </c>
@@ -20421,8 +20508,12 @@
       <c r="N99" s="2">
         <v>3.6799999999999999E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O99">
+        <f t="shared" si="0"/>
+        <v>-1.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>225</v>
       </c>
@@ -20465,8 +20556,12 @@
       <c r="N100" s="2">
         <v>7.0900000000000005E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O100">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999923E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>226</v>
       </c>
@@ -20509,8 +20604,12 @@
       <c r="N101" s="2">
         <v>7.3999999999999996E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O101">
+        <f t="shared" si="0"/>
+        <v>-4.5799999999999993E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>227</v>
       </c>
@@ -20553,8 +20652,12 @@
       <c r="N102" s="2">
         <v>0.20780000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O102">
+        <f t="shared" si="0"/>
+        <v>-1.3500000000000012E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>228</v>
       </c>
@@ -20597,8 +20700,12 @@
       <c r="N103" s="2">
         <v>9.64E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O103">
+        <f>D103-N103</f>
+        <v>6.2899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>193</v>
       </c>
@@ -20642,7 +20749,7 @@
         <v>7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>229</v>
       </c>
@@ -20660,7 +20767,7 @@
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>230</v>
       </c>
@@ -20704,7 +20811,7 @@
         <v>0.15720000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>231</v>
       </c>
@@ -20748,7 +20855,7 @@
         <v>0.4748</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>232</v>
       </c>
@@ -20792,7 +20899,7 @@
         <v>0.25019999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>233</v>
       </c>
@@ -20836,7 +20943,7 @@
         <v>0.1169</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>193</v>
       </c>
@@ -20880,7 +20987,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>188</v>
       </c>
@@ -20924,7 +21031,7 @@
         <v>2.3271999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>234</v>
       </c>
@@ -21152,10 +21259,10 @@
       <c r="E118" s="2">
         <v>0.14460000000000001</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="10">
         <v>0.1958</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G118" s="10">
         <v>0.23880000000000001</v>
       </c>
       <c r="H118" s="2">
@@ -21164,10 +21271,10 @@
       <c r="I118" s="2">
         <v>0.1182</v>
       </c>
-      <c r="J118" s="2">
+      <c r="J118" s="10">
         <v>0.2681</v>
       </c>
-      <c r="K118" s="2">
+      <c r="K118" s="10">
         <v>0.34460000000000002</v>
       </c>
       <c r="L118" s="2">
@@ -21184,7 +21291,7 @@
       <c r="A119" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="10">
         <v>0.1084</v>
       </c>
       <c r="C119" s="2">
@@ -21199,7 +21306,7 @@
       <c r="F119" s="2">
         <v>0.1258</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G119" s="10">
         <v>0.1158</v>
       </c>
       <c r="H119" s="2">
@@ -21211,7 +21318,7 @@
       <c r="J119" s="2">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="K119" s="2">
+      <c r="K119" s="10">
         <v>0.11559999999999999</v>
       </c>
       <c r="L119" s="2">
@@ -31665,7 +31772,7 @@
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37283,6 +37390,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B91:M91"/>
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="B106:M106"/>
+    <mergeCell ref="A120:M120"/>
+    <mergeCell ref="B121:M121"/>
     <mergeCell ref="A90:M90"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A15:M15"/>
@@ -37295,11 +37407,6 @@
     <mergeCell ref="B61:M61"/>
     <mergeCell ref="A75:M75"/>
     <mergeCell ref="B76:M76"/>
-    <mergeCell ref="B91:M91"/>
-    <mergeCell ref="A105:M105"/>
-    <mergeCell ref="B106:M106"/>
-    <mergeCell ref="A120:M120"/>
-    <mergeCell ref="B121:M121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37872,11 +37979,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -37884,6 +37986,11 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37893,7 +38000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF444BFF-E328-4BE5-8E9A-815970B56C64}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -38309,8 +38416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35301A6-45F6-4940-B210-C1159B792A3E}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/lca estimations/selects1999_lcaresults.xlsx
+++ b/lca estimations/selects1999_lcaresults.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\OneDrive\Bureau\master-thesis\lca estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A98777-A108-412B-B8C1-9F1BE064486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0666C801-7416-4CE0-9C13-5785D05345CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{7409AF01-9589-4A5B-B5B8-147D06788643}"/>
   </bookViews>
@@ -1313,16 +1313,6 @@
 pro-nuclear energy.</t>
   </si>
   <si>
-    <t>For increase in social spending;
-for higher taxes on HI;
-for no army;
-pro-EU integration;
-for equal chances Swiss-foreigners;
-question traditions;
-pro-environment;
-against nuclear energy.</t>
-  </si>
-  <si>
     <t>For reducing taxes on HI;
 for reducing social spending;
 strongly for free-markets;
@@ -1404,21 +1394,11 @@
 French-speaking; big city; Catholics and Atheists.</t>
   </si>
   <si>
-    <t>Rather middle-aged and old; female; low income; middle education; skilled and unskilled workers;
-Protestants; middle/small city ;German and Italian-speaking.</t>
-  </si>
-  <si>
     <t>Rather old; female; low income; low and middle education; unskilled workers; craft specialists; self-employed; Protestants;
 German and Italian-speaking; countryside; middle/small city</t>
   </si>
   <si>
     <t>Unclear/divided</t>
-  </si>
-  <si>
-    <t>Young; female;middle-high income and education; skilled workers and managers; German and French-speaking; Catholics or no religion; big city.</t>
-  </si>
-  <si>
-    <t>Rather old; retired; male; middle-low income and education; Protestant; German speaking; farmers, craft specialists, skilled and unskilled workers; countryside, middle/small city.</t>
   </si>
   <si>
     <t>Old; high income; high education; vocational training; managers; skilled employees; retired; German-speaking; big city.</t>
@@ -1499,7 +1479,26 @@
     <t>1, 4</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>For increase in social spending;
+for higher taxes on HI;
+for no army;
+pro-EU integration;
+for equal chances Swiss-foreigners;
+question traditions;
+against nuclear energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster12 </t>
+  </si>
+  <si>
+    <t>Rather middle-aged and old; female;  middle-income; middle education; skilled and unskilled workers;
+Protestants; middle/small city ;German and Italian-speaking.</t>
+  </si>
+  <si>
+    <t>Young; female;middle income and education; skilled workers and managers; German and French-speaking; Catholics or no religion; big city.</t>
+  </si>
+  <si>
+    <t>Rather old; retired; male; middle income and education; Protestant; German speaking; farmers, craft specialists, skilled and unskilled workers; countryside, middle/small city.</t>
   </si>
 </sst>
 </file>
@@ -1875,6 +1874,28 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1905,28 +1926,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -13124,77 +13123,77 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
     </row>
     <row r="5" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>392</v>
@@ -14009,24 +14008,24 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -14038,7 +14037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9709DC-552F-4C6B-9224-EEC8D1F9F04F}">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -14050,23 +14049,23 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -16251,22 +16250,22 @@
       <c r="A77" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="46"/>
+      <c r="O77" s="46"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
@@ -16821,21 +16820,18 @@
   <dimension ref="A1:O372"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="72" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
@@ -16844,48 +16840,48 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="54"/>
+      <c r="B2" s="44"/>
       <c r="K2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="49" t="s">
-        <v>464</v>
+      <c r="M3" s="39" t="s">
+        <v>461</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>150</v>
@@ -20317,7 +20313,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="O95">
-        <f t="shared" ref="O95:O103" si="0">D95-N95</f>
+        <f t="shared" ref="O95:O102" si="0">D95-N95</f>
         <v>-9.9999999999999985E-3</v>
       </c>
     </row>
@@ -34423,20 +34419,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -34741,36 +34737,36 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
     </row>
     <row r="16" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -35072,36 +35068,36 @@
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
     </row>
     <row r="31" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
     </row>
     <row r="32" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
@@ -35403,36 +35399,36 @@
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
     </row>
     <row r="46" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
@@ -35734,36 +35730,36 @@
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
     </row>
     <row r="61" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
@@ -36065,36 +36061,36 @@
       <c r="M74" s="4"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
     </row>
     <row r="76" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
     </row>
     <row r="77" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
@@ -36396,36 +36392,36 @@
       <c r="M89" s="4"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A90" s="38"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="46"/>
     </row>
     <row r="91" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
-      <c r="B91" s="37" t="s">
+      <c r="B91" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="45"/>
+      <c r="M91" s="45"/>
     </row>
     <row r="92" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
@@ -36727,36 +36723,36 @@
       <c r="M104" s="4"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A105" s="38"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="38"/>
-      <c r="L105" s="38"/>
-      <c r="M105" s="38"/>
+      <c r="A105" s="46"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="46"/>
+      <c r="K105" s="46"/>
+      <c r="L105" s="46"/>
+      <c r="M105" s="46"/>
     </row>
     <row r="106" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
-      <c r="B106" s="37" t="s">
+      <c r="B106" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="37"/>
-      <c r="K106" s="37"/>
-      <c r="L106" s="37"/>
-      <c r="M106" s="37"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="45"/>
+      <c r="J106" s="45"/>
+      <c r="K106" s="45"/>
+      <c r="L106" s="45"/>
+      <c r="M106" s="45"/>
     </row>
     <row r="107" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
@@ -37058,36 +37054,36 @@
       <c r="M119" s="4"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A120" s="38"/>
-      <c r="B120" s="38"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="38"/>
-      <c r="E120" s="38"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="38"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="38"/>
-      <c r="J120" s="38"/>
-      <c r="K120" s="38"/>
-      <c r="L120" s="38"/>
-      <c r="M120" s="38"/>
+      <c r="A120" s="46"/>
+      <c r="B120" s="46"/>
+      <c r="C120" s="46"/>
+      <c r="D120" s="46"/>
+      <c r="E120" s="46"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="46"/>
+      <c r="I120" s="46"/>
+      <c r="J120" s="46"/>
+      <c r="K120" s="46"/>
+      <c r="L120" s="46"/>
+      <c r="M120" s="46"/>
     </row>
     <row r="121" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4"/>
-      <c r="B121" s="37" t="s">
+      <c r="B121" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C121" s="37"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="37"/>
-      <c r="K121" s="37"/>
-      <c r="L121" s="37"/>
-      <c r="M121" s="37"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="45"/>
+      <c r="J121" s="45"/>
+      <c r="K121" s="45"/>
+      <c r="L121" s="45"/>
+      <c r="M121" s="45"/>
     </row>
     <row r="122" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
@@ -37390,11 +37386,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B91:M91"/>
-    <mergeCell ref="A105:M105"/>
-    <mergeCell ref="B106:M106"/>
-    <mergeCell ref="A120:M120"/>
-    <mergeCell ref="B121:M121"/>
     <mergeCell ref="A90:M90"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A15:M15"/>
@@ -37407,6 +37398,11 @@
     <mergeCell ref="B61:M61"/>
     <mergeCell ref="A75:M75"/>
     <mergeCell ref="B76:M76"/>
+    <mergeCell ref="B91:M91"/>
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="B106:M106"/>
+    <mergeCell ref="A120:M120"/>
+    <mergeCell ref="B121:M121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37450,7 +37446,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="47" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="21">
@@ -37473,7 +37469,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="21">
         <v>-5.9700000000000003E-2</v>
       </c>
@@ -37494,7 +37490,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="47" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="26">
@@ -37517,7 +37513,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="21">
         <v>9.1630000000000003</v>
       </c>
@@ -37538,7 +37534,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="47" t="s">
         <v>104</v>
       </c>
       <c r="B6" s="25">
@@ -37561,7 +37557,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="21">
         <v>0.75719999999999998</v>
       </c>
@@ -37582,7 +37578,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="47" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="25">
@@ -37605,7 +37601,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="21">
         <v>0.72309999999999997</v>
       </c>
@@ -37626,7 +37622,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="47" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="21">
@@ -37649,7 +37645,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="21">
         <v>-0.17280000000000001</v>
       </c>
@@ -37670,7 +37666,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="47" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="25">
@@ -37693,7 +37689,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="21">
         <v>0.63780000000000003</v>
       </c>
@@ -37714,7 +37710,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="47" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="21">
@@ -37737,7 +37733,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="21">
         <v>-1.0123</v>
       </c>
@@ -37758,7 +37754,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="47" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="26">
@@ -37781,7 +37777,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="39"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="21">
         <v>5.4676</v>
       </c>
@@ -37802,7 +37798,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="47" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="22">
@@ -37825,7 +37821,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="21">
         <v>-3.3971</v>
       </c>
@@ -37846,7 +37842,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="47" t="s">
         <v>111</v>
       </c>
       <c r="B20" s="21">
@@ -37869,7 +37865,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="39"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="21">
         <v>-1.0934999999999999</v>
       </c>
@@ -37890,7 +37886,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="47" t="s">
         <v>112</v>
       </c>
       <c r="B22" s="21">
@@ -37913,7 +37909,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="39"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="21">
         <v>-0.66180000000000005</v>
       </c>
@@ -37934,7 +37930,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="47" t="s">
         <v>113</v>
       </c>
       <c r="B24" s="26">
@@ -37957,7 +37953,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="39"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="21">
         <v>2.1248999999999998</v>
       </c>
@@ -37979,6 +37975,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -37986,11 +37987,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38000,8 +37996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF444BFF-E328-4BE5-8E9A-815970B56C64}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38032,10 +38028,10 @@
         <v>402</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
@@ -38049,7 +38045,7 @@
         <v>415</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -38060,10 +38056,10 @@
         <v>404</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="116" x14ac:dyDescent="0.35">
@@ -38077,7 +38073,7 @@
         <v>416</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
@@ -38091,7 +38087,7 @@
         <v>417</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -38102,10 +38098,10 @@
         <v>407</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
@@ -38116,13 +38112,13 @@
         <v>407</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -38130,10 +38126,10 @@
         <v>408</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
@@ -38144,10 +38140,10 @@
         <v>409</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -38158,10 +38154,10 @@
         <v>409</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -38172,7 +38168,7 @@
         <v>410</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>412</v>
@@ -38186,7 +38182,7 @@
         <v>411</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>413</v>
@@ -38213,99 +38209,99 @@
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
-        <v>429</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="E2" s="32" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="48" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
-        <v>425</v>
-      </c>
       <c r="B3" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="42"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="30" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
-        <v>427</v>
+      <c r="A6" s="48" t="s">
+        <v>426</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="32" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="41"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="42"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="30" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="34" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
-        <v>428</v>
+      <c r="A9" s="48" t="s">
+        <v>427</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C9" s="31">
         <v>10</v>
@@ -38314,9 +38310,9 @@
       <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="33"/>
@@ -38324,32 +38320,32 @@
       <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="42"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="30" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
-        <v>426</v>
+      <c r="A12" s="48" t="s">
+        <v>425</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D13" s="33">
         <v>7</v>
@@ -38357,20 +38353,20 @@
       <c r="E13" s="33"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="42"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="30" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>430</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>431</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="32">
@@ -38379,9 +38375,9 @@
       <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="41"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="33">
@@ -38390,9 +38386,9 @@
       <c r="E16" s="33"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="42"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="30" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="34"/>
@@ -38417,7 +38413,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38427,19 +38423,19 @@
         <v>392</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -38736,7 +38732,7 @@
       <c r="D16" s="10">
         <v>0.29680000000000001</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="10">
         <v>-0.5897</v>
       </c>
       <c r="F16" s="10">
@@ -38773,7 +38769,7 @@
       <c r="C18" s="2">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="10">
         <v>-0.4345</v>
       </c>
       <c r="E18" s="10">
